--- a/A549_EGF/GO_Enrichment_Results.xlsx
+++ b/A549_EGF/GO_Enrichment_Results.xlsx
@@ -574,12 +574,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['ACTB', 'NT5E', 'CD63', 'LGALS3BP', 'SPP1', 'SFRP1', 'RPL28', 'TUBA4A', 'SQSTM1', 'YWHAE', 'ANXA5', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'CAPG', 'UBC', 'SH3BGRL3', 'UBB', 'ALDH2', 'ITGB4', 'S100A10', 'EZR', 'S100A4', 'GDF15', 'ALDH1A1', 'MYL6', 'EEF1A1', 'AXL', 'SERINC2', 'MYL12A', 'IGFBP7', 'RHOF', 'CD44', 'CSRP1', 'HSP90AB1', 'HSPE1', 'S100A6', 'GPRC5A', 'DSP', 'CLU', 'CD70', 'EPS8', 'ITM2B', 'RTN4RL2', 'TXNRD1', 'EIF2S3', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'NPC2', 'IDH1', 'KRT8', 'VDAC3', 'HSP90AA1', 'CNTN1', 'PSAT1', 'PKM', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'KRT18', 'TUBB4B', 'ACTG1', 'CCT4', 'FN1', 'NCL', 'SLPI', 'PA2G4', 'ITGA3', 'KRT7', 'AKR1C1', 'ANXA2', 'HGD', 'F12', 'PRSS23', 'TXN', 'PSMC6', 'VIM', 'TAX1BP1', 'MFGE8', 'BLVRB', 'CCT3', 'PSME2', 'CDC42', 'S100A11', 'ECH1', 'RPLP2', 'LDHA', 'CTNNB1', 'RAN', 'CCT5', 'PSMA4', 'SERPINB1', 'PLAU', 'RAB10', 'EIF4A1', 'CD9', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'TXNDC17', 'NAMPT', 'MUC5AC', 'AHNAK', 'FABP5', 'SLC7A5', 'AKR1B1', 'HPGD', 'NANS', 'CPNE7', 'TMC5', 'GSTO1', 'AKR1C3', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'AXL', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'LTA4H', 'RTN4RL2', 'EIF2S3', 'UPK1B', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CSRP1', 'GDF15', 'KRT8', 'PKM', 'CTNNB1', 'SQSTM1', 'S100A11', 'LGALS1', 'COTL1', 'PSMA4', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'PRDX4', 'FN1', 'RAP2B', 'CPNE7', 'C1GALT1C1', 'CDK1', 'LGALS3BP', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'CD44', 'UBB', 'TXNDC17', 'DSP', 'CNTN1', 'PGD', 'CTSL', 'EXOSC9', 'KRT18', 'GPRC5A', 'ALDH2', 'PLAU', 'ANXA2', 'AKR1B1', 'RPL34', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'TUBA4A', 'EPS8', 'ITM2B', 'BLVRB', 'VDAC3', 'PPP1CB', 'CCT5', 'RPLP2', 'TXNRD1', 'AKR1C1', 'SFRP1', 'LGALS3', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBC', 'NAMPT', 'ACTB', 'AHNAK', 'F12', 'CAPG', 'GCNT3', 'ANXA5', 'SERPINB1', 'ECH1', 'HSP90AA1', 'LDHA', 'HSPE1', 'PSMC6', 'RPL28', 'IDH1', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ARPC3', 'SLPI', 'PSME2', 'CAPZA1', 'VIM', 'KRT7', 'HGD', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'LDHB', 'KRT19', 'PTPRS', 'CLU', 'S100A16', 'S100A10', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'TAX1BP1', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['ACTB', 'NT5E', 'CD63', 'LGALS3BP', 'SPP1', 'SFRP1', 'RPL28', 'TUBA4A', 'SQSTM1', 'YWHAE', 'ANXA5', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'CAPG', 'UBC', 'SH3BGRL3', 'UBB', 'ALDH2', 'ITGB4', 'S100A10', 'EZR', 'S100A4', 'GDF15', 'ALDH1A1', 'MYL6', 'EEF1A1', 'AXL', 'SERINC2', 'MYL12A', 'IGFBP7', 'RHOF', 'CD44', 'CSRP1', 'HSP90AB1', 'HSPE1', 'S100A6', 'GPRC5A', 'DSP', 'CLU', 'CD70', 'EPS8', 'ITM2B', 'RTN4RL2', 'TXNRD1', 'EIF2S3', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'NPC2', 'IDH1', 'KRT8', 'VDAC3', 'HSP90AA1', 'CNTN1', 'PSAT1', 'PKM', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'KRT18', 'TUBB4B', 'ACTG1', 'CCT4', 'FN1', 'NCL', 'SLPI', 'PA2G4', 'ITGA3', 'KRT7', 'AKR1C1', 'ANXA2', 'HGD', 'F12', 'PRSS23', 'TXN', 'PSMC6', 'VIM', 'TAX1BP1', 'MFGE8', 'BLVRB', 'CCT3', 'PSME2', 'CDC42', 'S100A11', 'ECH1', 'RPLP2', 'LDHA', 'CTNNB1', 'RAN', 'CCT5', 'PSMA4', 'SERPINB1', 'PLAU', 'RAB10', 'EIF4A1', 'CD9', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'TXNDC17', 'NAMPT', 'MUC5AC', 'AHNAK', 'FABP5', 'SLC7A5', 'AKR1B1', 'HPGD', 'NANS', 'CPNE7', 'TMC5', 'GSTO1', 'AKR1C3', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'AXL', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'LTA4H', 'RTN4RL2', 'EIF2S3', 'UPK1B', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CSRP1', 'GDF15', 'KRT8', 'PKM', 'CTNNB1', 'SQSTM1', 'S100A11', 'LGALS1', 'COTL1', 'PSMA4', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'PRDX4', 'FN1', 'RAP2B', 'CPNE7', 'C1GALT1C1', 'CDK1', 'LGALS3BP', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'CD44', 'UBB', 'TXNDC17', 'DSP', 'CNTN1', 'PGD', 'CTSL', 'EXOSC9', 'KRT18', 'GPRC5A', 'ALDH2', 'PLAU', 'ANXA2', 'AKR1B1', 'RPL34', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'TUBA4A', 'EPS8', 'ITM2B', 'BLVRB', 'VDAC3', 'PPP1CB', 'CCT5', 'RPLP2', 'TXNRD1', 'AKR1C1', 'SFRP1', 'LGALS3', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBC', 'NAMPT', 'ACTB', 'AHNAK', 'F12', 'CAPG', 'GCNT3', 'ANXA5', 'SERPINB1', 'ECH1', 'HSP90AA1', 'LDHA', 'HSPE1', 'PSMC6', 'RPL28', 'IDH1', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ARPC3', 'SLPI', 'PSME2', 'CAPZA1', 'VIM', 'KRT7', 'HGD', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'LDHB', 'KRT19', 'PTPRS', 'CLU', 'S100A16', 'S100A10', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'TAX1BP1', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['ACTB', 'NT5E', 'CD63', 'LGALS3BP', 'SPP1', 'SFRP1', 'RPL28', 'TUBA4A', 'SQSTM1', 'YWHAE', 'ANXA5', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'CAPG', 'UBC', 'SH3BGRL3', 'UBB', 'ALDH2', 'ITGB4', 'S100A10', 'EZR', 'S100A4', 'GDF15', 'ALDH1A1', 'MYL6', 'EEF1A1', 'AXL', 'SERINC2', 'MYL12A', 'IGFBP7', 'RHOF', 'CD44', 'CSRP1', 'HSP90AB1', 'HSPE1', 'S100A6', 'GPRC5A', 'DSP', 'CLU', 'CD70', 'EPS8', 'ITM2B', 'RTN4RL2', 'TXNRD1', 'EIF2S3', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'NPC2', 'IDH1', 'KRT8', 'VDAC3', 'HSP90AA1', 'CNTN1', 'PSAT1', 'PKM', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'KRT18', 'TUBB4B', 'ACTG1', 'CCT4', 'FN1', 'NCL', 'SLPI', 'PA2G4', 'ITGA3', 'KRT7', 'AKR1C1', 'ANXA2', 'HGD', 'F12', 'PRSS23', 'TXN', 'PSMC6', 'VIM', 'TAX1BP1', 'MFGE8', 'BLVRB', 'CCT3', 'PSME2', 'CDC42', 'S100A11', 'ECH1', 'RPLP2', 'LDHA', 'CTNNB1', 'RAN', 'CCT5', 'PSMA4', 'SERPINB1', 'PLAU', 'RAB10', 'EIF4A1', 'CD9', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'TXNDC17', 'NAMPT', 'MUC5AC', 'AHNAK', 'FABP5', 'SLC7A5', 'AKR1B1', 'HPGD', 'NANS', 'CPNE7', 'TMC5', 'GSTO1', 'AKR1C3', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'AXL', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'LTA4H', 'RTN4RL2', 'EIF2S3', 'UPK1B', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CSRP1', 'GDF15', 'KRT8', 'PKM', 'CTNNB1', 'SQSTM1', 'S100A11', 'LGALS1', 'COTL1', 'PSMA4', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'PRDX4', 'FN1', 'RAP2B', 'CPNE7', 'C1GALT1C1', 'CDK1', 'LGALS3BP', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'CD44', 'UBB', 'TXNDC17', 'DSP', 'CNTN1', 'PGD', 'CTSL', 'EXOSC9', 'KRT18', 'GPRC5A', 'ALDH2', 'PLAU', 'ANXA2', 'AKR1B1', 'RPL34', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'TUBA4A', 'EPS8', 'ITM2B', 'BLVRB', 'VDAC3', 'PPP1CB', 'CCT5', 'RPLP2', 'TXNRD1', 'AKR1C1', 'SFRP1', 'LGALS3', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBC', 'NAMPT', 'ACTB', 'AHNAK', 'F12', 'CAPG', 'GCNT3', 'ANXA5', 'SERPINB1', 'ECH1', 'HSP90AA1', 'LDHA', 'HSPE1', 'PSMC6', 'RPL28', 'IDH1', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ARPC3', 'SLPI', 'PSME2', 'CAPZA1', 'VIM', 'KRT7', 'HGD', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'LDHB', 'KRT19', 'PTPRS', 'CLU', 'S100A16', 'S100A10', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'TAX1BP1', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -772,12 +772,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['ACTB', 'NT5E', 'CD63', 'LGALS3BP', 'SPP1', 'SFRP1', 'RPL28', 'TUBA4A', 'SQSTM1', 'YWHAE', 'ANXA5', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'CAPG', 'UBC', 'SH3BGRL3', 'UBB', 'ALDH2', 'ITGB4', 'S100A10', 'EZR', 'S100A4', 'GDF15', 'ALDH1A1', 'MYL6', 'EEF1A1', 'AXL', 'SERINC2', 'MYL12A', 'IGFBP7', 'RHOF', 'CD44', 'CSRP1', 'HSP90AB1', 'HSPE1', 'S100A6', 'GPRC5A', 'DSP', 'CLU', 'CD70', 'EPS8', 'ITM2B', 'RTN4RL2', 'TXNRD1', 'EIF2S3', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'NPC2', 'IDH1', 'KRT8', 'VDAC3', 'HSP90AA1', 'CNTN1', 'PSAT1', 'PKM', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'KRT18', 'TUBB4B', 'ACTG1', 'CCT4', 'FN1', 'NCL', 'SLPI', 'PA2G4', 'ITGA3', 'KRT7', 'AKR1C1', 'ANXA2', 'HGD', 'F12', 'PRSS23', 'TXN', 'PSMC6', 'VIM', 'TAX1BP1', 'MFGE8', 'BLVRB', 'CCT3', 'PSME2', 'CDC42', 'S100A11', 'ECH1', 'RPLP2', 'LDHA', 'CTNNB1', 'RAN', 'CCT5', 'PSMA4', 'SERPINB1', 'PLAU', 'RAB10', 'EIF4A1', 'CD9', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'TXNDC17', 'NAMPT', 'MUC5AC', 'AHNAK', 'FABP5', 'SLC7A5', 'AKR1B1', 'HPGD', 'NANS', 'CPNE7', 'TMC5', 'GSTO1', 'AKR1C3', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'AXL', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'LTA4H', 'RTN4RL2', 'EIF2S3', 'UPK1B', 'MARCKSL1', 'PSAT1', 'PRSS23', 'HSPA2', 'CSRP1', 'GDF15', 'KRT8', 'PKM', 'CTNNB1', 'SQSTM1', 'S100A11', 'LGALS1', 'COTL1', 'PSMA4', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'PRDX4', 'FN1', 'RAP2B', 'CPNE7', 'C1GALT1C1', 'CDK1', 'LGALS3BP', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'CD44', 'UBB', 'TXNDC17', 'DSP', 'CNTN1', 'PGD', 'CTSL', 'EXOSC9', 'KRT18', 'GPRC5A', 'ALDH2', 'PLAU', 'ANXA2', 'AKR1B1', 'RPL34', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'TUBA4A', 'EPS8', 'ITM2B', 'BLVRB', 'VDAC3', 'PPP1CB', 'CCT5', 'RPLP2', 'TXNRD1', 'AKR1C1', 'SFRP1', 'LGALS3', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBC', 'NAMPT', 'ACTB', 'AHNAK', 'F12', 'CAPG', 'GCNT3', 'ANXA5', 'SERPINB1', 'ECH1', 'HSP90AA1', 'LDHA', 'HSPE1', 'PSMC6', 'RPL28', 'IDH1', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ARPC3', 'SLPI', 'PSME2', 'CAPZA1', 'VIM', 'KRT7', 'HGD', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'LDHB', 'KRT19', 'PTPRS', 'CLU', 'S100A16', 'S100A10', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'TAX1BP1', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -838,12 +838,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MAGED2', 'ACTB', 'NT5E', 'CD63', 'LGALS3BP', 'SPP1', 'SFRP1', 'RPL28', 'HILPDA', 'TUBA4A', 'RAB31', 'SQSTM1', 'PSMC2', 'YWHAE', 'ANXA5', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'GABARAPL1', 'CAPG', 'UBC', 'TUBA1C', 'GOLIM4', 'XRCC6', 'SH3BGRL3', 'UBB', 'ALDH2', 'ITGB4', 'S100A10', 'EZR', 'ANTXR1', 'S100A4', 'GDF15', 'ALDH1A1', 'NTS', 'MYL6', 'CYBA', 'EEF1A1', 'AXL', 'SERINC2', 'MYL12A', 'IGFBP7', 'GAL', 'OCIAD2', 'RHOF', 'CD44', 'CSRP1', 'HSP90AB1', 'GLIPR1', 'CAV2', 'HSPE1', 'S100A6', 'SMAGP', 'GPRC5A', 'DSP', 'CLU', 'RIN2', 'CD70', 'EPS8', 'MFSD12', 'AP1M2', 'ITM2B', 'RTN4RL2', 'TXNRD1', 'GRAMD1A', 'EIF2S3', 'ADA', 'CAV1', 'COTL1', 'KRT19', 'HSPA2', 'CACNG8', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'GSDMD', 'NPC2', 'IDH1', 'KRT8', 'VDAC3', 'PLAUR', 'HSP90AA1', 'CNTN1', 'PSAT1', 'SAR1A', 'PKM', 'YPEL5', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'CDA', 'KRT18', 'TUBB4B', 'ACTG1', 'CCT4', 'PHLDA1', 'FN1', 'NCL', 'SLPI', 'PA2G4', 'ITGA3', 'PTP4A1', 'KRT7', 'AKR1C1', 'DYNLL1', 'DKK1', 'ANXA2', 'BCL2L1', 'HGD', 'F12', 'PRSS3', 'ANG', 'PRSS23', 'GCHFR', 'TXN', 'PSMC6', 'CALM2', 'VIM', 'TAX1BP1', 'MFGE8', 'BLVRB', 'CCT3', 'PSME2', 'CDC42', 'ANP32E', 'ULK1', 'S100A11', 'TMSB4X', 'ECH1', 'RPLP2', 'LDHA', 'CTNNB1', 'RAN', 'MMD', 'CCT5', 'PSMA4', 'SERPINB1', 'AP1S2', 'PLAU', 'RAB10', 'EIF4A1', 'CD9', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'TXNDC17', 'NAMPT', 'SKIL', 'MUC5AC', 'AHNAK', 'FABP5', 'SLC7A5', 'LITAF', 'AKR1B1', 'HPGD', 'NANS', 'CPNE7', 'TMC5', 'GSTO1', 'AKR1C3', 'RHOD', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'PCSK1N', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B', 'RHOV']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'AXL', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'CALM2', 'LTA4H', 'RTN4RL2', 'EIF2S3', 'PMEPA1', 'CDA', 'GAL', 'TMSB4X', 'UPK1B', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CSRP1', 'GDF15', 'KRT8', 'PKM', 'CTNNB1', 'SQSTM1', 'S100A11', 'LGALS1', 'CYBA', 'COTL1', 'PSMA4', 'FABP5', 'TUBB', 'RHOV', 'RAB31', 'NANS', 'SLC12A2', 'PRDX4', 'FN1', 'RAP2B', 'CPNE7', 'C1GALT1C1', 'CDK1', 'PRSS3', 'LGALS3BP', 'DKK1', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'GOLIM4', 'CD44', 'UBB', 'TXNDC17', 'PSMC2', 'DSP', 'CNTN1', 'SMAGP', 'PGD', 'CTSL', 'EXOSC9', 'GRAMD1A', 'KRT18', 'ANG', 'SKIL', 'GPRC5A', 'ALDH2', 'PLAU', 'GSDMD', 'GLIPR1', 'ANXA2', 'AKR1B1', 'RPL34', 'CAV1', 'ANTXR1', 'AP1M2', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'PLAUR', 'PCSK1N', 'TUBA4A', 'EPS8', 'CAV2', 'ITM2B', 'XRCC6', 'BLVRB', 'VDAC3', 'PPP1CB', 'CCT5', 'RPLP2', 'TXNRD1', 'AKR1C1', 'SFRP1', 'LGALS3', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'MYL6', 'MMD', 'CD70', 'B4GALT1', 'BCL2L1', 'PRKCA', 'SPP1', 'CD63', 'CACNG8', 'S100A4', 'IGFBP7', 'UBC', 'NAMPT', 'ACTB', 'AHNAK', 'GCHFR', 'OCIAD2', 'MFSD12', 'F12', 'AP1S2', 'PHLDA1', 'CAPG', 'GCNT3', 'ANXA5', 'SERPINB1', 'ECH1', 'HSP90AA1', 'RHOD', 'LDHA', 'HSPE1', 'PSMC6', 'RPL28', 'IDH1', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'TUBA1C', 'ARPC3', 'SLPI', 'ADA', 'PSME2', 'CAPZA1', 'NTS', 'ANP32E', 'SAR1A', 'VIM', 'KRT7', 'HGD', 'BASP1', 'TUBB4B', 'RPL31', 'MAGED2', 'RAB10', 'LDHB', 'RIN2', 'KRT19', 'PTPRS', 'CLU', 'S100A16', 'S100A10', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'HILPDA', 'TAX1BP1', 'GABARAPL1', 'CCT4', 'PRDX1', 'ITGA3', 'YPEL5', 'LITAF', 'DYNLL1', 'EEF1A1', 'ULK1', 'PTP4A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['TAS'], ['HDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IBA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['TAS'], ['IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IEA']]</t>
+          <t>[['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA'], ['HDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['TAS'], ['IEA'], ['HDA', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['MAGED2', 'MAP1B', 'TYMP', 'EIF3D', 'ACTB', 'LACTB', 'RPS4Y1', 'NT5E', 'ALDH3A1', 'TXNRD2', 'AKR1B10', 'KYNU', 'SFRP1', 'RPL28', 'HILPDA', 'TUBA4A', 'RAB31', 'BAG1', 'CCND3', 'YARS2', 'SQSTM1', 'BIRC5', 'PSMC2', 'YWHAE', 'ANXA5', 'JADE1', 'RPL34', 'EXOSC9', 'PRDX4', 'GABARAPL1', 'CES1', 'UBC', 'C19orf33', 'TPM1', 'XRCC6', 'ARL6IP1', 'SH3BGRL3', 'RPL38', 'UBB', 'NUDC', 'UBE2S', 'EZR', 'GPX2', 'CCNB2', 'S100A4', 'NQO1', 'CCND1', 'ALDH1A1', 'CDKN1A', 'MYL6', 'EEF1A1', 'CALB2', 'MYL12A', 'GPX1', 'HMOX1', 'SSB', 'RHOF', 'CD44', 'DOCK5', 'YARS', 'HSP90AB1', 'S100A6', 'NOP58', 'CLU', 'RIN2', 'HNRNPH1', 'PDLIM5', 'AP1M2', 'AKR1C2', 'TXNRD1', 'GRAMD1A', 'EIF2S3', 'ADA', 'CTNNBL1', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'VAMP8', 'PGD', 'GSDMD', 'IDH1', 'KRT8', 'MGLL', 'HSP90AA1', 'PSAT1', 'SAR1A', 'HJURP', 'PKM', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'ARPC3', 'S100A16', 'CAPZA1', 'CDA', 'KRT18', 'CCNB1', 'TUBB4B', 'ACTG1', 'CCT4', 'ELF3', 'PHLDA1', 'RPL41', 'SPATS2', 'AURKA', 'DCAF13', 'TSC22D1', 'POLR2L', 'PFDN2', 'SLBP', 'KRT7', 'AKR1C1', 'PLK1', 'UCHL1', 'DYNLL1', 'ANXA2', 'BCL2L1', 'HGD', 'PKMYT1', 'ANG', 'DDIT4', 'ZFP36L1', 'GCHFR', 'NEK6', 'TXN', 'PSMC6', 'CALM2', 'ARL4C', 'RPS27L', 'UBE2L6', 'VIM', 'RPS17', 'NUDT19', 'SET', 'TAX1BP1', 'BLVRB', 'GIGYF1', 'CCT3', 'PMM2', 'PSME2', 'BIRC3', 'MT2A', 'CDC42', 'CDC20', 'PPP1R14A', 'DDX21', 'ULK1', 'TMSB4X', 'OAS1', 'ECH1', 'RPLP2', 'LDHA', 'CPLX2', 'MYBL2', 'KIF18B', 'CTNNB1', 'HMGA1', 'RAN', 'CCT5', 'PSMA4', 'BIRC2', 'AP1S2', 'ODC1', 'RAB10', 'INPP1', 'EIF4A1', 'AHNAK2', 'KIF23', 'PTPRS', 'PRDX1', 'PSMC4', 'TXNDC17', 'UMPS', 'KRT81', 'AURKB', 'ID2', 'PINK1', 'NAMPT', 'AHNAK', 'NCAPD2', 'AKAP12', 'FABP5', 'SLC7A5', 'RGS2', 'AKR1B1', 'RAD21', 'HPGD', 'ATF4', 'SNRPF', 'NANS', 'HERC4', 'UPP1', 'KPNA2', 'PTGES3', 'GSTO1', 'AKR1C3', 'TRIB3', 'RHOD', 'LDHB', 'TUBB', 'PRKCA', 'PGM2L1', 'LGALS1', 'LTA4H', 'SAT1', 'GSN', 'PPP1CB', 'PRMT1', 'PTTG1']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'NOP58', 'GPX1', 'BIRC2', 'PLK1', 'ARL6IP1', 'S100A13', 'EIF4A1', 'GSN', 'AKR1C3', 'CALM2', 'LTA4H', 'NUDC', 'EIF2S3', 'RAD21', 'CDA', 'PINK1', 'TMSB4X', 'MAP1B', 'DDX21', 'NCAPD2', 'PSAT1', 'SERPINE2', 'HSPA2', 'CCND3', 'INPP1', 'NUDT19', 'YARS2', 'HMOX1', 'DDIT4', 'TRIB3', 'KRT8', 'ARL4C', 'GPX2', 'PKM', 'CTNNB1', 'SQSTM1', 'SSB', 'KIF18B', 'ALDH3A1', 'LGALS1', 'CDC20', 'COTL1', 'PSMA4', 'FABP5', 'TUBB', 'ID2', 'RAB31', 'NANS', 'PRDX4', 'KRT81', 'RAP2B', 'PKMYT1', 'CDK1', 'AKAP12', 'RPL41', 'AURKA', 'UBE2S', 'POLR2L', 'EZR', 'RHOF', 'PPP1R14A', 'UMPS', 'CD44', 'CCNB2', 'JADE1', 'UBB', 'OAS1', 'TXNDC17', 'PSMC2', 'RPS27L', 'PGD', 'EXOSC9', 'GRAMD1A', 'KRT18', 'ANG', 'TYMP', 'LACTB', 'PGM2L1', 'NQO1', 'AKR1B10', 'GSDMD', 'KPNA2', 'ANXA2', 'AKR1B1', 'RPL34', 'AP1M2', 'TXNRD2', 'NT5E', 'ZFP36L1', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'DCAF13', 'TUBA4A', 'RPL38', 'CDKN1A', 'XRCC6', 'BLVRB', 'PMM2', 'PPP1CB', 'YARS', 'CALB2', 'ODC1', 'CCT5', 'RPLP2', 'AKR1C2', 'TXNRD1', 'SLBP', 'HNRNPH1', 'AKR1C1', 'RPS17', 'DOCK5', 'SFRP1', 'BIRC3', 'LGALS3', 'SLC7A5', 'RAN', 'HMGA1', 'MYL6', 'GIGYF1', 'BCL2L1', 'PRKCA', 'S100A4', 'UBE2L6', 'PFDN2', 'UBC', 'NAMPT', 'ACTB', 'UPP1', 'SAT1', 'AHNAK', 'GCHFR', 'HERC4', 'AP1S2', 'PHLDA1', 'MT2A', 'ATF4', 'ANXA5', 'ECH1', 'BAG1', 'HSP90AA1', 'RHOD', 'LDHA', 'MGLL', 'SNRPF', 'PSMC6', 'RPL28', 'CES1', 'PDLIM5', 'IDH1', 'HJURP', 'EIF3D', 'SPATS2', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ELF3', 'UCHL1', 'ARPC3', 'ADA', 'NEK6', 'MYBL2', 'PSME2', 'CAPZA1', 'PTTG1', 'SAR1A', 'VIM', 'AHNAK2', 'KRT7', 'RGS2', 'HGD', 'PSMC4', 'TPM1', 'CPLX2', 'PRMT1', 'RPS4Y1', 'SET', 'TUBB4B', 'RPL31', 'AURKB', 'MAGED2', 'KYNU', 'RAB10', 'CTNNBL1', 'TSC22D1', 'LDHB', 'RIN2', 'KRT19', 'KIF23', 'PTPRS', 'CLU', 'BIRC5', 'PTGES3', 'S100A16', 'CCT3', 'CCND1', 'HILPDA', 'TAX1BP1', 'GABARAPL1', 'CCT4', 'PRDX1', 'C19orf33', 'DYNLL1', 'EEF1A1', 'ULK1', 'CCNB1', 'CDC42']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'ISS', 'TAS'], ['IDA', 'IBA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IBA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IBA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'TAS'], ['IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS']]</t>
+          <t>[['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA'], ['TAS'], ['TAS'], ['TAS'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'ISS', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IPI', 'HDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IBA'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IBA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'NAS'], ['IEA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IBA'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -970,12 +970,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['HMGB2', 'ACTB', 'NT5E', 'ALDH3A1', 'CD63', 'LGALS3BP', 'SPP1', 'SFRP1', 'RPL28', 'HILPDA', 'TUBA4A', 'MTHFD2', 'SQSTM1', 'YWHAE', 'ANXA5', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'CAPG', 'UBC', 'SH3BGRL3', 'UBB', 'ALDH2', 'ITGB4', 'S100A10', 'EZR', 'S100A4', 'GDF15', 'ALDH1A1', 'MYL6', 'EEF1A1', 'AXL', 'SERINC2', 'ADM', 'MYL12A', 'IGFBP7', 'GAL', 'CXCL5', 'HMOX1', 'RHOF', 'CD44', 'YARS', 'CRELD2', 'CSRP1', 'HSP90AB1', 'GLIPR1', 'HSPE1', 'S100A6', 'GPRC5A', 'DSP', 'CLU', 'CD70', 'EPS8', 'ITM2B', 'RTN4RL2', 'TXNRD1', 'EIF2S3', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CXCL3', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'GSDMD', 'NPC2', 'IDH1', 'KRT8', 'VDAC3', 'HSP90AA1', 'CNTN1', 'PSAT1', 'PKM', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'INSL4', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'KRT18', 'TUBB4B', 'ACTG1', 'CCT4', 'FN1', 'NCL', 'SLPI', 'PA2G4', 'ITGA3', 'KRT7', 'AKR1C1', 'DKK1', 'ANXA2', 'HGD', 'F12', 'PRSS3', 'ANG', 'PRSS23', 'TXN', 'CCL2', 'PSMC6', 'VIM', 'TAX1BP1', 'MFGE8', 'BLVRB', 'CCT3', 'PSME2', 'CDC42', 'S100A11', 'TFF1', 'AGR2', 'ECH1', 'RPLP2', 'LDHA', 'CTNNB1', 'RAN', 'CCT5', 'IGFBP4', 'PSMA4', 'SERPINB1', 'PLAU', 'RAB10', 'EIF4A1', 'CD9', 'TSKU', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'TXNDC17', 'KRT81', 'NMB', 'NAMPT', 'MUC5AC', 'AHNAK', 'FABP5', 'SLC7A5', 'AKR1B1', 'HPGD', 'NANS', 'CPNE7', 'TMC5', 'GSTO1', 'AKR1C3', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'PCSK1N', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'ADM', 'TSKU', 'AXL', 'S100A13', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'LTA4H', 'RTN4RL2', 'EIF2S3', 'GAL', 'UPK1B', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CSRP1', 'HMOX1', 'GDF15', 'KRT8', 'PKM', 'CTNNB1', 'SQSTM1', 'S100A11', 'ALDH3A1', 'LGALS1', 'COTL1', 'PSMA4', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'PRDX4', 'KRT81', 'FN1', 'RAP2B', 'CPNE7', 'C1GALT1C1', 'CDK1', 'PRSS3', 'LGALS3BP', 'DKK1', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'CD44', 'CCL2', 'UBB', 'TXNDC17', 'DSP', 'CNTN1', 'PGD', 'CTSL', 'EXOSC9', 'KRT18', 'ANG', 'IGFBP4', 'GPRC5A', 'ALDH2', 'PLAU', 'GSDMD', 'GLIPR1', 'ANXA2', 'AKR1B1', 'RPL34', 'NT5E', 'MTHFD2', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'PCSK1N', 'TUBA4A', 'EPS8', 'ITM2B', 'BLVRB', 'VDAC3', 'PPP1CB', 'YARS', 'CCT5', 'RPLP2', 'TXNRD1', 'AKR1C1', 'HMGB2', 'AGR2', 'SFRP1', 'LGALS3', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'CXCL5', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBC', 'NAMPT', 'ACTB', 'AHNAK', 'F12', 'CRELD2', 'CAPG', 'GCNT3', 'ANXA5', 'SERPINB1', 'ECH1', 'HSP90AA1', 'LDHA', 'HSPE1', 'PSMC6', 'RPL28', 'IDH1', 'TFF1', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ARPC3', 'SLPI', 'PSME2', 'CAPZA1', 'VIM', 'KRT7', 'HGD', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'LDHB', 'KRT19', 'PTPRS', 'CLU', 'NMB', 'S100A16', 'S100A10', 'CXCL3', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'INSL4', 'HILPDA', 'TAX1BP1', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['TAS'], ['IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['ISS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['ISS'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IMP', 'HDA'], ['HDA'], ['HDA'], ['TAS'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['EIF3D', 'HMGB2', 'RPS4Y1', 'RPL28', 'UNC50', 'YARS2', 'YWHAE', 'RPL34', 'EXOSC9', 'NOL7', 'UBC', 'XRCC6', 'RPL38', 'EZR', 'ISG20', 'S100A4', 'NQO1', 'EEF1A1', 'TUBA1B', 'SSB', 'SART3', 'YARS', 'CSRP1', 'HSP90AB1', 'HSPE1', 'NOP58', 'DSP', 'HNRNPH1', 'EBNA1BP2', 'EIF2S3', 'SLC16A3', 'HSP90AA1', 'LYAR', 'PKM', 'LGALS3', 'BICC1', 'LACTB2', 'RSL1D1', 'RPL31', 'PUS1', 'S100A16', 'KRT18', 'TUBB4B', 'CCT4', 'RPL41', 'SPATS2', 'DCAF13', 'NCL', 'SLPI', 'SLBP', 'PA2G4', 'ANXA2', 'ANG', 'ZFP36L1', 'MYC', 'TXN', 'RPS27L', 'RRS1', 'VIM', 'RPS17', 'DDX10', 'CCT3', 'NR0B1', 'DDX21', 'TMSB4X', 'OAS1', 'HMGA1', 'RAN', 'CCT5', 'TOP2A', 'EIF4A1', 'RPL22L1', 'PRDX1', 'AHNAK', 'RAD21', 'SNRPF', 'KPNA2', 'LGALS1', 'LTA4H', 'PRMT1']</t>
+          <t>['HSP90AB1', 'NOP58', 'EIF4A1', 'LTA4H', 'EIF2S3', 'RAD21', 'TOP2A', 'TMSB4X', 'DDX21', 'CSRP1', 'YARS2', 'PKM', 'PUS1', 'EBNA1BP2', 'SSB', 'RRS1', 'LGALS1', 'LYAR', 'SLC16A3', 'TUBA1B', 'DDX10', 'RPL41', 'EZR', 'OAS1', 'UNC50', 'DSP', 'RPS27L', 'NOL7', 'EXOSC9', 'KRT18', 'ANG', 'NR0B1', 'NQO1', 'KPNA2', 'ANXA2', 'RPL34', 'SART3', 'ZFP36L1', 'YWHAE', 'TXN', 'DCAF13', 'RPL38', 'MYC', 'XRCC6', 'YARS', 'CCT5', 'SLBP', 'HNRNPH1', 'HMGB2', 'RPS17', 'LGALS3', 'RAN', 'HMGA1', 'NCL', 'RPL22L1', 'S100A4', 'UBC', 'AHNAK', 'HSP90AA1', 'HSPE1', 'SNRPF', 'RPL28', 'EIF3D', 'SPATS2', 'BICC1', 'SLPI', 'RSL1D1', 'VIM', 'PRMT1', 'RPS4Y1', 'TUBB4B', 'RPL31', 'LACTB2', 'ISG20', 'S100A16', 'PA2G4', 'CCT3', 'CCT4', 'PRDX1', 'EEF1A1']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['IDA', 'HDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['IDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'HDA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA'], ['HDA'], ['HDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IPI'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA']]</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1102,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['MAGED2', 'HMGB2', 'ACTB', 'NRP2', 'NT5E', 'ALDH3A1', 'CD63', 'LGALS3BP', 'AKR1B10', 'SPP1', 'SFRP1', 'RPL28', 'HILPDA', 'TUBA4A', 'MTHFD2', 'SQSTM1', 'PSMC2', 'YWHAE', 'ANXA5', 'JAG1', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'CAPG', 'UBC', 'XRCC6', 'SH3BGRL3', 'UBB', 'ALDH2', 'ITGB4', 'S100A10', 'EZR', 'S100A4', 'GDF15', 'ALDH1A1', 'NTS', 'MYL6', 'EEF1A1', 'AXL', 'SERINC2', 'ADM', 'MYL12A', 'IGFBP7', 'GAL', 'CXCL5', 'HMOX1', 'RHOF', 'C1orf56', 'CD44', 'YARS', 'CRELD2', 'CSRP1', 'HSP90AB1', 'GLIPR1', 'HSPE1', 'S100A6', 'GPRC5A', 'DSP', 'CLU', 'CD70', 'EPS8', 'ITM2B', 'RTN4RL2', 'TXNRD1', 'EIF2S3', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CXCL3', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'GSDMD', 'NPC2', 'IDH1', 'KRT8', 'RSPO3', 'VDAC3', 'PLAUR', 'HSP90AA1', 'CNTN1', 'PSAT1', 'PKM', 'YPEL5', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'INSL4', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'CDA', 'KRT18', 'TUBB4B', 'ACTG1', 'CCT4', 'FN1', 'NCL', 'SLPI', 'PA2G4', 'ITGA3', 'KRT7', 'AKR1C1', 'EVA1C', 'DKK1', 'ANXA2', 'HGD', 'F12', 'PRSS3', 'ANG', 'PRSS23', 'TXN', 'CCL2', 'PSMC6', 'VIM', 'TAX1BP1', 'MFGE8', 'BLVRB', 'CCT3', 'PSME2', 'CDC42', 'S100A11', 'TFF1', 'AGR2', 'TMSB4X', 'OAS1', 'ECH1', 'RPLP2', 'LDHA', 'CTNNB1', 'RAN', 'CCT5', 'IGFBP4', 'PSMA4', 'SERPINB1', 'B4GALT4', 'PLAU', 'RAB10', 'EIF4A1', 'CD9', 'SPAG16', 'TSKU', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'TXNDC17', 'KRT81', 'NMB', 'NAMPT', 'MUC5AC', 'AHNAK', 'FABP5', 'SLC7A5', 'AKR1B1', 'HPGD', 'NANS', 'CPNE7', 'TMC5', 'GSTO1', 'AKR1C3', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'PCSK1N', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'ADM', 'TSKU', 'AXL', 'S100A13', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'LTA4H', 'RTN4RL2', 'EIF2S3', 'CDA', 'GAL', 'TMSB4X', 'UPK1B', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CSRP1', 'HMOX1', 'GDF15', 'KRT8', 'PKM', 'CTNNB1', 'SQSTM1', 'S100A11', 'ALDH3A1', 'LGALS1', 'COTL1', 'PSMA4', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'PRDX4', 'KRT81', 'FN1', 'RAP2B', 'CPNE7', 'C1GALT1C1', 'CDK1', 'PRSS3', 'LGALS3BP', 'DKK1', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'CD44', 'CCL2', 'UBB', 'OAS1', 'TXNDC17', 'PSMC2', 'DSP', 'CNTN1', 'PGD', 'CTSL', 'EXOSC9', 'KRT18', 'ANG', 'IGFBP4', 'AKR1B10', 'GPRC5A', 'ALDH2', 'PLAU', 'GSDMD', 'GLIPR1', 'ANXA2', 'AKR1B1', 'RPL34', 'NT5E', 'MTHFD2', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'PLAUR', 'PCSK1N', 'C1orf56', 'TUBA4A', 'EPS8', 'ITM2B', 'XRCC6', 'BLVRB', 'VDAC3', 'PPP1CB', 'YARS', 'EVA1C', 'CCT5', 'RPLP2', 'TXNRD1', 'AKR1C1', 'HMGB2', 'B4GALT4', 'AGR2', 'SFRP1', 'LGALS3', 'SLC7A5', 'JAG1', 'RAN', 'NCL', 'MFGE8', 'CXCL5', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBC', 'NAMPT', 'ACTB', 'AHNAK', 'F12', 'CRELD2', 'CAPG', 'GCNT3', 'ANXA5', 'SERPINB1', 'ECH1', 'HSP90AA1', 'LDHA', 'HSPE1', 'PSMC6', 'RPL28', 'SPAG16', 'IDH1', 'TFF1', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ARPC3', 'SLPI', 'PSME2', 'CAPZA1', 'NTS', 'VIM', 'KRT7', 'HGD', 'NRP2', 'BASP1', 'TUBB4B', 'RPL31', 'MAGED2', 'RSPO3', 'RAB10', 'LDHB', 'KRT19', 'PTPRS', 'CLU', 'NMB', 'S100A16', 'S100A10', 'CXCL3', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'INSL4', 'HILPDA', 'TAX1BP1', 'CCT4', 'PRDX1', 'ITGA3', 'YPEL5', 'EEF1A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IDA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['NAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['TAS'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IBA', 'TAS'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['NAS'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['PMPCB', 'PMEPA1', 'B4GALT5', 'MAGED2', 'MAP1B', 'TPPP3', 'TYMP', 'EIF3D', 'HMGB2', 'ACTB', 'LACTB', 'RPS4Y1', 'NT5E', 'ALDH3A1', 'CD63', 'LGALS3BP', 'TXNRD2', 'AKR1B10', 'ALG8', 'SPP1', 'KYNU', 'SFRP1', 'RPL28', 'HILPDA', 'CEBPB', 'TUBA4A', 'MTHFD2', 'UNC50', 'RAB31', 'RNF26', 'BAG1', 'CCND3', 'YARS2', 'SQSTM1', 'BIRC5', 'PSMC2', 'YWHAE', 'ANXA5', 'JADE1', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'GABARAPL1', 'DHRS3', 'NOL7', 'DUSP1', 'CES1', 'COX17', 'SLC39A8', 'CAPG', 'UBC', 'C19orf33', 'TUBA1C', 'GOLIM4', 'TPM1', 'XRCC6', 'ARL6IP1', 'SH3BGRL3', 'MRPS22', 'RPL38', 'UBB', 'ALDH2', 'PIF1', 'S100A10', 'NUDC', 'UBE2S', 'EZR', 'GPX2', 'ANTXR1', 'CCNB2', 'CRIP2', 'ISG20', 'S100A4', 'NQO1', 'GDF15', 'GAL3ST1', 'EPHX1', 'CCND1', 'ALDH1A1', 'NTS', 'CDKN1A', 'MYL6', 'CYBA', 'EEF1A1', 'CALB2', 'ADM', 'MYL12A', 'IGFBP7', 'TUBA1B', 'GAL', 'GPX1', 'IK', 'HMOX1', 'OCIAD2', 'SSB', 'HERPUD1', 'RHOF', 'SART3', 'CD44', 'DOCK5', 'TM4SF20', 'YARS', 'CDC123', 'CRELD2', 'TMPO', 'CSRP1', 'HSP90AB1', 'GLIPR1', 'CAV2', 'HSPE1', 'S100A6', 'SMAGP', 'GPRC5A', 'NOP58', 'DSP', 'CLU', 'RIN2', 'PERP', 'EPS8', 'HNRNPH1', 'MFSD12', 'PDLIM5', 'AP1M2', 'TMBIM6', 'AKR1C2', 'ITM2B', 'FDXR', 'TXNRD1', 'GRAMD1A', 'EIF2S3', 'ADA', 'BTG1', 'CTNNBL1', 'CAV1', 'PLPP5', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CACNG8', 'LRRC75A', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'GSDMD', 'NPC2', 'COX14', 'IDH1', 'KRT8', 'VDAC3', 'PLAUR', 'MGLL', 'HSP90AA1', 'PSAT1', 'SAR1A', 'LYAR', 'HJURP', 'PKM', 'YPEL5', 'LGALS3', 'RAP2B', 'CDK1', 'BICC1', 'LACTB2', 'RPL31', 'PUS1', 'SERPINE2', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'CDA', 'KRT18', 'CCNB1', 'TUBB4B', 'ACTG1', 'ID3', 'CCT4', 'ELF3', 'PHLDA1', 'RPL41', 'FN1', 'SPATS2', 'AURKA', 'DCAF13', 'TSC22D1', 'NDUFB4', 'NCL', 'POLR2L', 'PFDN2', 'SLPI', 'CYP24A1', 'SLBP', 'PA2G4', 'CLSPN', 'HES1', 'ITGA3', 'PTP4A1', 'KRT7', 'AKR1C1', 'PLK1', 'UCHL1', 'DYNLL1', 'DKK1', 'ANXA2', 'GADD45B', 'NDUFA4', 'BCL2L1', 'HGD', 'F12', 'PKMYT1', 'PRSS3', 'ANG', 'DDIT4', 'ZFP36L1', 'HCFC1R1', 'PRSS23', 'NDUFS2', 'MYC', 'GCHFR', 'NEK6', 'TXN', 'PSMC6', 'ID1', 'CALM2', 'ARL4C', 'RPS27L', 'FADS1', 'UBE2L6', 'RRS1', 'VIM', 'RPS17', 'CYP1B1', 'NUDT19', 'SET', 'TAX1BP1', 'MFGE8', 'BLVRB', 'GIGYF1', 'PWP1', 'CCT3', 'TOR1AIP2', 'NR0B1', 'PMM2', 'PSME2', 'BIRC3', 'MT2A', 'CDC42', 'ANP32E', 'FKBP11', 'CDC20', 'PPP1R14A', 'DDX21', 'ULK1', 'S100A11', 'AGR2', 'PLEK2', 'TMSB4X', 'OAS1', 'ECH1', 'RPLP2', 'LDHA', 'CPLX2', 'MYBL2', 'KIF18B', 'CTNNB1', 'HMGA1', 'RAN', 'MMD', 'CCT5', 'IGFBP4', 'PSMA4', 'EGR1', 'BIRC2', 'SERPINB1', 'UCP2', 'B4GALT4', 'AP1S2', 'ODC1', 'PLAU', 'TOP2A', 'RAB10', 'INPP1', 'EIF4A1', 'NUPR1', 'CD9', 'SPAG16', 'AHNAK2', 'KIF23', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'TXNDC17', 'UMPS', 'KRT81', 'AURKB', 'ORMDL2', 'ID2', 'PINK1', 'NAMPT', 'SKIL', 'MUC5AC', 'AHNAK', 'NCAPD2', 'AKAP12', 'FABP5', 'SLC7A5', 'RGS2', 'MCU', 'LITAF', 'AKR1B1', 'RAD21', 'HPGD', 'ATF4', 'SNRPF', 'NANS', 'HERC4', 'UPP1', 'KPNA2', 'CPNE7', 'PTGES3', 'GSTO1', 'AKR1C3', 'TRIB3', 'RHOD', 'LDHB', 'TUBB', 'PRKCA', 'PGM2L1', 'LGALS1', 'MARCKSL1', 'LTA4H', 'PCSK1N', 'SAT1', 'GSN', 'PPP1CB', 'SLC12A2', 'RHOV', 'PRMT1', 'PTTG1']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'NOP58', 'GPX1', 'ADM', 'BIRC2', 'PLK1', 'NDUFB4', 'ARL6IP1', 'UCP2', 'S100A13', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'CALM2', 'LTA4H', 'NUDC', 'EIF2S3', 'FADS1', 'PMEPA1', 'RAD21', 'TOP2A', 'CDA', 'GAL', 'PINK1', 'TMSB4X', 'FDXR', 'MAP1B', 'DDX21', 'NCAPD2', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CCND3', 'GADD45B', 'INPP1', 'CSRP1', 'ID1', 'NUDT19', 'YARS2', 'HMOX1', 'GDF15', 'DDIT4', 'FKBP11', 'PMPCB', 'TRIB3', 'ALG8', 'KRT8', 'ARL4C', 'CEBPB', 'GPX2', 'PKM', 'CTNNB1', 'PUS1', 'SQSTM1', 'S100A11', 'SSB', 'KIF18B', 'ALDH3A1', 'RRS1', 'LGALS1', 'LYAR', 'CDC20', 'CYBA', 'COTL1', 'DHRS3', 'PSMA4', 'FABP5', 'TUBB', 'PLEK2', 'ID2', 'RHOV', 'RAB31', 'NANS', 'SLC12A2', 'PRDX4', 'TUBA1B', 'KRT81', 'PWP1', 'MCU', 'NDUFA4', 'FN1', 'RAP2B', 'ID3', 'CPNE7', 'C1GALT1C1', 'PKMYT1', 'CDK1', 'PRSS3', 'AKAP12', 'RPL41', 'AURKA', 'CYP1B1', 'LGALS3BP', 'UBE2S', 'PLPP5', 'HCFC1R1', 'DKK1', 'POLR2L', 'EZR', 'RHOF', 'GOLIM4', 'PPP1R14A', 'TOR1AIP2', 'UMPS', 'CD44', 'NUPR1', 'CCNB2', 'GAL3ST1', 'JADE1', 'UBB', 'OAS1', 'TXNDC17', 'TPPP3', 'UNC50', 'PSMC2', 'DSP', 'SMAGP', 'RPS27L', 'SLC39A8', 'PGD', 'CTSL', 'NOL7', 'EXOSC9', 'GRAMD1A', 'KRT18', 'ANG', 'TYMP', 'LACTB', 'IGFBP4', 'SKIL', 'DUSP1', 'NR0B1', 'PGM2L1', 'NQO1', 'AKR1B10', 'GPRC5A', 'ALDH2', 'PLAU', 'GSDMD', 'KPNA2', 'HES1', 'GLIPR1', 'ANXA2', 'AKR1B1', 'TMBIM6', 'RPL34', 'CAV1', 'ANTXR1', 'AP1M2', 'TXNRD2', 'NT5E', 'SART3', 'ZFP36L1', 'MTHFD2', 'YWHAE', 'CDC123', 'TXN', 'S100A6', 'ALDH1A1', 'CYP24A1', 'DCAF13', 'PLAUR', 'PCSK1N', 'TUBA4A', 'RPL38', 'MYC', 'EPS8', 'CAV2', 'ITM2B', 'CDKN1A', 'XRCC6', 'BLVRB', 'VDAC3', 'PMM2', 'PPP1CB', 'YARS', 'CALB2', 'ODC1', 'CCT5', 'RPLP2', 'AKR1C2', 'TXNRD1', 'EGR1', 'SLBP', 'LRRC75A', 'HNRNPH1', 'AKR1C1', 'HMGB2', 'RPS17', 'B4GALT4', 'AGR2', 'DOCK5', 'SFRP1', 'BIRC3', 'LGALS3', 'SLC7A5', 'RAN', 'HMGA1', 'NCL', 'MFGE8', 'MYL6', 'GIGYF1', 'MMD', 'B4GALT1', 'BCL2L1', 'PRKCA', 'SPP1', 'CD63', 'CACNG8', 'S100A4', 'UBE2L6', 'PFDN2', 'IGFBP7', 'CRIP2', 'B4GALT5', 'UBC', 'NAMPT', 'ACTB', 'UPP1', 'ORMDL2', 'SAT1', 'COX14', 'AHNAK', 'NDUFS2', 'GCHFR', 'HERC4', 'COX17', 'OCIAD2', 'MFSD12', 'F12', 'CRELD2', 'AP1S2', 'PHLDA1', 'CAPG', 'MT2A', 'ATF4', 'GCNT3', 'ANXA5', 'SERPINB1', 'IK', 'ECH1', 'BAG1', 'PIF1', 'HSP90AA1', 'RHOD', 'LDHA', 'MGLL', 'HSPE1', 'SNRPF', 'PSMC6', 'RPL28', 'CES1', 'SPAG16', 'PDLIM5', 'IDH1', 'HJURP', 'EIF3D', 'SPATS2', 'GSTO1', 'HPGD', 'VAMP8', 'BICC1', 'MYL12A', 'ELF3', 'UCHL1', 'TUBA1C', 'ARPC3', 'HERPUD1', 'SLPI', 'ADA', 'NEK6', 'MYBL2', 'PSME2', 'CAPZA1', 'NTS', 'ANP32E', 'PTTG1', 'SAR1A', 'RNF26', 'VIM', 'AHNAK2', 'KRT7', 'RGS2', 'HGD', 'EPHX1', 'PSMC4', 'TPM1', 'BASP1', 'CPLX2', 'PRMT1', 'RPS4Y1', 'SET', 'TUBB4B', 'RPL31', 'PERP', 'AURKB', 'MAGED2', 'KYNU', 'RAB10', 'CTNNBL1', 'TSC22D1', 'LDHB', 'RIN2', 'KRT19', 'KIF23', 'PTPRS', 'CLU', 'BIRC5', 'PTGES3', 'LACTB2', 'ISG20', 'S100A16', 'S100A10', 'NPC2', 'PA2G4', 'CCT3', 'CCND1', 'MRPS22', 'HILPDA', 'TAX1BP1', 'GABARAPL1', 'CCT4', 'PRDX1', 'ITGA3', 'CLSPN', 'YPEL5', 'BTG1', 'C19orf33', 'LITAF', 'TM4SF20', 'DYNLL1', 'EEF1A1', 'ULK1', 'TMPO', 'CCNB1', 'PTP4A1', 'CDC42']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['TAS'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IBA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IC'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['HTP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IC'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['PMPCB', 'PMEPA1', 'B4GALT5', 'MAGED2', 'MAP1B', 'HMGB2', 'ACTB', 'LACTB', 'RPS4Y1', 'NT5E', 'ALDH3A1', 'CD63', 'LGALS3BP', 'TXNRD2', 'AKR1B10', 'ALG8', 'SPP1', 'KYNU', 'SFRP1', 'RPL28', 'HILPDA', 'CEBPB', 'TUBA4A', 'MTHFD2', 'UNC50', 'RAB31', 'RNF26', 'BAG1', 'CCND3', 'YARS2', 'SQSTM1', 'BIRC5', 'PSMC2', 'YWHAE', 'ANXA5', 'JADE1', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'GABARAPL1', 'DHRS3', 'NOL7', 'DUSP1', 'CES1', 'COX17', 'SLC39A8', 'CAPG', 'UBC', 'C19orf33', 'TUBA1C', 'GOLIM4', 'XRCC6', 'ARL6IP1', 'SH3BGRL3', 'MRPS22', 'UBB', 'ALDH2', 'PIF1', 'ITGB4', 'S100A10', 'NUDC', 'UBE2S', 'EZR', 'ANTXR1', 'CCNB2', 'HIRIP3', 'ISG20', 'S100A4', 'NQO1', 'GDF15', 'GAL3ST1', 'EPHX1', 'CCND1', 'ALDH1A1', 'NTS', 'CDKN1A', 'MYL6', 'CYBA', 'EEF1A1', 'AXL', 'CALB2', 'SERINC2', 'MYL12A', 'IGFBP7', 'GAL', 'GPX1', 'IK', 'HMOX1', 'OCIAD2', 'SSB', 'HERPUD1', 'RHOF', 'SART3', 'CD44', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'CSRP1', 'HSP90AB1', 'GLIPR1', 'CAV2', 'HSPE1', 'S100A6', 'SMAGP', 'GPRC5A', 'NOP58', 'DSP', 'CLU', 'RIN2', 'PERP', 'CD70', 'EPS8', 'HNRNPH1', 'MFSD12', 'AP1M2', 'TMBIM6', 'ITM2B', 'EBNA1BP2', 'FDXR', 'RTN4RL2', 'CD24', 'TXNRD1', 'GRAMD1A', 'EIF2S3', 'ADA', 'BTG1', 'CTNNBL1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CACNG8', 'BASP1', 'VAMP8', 'PGD', 'SLC16A3', 'B4GALT1', 'GSDMD', 'FOSL1', 'NPC2', 'COX14', 'IDH1', 'KRT8', 'SAAL1', 'VDAC3', 'PLAUR', 'MGLL', 'HSP90AA1', 'CNTN1', 'PSAT1', 'SAR1A', 'LYAR', 'HJURP', 'PKM', 'YPEL5', 'LGALS3', 'RAP2B', 'CDK1', 'CKS1B', 'LACTB2', 'RSL1D1', 'RPL31', 'PUS1', 'TMEM92', 'SERPINE2', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'CDA', 'KRT18', 'CCNB1', 'TUBB4B', 'ACTG1', 'SNHG10', 'ID3', 'CCT4', 'ELF3', 'PHLDA1', 'RPL41', 'FN1', 'AURKA', 'DCAF13', 'TSC22D1', 'NDUFB4', 'NCL', 'POLR2L', 'PFDN2', 'SLPI', 'CYP24A1', 'SLBP', 'PA2G4', 'CLSPN', 'OSR2', 'HES1', 'ITGA3', 'PTP4A1', 'KRT7', 'AKR1C1', 'PLK1', 'UCHL1', 'DYNLL1', 'DKK1', 'ANXA2', 'GADD45B', 'NDUFA4', 'BCL2L1', 'HGD', 'F12', 'PKMYT1', 'PRSS3', 'ANG', 'DDIT4', 'ZFP36L1', 'HCFC1R1', 'PRSS23', 'NDUFS2', 'MYC', 'GCHFR', 'NEK6', 'TXN', 'PSMC6', 'ID1', 'CALM2', 'ARL4C', 'RPS27L', 'FADS1', 'UBE2L6', 'RRS1', 'VIM', 'RPS17', 'CYP1B1', 'DDX10', 'NUDT19', 'SET', 'TAX1BP1', 'MFGE8', 'BLVRB', 'PWP1', 'CCT3', 'TOR1AIP2', 'NR0B1', 'PMM2', 'TCEAL8', 'PSME2', 'BIRC3', 'MT2A', 'CDC42', 'ANP32E', 'FKBP11', 'CDC20', 'DDX21', 'ULK1', 'S100A11', 'AGR2', 'TMSB4X', 'OAS1', 'ECH1', 'RPLP2', 'LDHA', 'CPLX2', 'MYBL2', 'KIF18B', 'CTNNB1', 'HMGA1', 'RAN', 'MMD', 'CCT5', 'IGFBP4', 'PSMA4', 'EGR1', 'BIRC2', 'SERPINB1', 'UCP2', 'B4GALT4', 'AP1S2', 'MESP1', 'PLAU', 'TOP2A', 'RAB10', 'EIF4A1', 'NUPR1', 'CD9', 'SPAG16', 'AHNAK2', 'KIF23', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'TXNDC17', 'UMPS', 'AURKB', 'ORMDL2', 'ID2', 'PINK1', 'NAMPT', 'SKIL', 'FRA10AC1', 'MUC5AC', 'AHNAK', 'NCAPD2', 'FABP5', 'SLC7A5', 'RGS2', 'MCU', 'LITAF', 'AKR1B1', 'RAD21', 'HPGD', 'ATF4', 'MORC4', 'SNRPF', 'AMIGO2', 'NANS', 'HERC4', 'UPP1', 'KPNA2', 'CPNE7', 'TMC5', 'PTGES3', 'GSTO1', 'AKR1C3', 'TRIB3', 'RHOD', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'DDB2', 'PCSK1N', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B', 'RHOV', 'PRMT1', 'PTTG1']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'NOP58', 'GPX1', 'BIRC2', 'PLK1', 'NDUFB4', 'ARL6IP1', 'AXL', 'UCP2', 'S100A13', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'CALM2', 'LTA4H', 'NUDC', 'RTN4RL2', 'EIF2S3', 'FADS1', 'PMEPA1', 'RAD21', 'TOP2A', 'SAAL1', 'CDA', 'GAL', 'PINK1', 'TMSB4X', 'FDXR', 'MAP1B', 'DDX21', 'UPK1B', 'NCAPD2', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CCND3', 'GADD45B', 'CSRP1', 'ID1', 'NUDT19', 'YARS2', 'HMOX1', 'GDF15', 'DDIT4', 'FKBP11', 'PMPCB', 'TRIB3', 'ALG8', 'KRT8', 'ARL4C', 'CEBPB', 'PKM', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'SQSTM1', 'S100A11', 'SSB', 'KIF18B', 'ALDH3A1', 'RRS1', 'LGALS1', 'LYAR', 'CDC20', 'CYBA', 'COTL1', 'DHRS3', 'PSMA4', 'FABP5', 'TUBB', 'ID2', 'HIRIP3', 'RHOV', 'RAB31', 'NANS', 'SLC12A2', 'PRDX4', 'SLC16A3', 'PWP1', 'MCU', 'NDUFA4', 'FN1', 'RAP2B', 'ID3', 'CPNE7', 'C1GALT1C1', 'PKMYT1', 'CDK1', 'DDX10', 'PRSS3', 'RPL41', 'AURKA', 'CYP1B1', 'LGALS3BP', 'UBE2S', 'HCFC1R1', 'DKK1', 'POLR2L', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'GOLIM4', 'TOR1AIP2', 'UMPS', 'CD44', 'NUPR1', 'CCNB2', 'GAL3ST1', 'JADE1', 'UBB', 'OAS1', 'TXNDC17', 'UNC50', 'PSMC2', 'DSP', 'CNTN1', 'SMAGP', 'RPS27L', 'SLC39A8', 'PGD', 'CTSL', 'NOL7', 'EXOSC9', 'GRAMD1A', 'KRT18', 'ANG', 'LACTB', 'IGFBP4', 'SKIL', 'DUSP1', 'NR0B1', 'NQO1', 'AKR1B10', 'GPRC5A', 'ALDH2', 'PLAU', 'GSDMD', 'KPNA2', 'HES1', 'GLIPR1', 'ANXA2', 'AKR1B1', 'TMBIM6', 'RPL34', 'CAV1', 'ANTXR1', 'AP1M2', 'TXNRD2', 'NT5E', 'SART3', 'ZFP36L1', 'MTHFD2', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'CYP24A1', 'DCAF13', 'PLAUR', 'PCSK1N', 'TUBA4A', 'MYC', 'EPS8', 'CAV2', 'ITM2B', 'CDKN1A', 'XRCC6', 'BLVRB', 'VDAC3', 'PMM2', 'PPP1CB', 'YARS', 'CALB2', 'CCT5', 'RPLP2', 'TXNRD1', 'FRA10AC1', 'EGR1', 'SLBP', 'HNRNPH1', 'TCEAL8', 'AKR1C1', 'HMGB2', 'RPS17', 'B4GALT4', 'AGR2', 'SFRP1', 'BIRC3', 'LGALS3', 'SLC7A5', 'RAN', 'HMGA1', 'NCL', 'MFGE8', 'MYL6', 'MMD', 'CD70', 'B4GALT1', 'BCL2L1', 'FOSL1', 'PRKCA', 'SPP1', 'CD63', 'CACNG8', 'S100A4', 'UBE2L6', 'PFDN2', 'IGFBP7', 'B4GALT5', 'UBC', 'NAMPT', 'ACTB', 'UPP1', 'ORMDL2', 'CKS1B', 'COX14', 'AHNAK', 'NDUFS2', 'GCHFR', 'HERC4', 'COX17', 'OCIAD2', 'MFSD12', 'F12', 'CRELD2', 'AP1S2', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'ATF4', 'GCNT3', 'ANXA5', 'SERPINB1', 'IK', 'ECH1', 'BAG1', 'PIF1', 'HSP90AA1', 'RHOD', 'LDHA', 'SNHG10', 'TMEM92', 'MGLL', 'HSPE1', 'SNRPF', 'PSMC6', 'RPL28', 'CES1', 'SPAG16', 'IDH1', 'HJURP', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ELF3', 'UCHL1', 'TUBA1C', 'ARPC3', 'HERPUD1', 'SLPI', 'ADA', 'NEK6', 'MYBL2', 'PSME2', 'CAPZA1', 'NTS', 'ANP32E', 'PTTG1', 'RSL1D1', 'SAR1A', 'RNF26', 'VIM', 'AHNAK2', 'KRT7', 'RGS2', 'HGD', 'EPHX1', 'PSMC4', 'OSR2', 'BASP1', 'CPLX2', 'PRMT1', 'RPS4Y1', 'SET', 'TUBB4B', 'RPL31', 'PERP', 'AURKB', 'MAGED2', 'KYNU', 'RAB10', 'CTNNBL1', 'CD24', 'TSC22D1', 'MORC4', 'LDHB', 'RIN2', 'KRT19', 'KIF23', 'PTPRS', 'CLU', 'BIRC5', 'PTGES3', 'LACTB2', 'ISG20', 'S100A16', 'S100A10', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'CCND1', 'MRPS22', 'HILPDA', 'TAX1BP1', 'GABARAPL1', 'CCT4', 'PRDX1', 'ITGA3', 'CLSPN', 'YPEL5', 'BTG1', 'C19orf33', 'LITAF', 'TM4SF20', 'DYNLL1', 'EEF1A1', 'MESP1', 'ULK1', 'TMPO', 'DDB2', 'CCNB1', 'PTP4A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IDA'], ['EXP', 'IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IC', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'HDA'], ['HDA', 'TAS'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HTP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HTP', 'TAS'], ['IDA'], ['ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IC', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISO', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IPI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'ISO', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IEA'], ['IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['HTP', 'TAS'], ['EXP', 'IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HTP', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['HDA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IPI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['PMPCB', 'PMEPA1', 'B4GALT5', 'MAGED2', 'MAP1B', 'TPPP3', 'HMGB2', 'ACTB', 'LACTB', 'RPS4Y1', 'NT5E', 'ALDH3A1', 'CD63', 'LGALS3BP', 'TXNRD2', 'AKR1B10', 'ALG8', 'SPP1', 'KYNU', 'SFRP1', 'RPL28', 'HILPDA', 'CEBPB', 'TUBA4A', 'MTHFD2', 'UNC50', 'RAB31', 'RNF26', 'BAG1', 'CCND3', 'YARS2', 'SQSTM1', 'BIRC5', 'PSMC2', 'YWHAE', 'ANXA5', 'JADE1', 'RPL34', 'EXOSC9', 'PRDX4', 'CTSL', 'GABARAPL1', 'DHRS3', 'NOL7', 'DUSP1', 'CES1', 'COX17', 'SLC39A8', 'CAPG', 'UBC', 'C19orf33', 'TUBA1C', 'GOLIM4', 'TPM1', 'XRCC6', 'ARL6IP1', 'SH3BGRL3', 'MRPS22', 'RPL38', 'UBB', 'ALDH2', 'PIF1', 'ITGB4', 'S100A10', 'NUDC', 'UBE2S', 'EZR', 'GPX2', 'ANTXR1', 'CCNB2', 'HIRIP3', 'ISG20', 'S100A4', 'NQO1', 'GDF15', 'GAL3ST1', 'EPHX1', 'CCND1', 'ALDH1A1', 'NTS', 'CDKN1A', 'MYL6', 'CYBA', 'EEF1A1', 'AXL', 'CALB2', 'SERINC2', 'MYL12A', 'IGFBP7', 'TUBA1B', 'GAL', 'GPX1', 'IK', 'HMOX1', 'OCIAD2', 'SSB', 'HERPUD1', 'RHOF', 'SART3', 'CD44', 'DOCK5', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'CSRP1', 'HSP90AB1', 'GLIPR1', 'CAV2', 'HSPE1', 'S100A6', 'SMAGP', 'GPRC5A', 'NOP58', 'DSP', 'CLU', 'RIN2', 'PERP', 'CD70', 'EPS8', 'HNRNPH1', 'MFSD12', 'PDLIM5', 'AP1M2', 'TMBIM6', 'ITM2B', 'EBNA1BP2', 'FDXR', 'RTN4RL2', 'CD24', 'TXNRD1', 'GRAMD1A', 'EIF2S3', 'ADA', 'BTG1', 'CTNNBL1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CACNG8', 'BASP1', 'VAMP8', 'PGD', 'SLC16A3', 'B4GALT1', 'GSDMD', 'FOSL1', 'NPC2', 'COX14', 'IDH1', 'KRT8', 'SAAL1', 'VDAC3', 'PLAUR', 'MGLL', 'HSP90AA1', 'CNTN1', 'PSAT1', 'SAR1A', 'SEMA4B', 'LYAR', 'HJURP', 'PKM', 'YPEL5', 'LGALS3', 'RAP2B', 'CDK1', 'CKS1B', 'LACTB2', 'RSL1D1', 'RPL31', 'PUS1', 'TMEM92', 'SERPINE2', 'C1GALT1C1', 'ARPC3', 'S100A16', 'CAPZA1', 'CDA', 'KRT18', 'CCNB1', 'TUBB4B', 'ACTG1', 'SNHG10', 'CAMK2N1', 'ID3', 'CCT4', 'ELF3', 'PHLDA1', 'RPL41', 'FN1', 'AURKA', 'DCAF13', 'TSC22D1', 'NDUFB4', 'NCL', 'POLR2L', 'PFDN2', 'SLPI', 'CYP24A1', 'SLBP', 'PA2G4', 'CLSPN', 'OSR2', 'HES1', 'ITGA3', 'SLC4A7', 'PTP4A1', 'KRT7', 'AKR1C1', 'PLK1', 'UCHL1', 'DYNLL1', 'DKK1', 'ANXA2', 'GADD45B', 'NDUFA4', 'BCL2L1', 'HGD', 'F12', 'PKMYT1', 'PRSS3', 'ANG', 'DDIT4', 'ZFP36L1', 'HCFC1R1', 'PRSS23', 'NDUFS2', 'MYC', 'GCHFR', 'NEK6', 'TXN', 'PSMC6', 'ID1', 'CALM2', 'ARL4C', 'RPS27L', 'FADS1', 'UBE2L6', 'RRS1', 'VIM', 'RPS17', 'CYP1B1', 'DDX10', 'NUDT19', 'SET', 'TAX1BP1', 'MFGE8', 'BLVRB', 'PWP1', 'CCT3', 'TOR1AIP2', 'NR0B1', 'PMM2', 'TCEAL8', 'PSME2', 'BIRC3', 'MT2A', 'CDC42', 'ANP32E', 'FKBP11', 'CDC20', 'DDX21', 'ULK1', 'S100A11', 'AGR2', 'PLEK2', 'TMSB4X', 'OAS1', 'ECH1', 'RPLP2', 'LDHA', 'CPLX2', 'MYBL2', 'KIF18B', 'CTNNB1', 'HMGA1', 'RAN', 'MMD', 'CCT5', 'IGFBP4', 'PSMA4', 'EGR1', 'BIRC2', 'SERPINB1', 'UCP2', 'B4GALT4', 'AP1S2', 'MESP1', 'PLAU', 'TOP2A', 'RAB10', 'EIF4A1', 'NUPR1', 'CD9', 'SPAG16', 'AHNAK2', 'KIF23', 'RPL22L1', 'RARRES1', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'TXNDC17', 'UMPS', 'KRT81', 'AURKB', 'ORMDL2', 'ID2', 'PINK1', 'NAMPT', 'SKIL', 'FRA10AC1', 'MUC5AC', 'AHNAK', 'NCAPD2', 'AKAP12', 'FABP5', 'SLC7A5', 'RGS2', 'MCU', 'LITAF', 'AKR1B1', 'RAD21', 'HPGD', 'ATF4', 'MORC4', 'SNRPF', 'AMIGO2', 'NANS', 'HERC4', 'UPP1', 'KPNA2', 'CPNE7', 'TMC5', 'PTGES3', 'GSTO1', 'AKR1C3', 'TRIB3', 'RHOD', 'LDHB', 'TUBB', 'PRKCA', 'LGALS1', 'MARCKSL1', 'LTA4H', 'DDB2', 'PCSK1N', 'GSN', 'PPP1CB', 'SLC12A2', 'UPK1B', 'RHOV', 'PRMT1', 'PTTG1']</t>
+          <t>['HSP90AB1', 'SH3BGRL3', 'ACTG1', 'MUC5AC', 'NOP58', 'GPX1', 'BIRC2', 'PLK1', 'NDUFB4', 'ARL6IP1', 'AXL', 'UCP2', 'S100A13', 'CD9', 'EIF4A1', 'GSN', 'AKR1C3', 'CALM2', 'LTA4H', 'NUDC', 'RTN4RL2', 'EIF2S3', 'FADS1', 'PMEPA1', 'RAD21', 'TOP2A', 'SAAL1', 'CDA', 'GAL', 'PINK1', 'TMSB4X', 'FDXR', 'MAP1B', 'DDX21', 'UPK1B', 'NCAPD2', 'MARCKSL1', 'PSAT1', 'SERPINE2', 'PRSS23', 'HSPA2', 'CCND3', 'GADD45B', 'CSRP1', 'ID1', 'NUDT19', 'YARS2', 'HMOX1', 'GDF15', 'DDIT4', 'FKBP11', 'PMPCB', 'TRIB3', 'ALG8', 'KRT8', 'ARL4C', 'CEBPB', 'GPX2', 'PKM', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'SQSTM1', 'S100A11', 'SSB', 'KIF18B', 'ALDH3A1', 'CAMK2N1', 'RRS1', 'LGALS1', 'LYAR', 'CDC20', 'CYBA', 'COTL1', 'DHRS3', 'PSMA4', 'FABP5', 'TUBB', 'PLEK2', 'ID2', 'HIRIP3', 'RHOV', 'RAB31', 'NANS', 'SLC12A2', 'PRDX4', 'SLC16A3', 'TUBA1B', 'KRT81', 'PWP1', 'MCU', 'NDUFA4', 'FN1', 'RAP2B', 'ID3', 'CPNE7', 'C1GALT1C1', 'PKMYT1', 'CDK1', 'DDX10', 'PRSS3', 'AKAP12', 'RPL41', 'AURKA', 'CYP1B1', 'LGALS3BP', 'UBE2S', 'HCFC1R1', 'DKK1', 'POLR2L', 'RARRES1', 'SERINC2', 'EZR', 'RHOF', 'GOLIM4', 'TOR1AIP2', 'UMPS', 'CD44', 'NUPR1', 'CCNB2', 'GAL3ST1', 'JADE1', 'UBB', 'OAS1', 'TXNDC17', 'TPPP3', 'UNC50', 'PSMC2', 'DSP', 'CNTN1', 'SMAGP', 'RPS27L', 'SLC39A8', 'PGD', 'CTSL', 'NOL7', 'EXOSC9', 'GRAMD1A', 'KRT18', 'ANG', 'LACTB', 'IGFBP4', 'SKIL', 'DUSP1', 'NR0B1', 'NQO1', 'AKR1B10', 'GPRC5A', 'ALDH2', 'PLAU', 'GSDMD', 'KPNA2', 'HES1', 'GLIPR1', 'ANXA2', 'AKR1B1', 'TMBIM6', 'RPL34', 'CAV1', 'ANTXR1', 'AP1M2', 'TXNRD2', 'NT5E', 'SART3', 'ZFP36L1', 'MTHFD2', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'CYP24A1', 'DCAF13', 'PLAUR', 'PCSK1N', 'TUBA4A', 'RPL38', 'MYC', 'EPS8', 'CAV2', 'ITM2B', 'CDKN1A', 'XRCC6', 'BLVRB', 'VDAC3', 'PMM2', 'PPP1CB', 'YARS', 'CALB2', 'CCT5', 'RPLP2', 'TXNRD1', 'FRA10AC1', 'EGR1', 'SLBP', 'HNRNPH1', 'TCEAL8', 'AKR1C1', 'HMGB2', 'RPS17', 'B4GALT4', 'AGR2', 'DOCK5', 'SFRP1', 'BIRC3', 'LGALS3', 'SLC7A5', 'RAN', 'HMGA1', 'NCL', 'MFGE8', 'MYL6', 'MMD', 'RPL22L1', 'CD70', 'B4GALT1', 'BCL2L1', 'FOSL1', 'PRKCA', 'SPP1', 'CD63', 'CACNG8', 'S100A4', 'UBE2L6', 'PFDN2', 'IGFBP7', 'B4GALT5', 'UBC', 'NAMPT', 'ACTB', 'UPP1', 'ORMDL2', 'CKS1B', 'COX14', 'AHNAK', 'NDUFS2', 'GCHFR', 'HERC4', 'COX17', 'OCIAD2', 'MFSD12', 'F12', 'CRELD2', 'AP1S2', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'ATF4', 'GCNT3', 'ANXA5', 'SERPINB1', 'IK', 'ECH1', 'BAG1', 'PIF1', 'HSP90AA1', 'RHOD', 'LDHA', 'SNHG10', 'TMEM92', 'MGLL', 'HSPE1', 'SNRPF', 'PSMC6', 'RPL28', 'CES1', 'SPAG16', 'PDLIM5', 'SEMA4B', 'IDH1', 'HJURP', 'GSTO1', 'HPGD', 'VAMP8', 'MYL12A', 'ELF3', 'UCHL1', 'TUBA1C', 'ARPC3', 'HERPUD1', 'SLPI', 'ADA', 'NEK6', 'MYBL2', 'PSME2', 'CAPZA1', 'NTS', 'ANP32E', 'PTTG1', 'RSL1D1', 'SAR1A', 'RNF26', 'VIM', 'AHNAK2', 'KRT7', 'RGS2', 'HGD', 'EPHX1', 'PSMC4', 'OSR2', 'TPM1', 'BASP1', 'CPLX2', 'PRMT1', 'RPS4Y1', 'SET', 'TUBB4B', 'RPL31', 'PERP', 'AURKB', 'MAGED2', 'KYNU', 'RAB10', 'CTNNBL1', 'CD24', 'TSC22D1', 'MORC4', 'LDHB', 'RIN2', 'KRT19', 'KIF23', 'PTPRS', 'CLU', 'BIRC5', 'PTGES3', 'LACTB2', 'ISG20', 'S100A16', 'S100A10', 'ITGB4', 'NPC2', 'PA2G4', 'CCT3', 'CCND1', 'MRPS22', 'HILPDA', 'TAX1BP1', 'GABARAPL1', 'CCT4', 'PRDX1', 'ITGA3', 'CLSPN', 'YPEL5', 'BTG1', 'C19orf33', 'LITAF', 'TM4SF20', 'DYNLL1', 'EEF1A1', 'MESP1', 'SLC4A7', 'ULK1', 'TMPO', 'DDB2', 'CCNB1', 'PTP4A1', 'CDC42', 'TMC5']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['IDA', 'HDA', 'IC', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HTP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HTP', 'TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IC', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IEA'], ['IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HTP', 'TAS'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HTP', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IC', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['EIF3D', 'SUCLG1', 'RPS15A', 'RBFOX3', 'RPL37A', 'RPL28', 'YWHAE', 'SLC3A2', 'RPL34', 'EXOSC9', 'RAD51AP1', 'AIMP1', 'RPL27', 'MRPS30', 'RPS24', 'GLRX3', 'NIP7', 'RPF2', 'FDPS', 'EZR', 'NQO1', 'S100A4', 'TNRC6B', 'EEF1A1', 'HLA-A', 'TUBA1B', 'ANP32A', 'SSB', 'YARS', 'SOX4', 'HSP90AB1', 'HSPE1', 'SNW1', 'RPS18', 'HNRNPH1', 'BZW1', 'EBNA1BP2', 'EIF2S3', 'SLC16A3', 'RPS28', 'PPIB', 'ZC3H4', 'HSP90AA1', 'PKM', 'LGALS3', 'RSL1D1', 'RPL31', 'S100A16', 'KRT18', 'MKI67', 'TUBB4B', 'CCT4', 'ANXA7', 'RPL41', 'DCAF13', 'NCL', 'SLPI', 'MRPL13', 'RPL39', 'PA2G4', 'RPS29', 'ANXA2', 'NPM1', 'HSPD1', 'ZFP36L1', 'MYC', 'TXN', 'HMGB3', 'UTP18', 'RPS27L', 'RRS1', 'VIM', 'HMGB2', 'CBX6', 'RPS17', 'DDX10', 'DDX21', 'TMSB4X', 'OAS1', 'RPL35', 'HMGA1', 'RAN', 'CCT5', 'DDX39A', 'TOP2A', 'EIF4A1', 'PRDX1', 'RPL26', 'FSCN1', 'TRA2A', 'GTPBP4', 'APOBEC3C', 'HSPA8', 'SNRPF', 'ENO1', 'EIF1AY', 'KPNA2', 'DKC1', 'ILF2', 'LGALS1', 'PRMT1', 'XRCC5', 'TRMT6']</t>
+          <t>['HSP90AB1', 'RPL35', 'ANXA7', 'AIMP1', 'HSPD1', 'EIF4A1', 'PPIB', 'HSPA8', 'EIF2S3', 'DKC1', 'TOP2A', 'TMSB4X', 'DDX21', 'SUCLG1', 'RPL37A', 'PKM', 'EBNA1BP2', 'SSB', 'RRS1', 'LGALS1', 'UTP18', 'SLC16A3', 'ZC3H4', 'TUBA1B', 'GLRX3', 'ANP32A', 'RPL26', 'DDX10', 'RPL41', 'EZR', 'ILF2', 'OAS1', 'SLC3A2', 'RPS27L', 'EXOSC9', 'GTPBP4', 'KRT18', 'HLA-A', 'SNW1', 'NQO1', 'KPNA2', 'ANXA2', 'RPL34', 'ZFP36L1', 'YWHAE', 'TXN', 'APOBEC3C', 'DCAF13', 'ENO1', 'MYC', 'MKI67', 'RPS28', 'RAD51AP1', 'FDPS', 'CCT5', 'YARS', 'HNRNPH1', 'RPS17', 'HMGB2', 'EIF1AY', 'LGALS3', 'RAN', 'RPL39', 'BZW1', 'HMGA1', 'NCL', 'S100A4', 'RPS15A', 'NPM1', 'RBFOX3', 'RPL27', 'HSP90AA1', 'HSPE1', 'RPL28', 'SNRPF', 'MRPS30', 'EIF3D', 'TNRC6B', 'SLPI', 'MRPL13', 'RSL1D1', 'VIM', 'RPS29', 'CBX6', 'TRA2A', 'XRCC5', 'PRMT1', 'TUBB4B', 'RPL31', 'DDX39A', 'RPS18', 'NIP7', 'S100A16', 'TRMT6', 'RPF2', 'PA2G4', 'CCT4', 'PRDX1', 'SOX4', 'RPS24', 'HMGB3', 'EEF1A1', 'FSCN1']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'NAS'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA'], ['HDA'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HDA', 'IBA'], ['TAS'], ['HDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['IPI'], ['IDA', 'HDA'], ['IDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA']]</t>
+          <t>[['IDA', 'HDA'], ['HDA', 'IBA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IPI', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA'], ['TAS'], ['HDA'], ['IPI'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'NAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IMP', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA'], ['HDA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['CST3', 'PROCR', 'ACTB', 'RPS15A', 'NT5E', 'CD63', 'LGALS3BP', 'PCNA', 'RPL37A', 'SPP1', 'SFRP1', 'RPL28', 'CFD', 'SQSTM1', 'YWHAE', 'ANXA5', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'RPL27', 'CAPG', 'B2M', 'SYNGR2', 'TUBA1A', 'S100A10', 'EZR', 'ANXA4', 'S100A4', 'ALDH1A1', 'SULT2B1', 'MYL6', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'ALDH7A1', 'RHOF', 'CD44', 'HSP90AB1', 'CKB', 'HSPE1', 'S100A6', 'GPRC5A', 'RPS18', 'CLU', 'CD70', 'MARCKS', 'EPS8', 'RTN4RL2', 'TXNRD1', 'PPA1', 'EIF2S3', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'RPS28', 'KRT8', 'PPIB', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'HSPG2', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'TGFBI', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'CAPZA1', 'TUBB4B', 'ACTG1', 'GLRX', 'CCT4', 'ANXA7', 'FN1', 'KIF3A', 'NCL', 'ATP1B1', 'SLPI', 'SLC27A2', 'PA2G4', 'PSMA3', 'ITGA3', 'KRT7', 'AKR1C1', 'CTSB', 'RPS29', 'ANXA2', 'F12', 'MYL12B', 'HSPD1', 'TXN', 'VIM', 'EIF6', 'NEU1', 'BLVRB', 'CDC42', 'S100A11', 'ECH1', 'LDHA', 'CTNNB1', 'HSPA5', 'RAN', 'CCT5', 'ANXA1', 'PTPRF', 'PLAU', 'EIF4A1', 'TAGLN2', 'GCNT3', 'PTPRS', 'PRDX1', 'RPL26', 'NANS', 'FGB', 'MMP7', 'FSCN1', 'SDC4', 'HEXA', 'PPP1R7', 'SFN', 'MUC5AC', 'FABP5', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'ANXA3', 'ENO1', 'CPNE7', 'SLC35F6', 'GSTO1', 'GLA', 'LDHB', 'TUBB', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'ACTG1', 'MUC5AC', 'ANXA7', 'AXL', 'PROCR', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'PPIB', 'HSPA8', 'RTN4RL2', 'EIF2S3', 'UPK1B', 'HSPA2', 'MARCKSL1', 'PSAT1', 'MARCKS', 'RPL37A', 'KRT8', 'ATP1B1', 'PKM', 'HSPG2', 'CTNNB1', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'COTL1', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'CFD', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'CPNE7', 'CDK1', 'RPL26', 'LGALS3BP', 'EZR', 'RHOF', 'CD44', 'SLC3A2', 'CTSL', 'EXOSC9', 'PGD', 'TAGLN2', 'KRT18', 'HLA-A', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'ENO1', 'EIF6', 'PPP1R7', 'EPS8', 'RPS28', 'BLVRB', 'HSPA5', 'PPP1CB', 'SLC2A1', 'CCT5', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'AKR1C1', 'MMP7', 'SFRP1', 'SLC7A5', 'LGALS3', 'ALDH7A1', 'RAN', 'NCL', 'CKB', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'RPS15A', 'IGFBP7', 'ACTB', 'TIMP1', 'MYL12B', 'SYNGR2', 'F12', 'CAPG', 'RPL27', 'GCNT3', 'ANXA5', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'KIF3A', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'PHGDH', 'ARPC3', 'SLPI', 'CAPZA1', 'CHP1', 'VIM', 'RPS29', 'KRT7', 'BASP1', 'ANXA3', 'TUBB4B', 'RPL31', 'FGB', 'ANXA1', 'PSMA3', 'LDHB', 'ANXA4', 'KRT19', 'PTPRS', 'CLU', 'RPS18', 'NEU1', 'S100A16', 'S100A10', 'SLC27A2', 'PA2G4', 'CCT7', 'B2M', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'FSCN1', 'CDC42']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1599,12 +1599,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['CST3', 'PROCR', 'ACTB', 'RPS15A', 'NT5E', 'CD63', 'LGALS3BP', 'PCNA', 'RPL37A', 'SPP1', 'SFRP1', 'RPL28', 'CFD', 'SQSTM1', 'YWHAE', 'ANXA5', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'RPL27', 'CAPG', 'B2M', 'SYNGR2', 'TUBA1A', 'S100A10', 'EZR', 'ANXA4', 'S100A4', 'ALDH1A1', 'SULT2B1', 'MYL6', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'ALDH7A1', 'RHOF', 'CD44', 'HSP90AB1', 'CKB', 'HSPE1', 'S100A6', 'GPRC5A', 'RPS18', 'CLU', 'CD70', 'MARCKS', 'EPS8', 'RTN4RL2', 'TXNRD1', 'PPA1', 'EIF2S3', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'RPS28', 'KRT8', 'PPIB', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'HSPG2', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'TGFBI', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'CAPZA1', 'TUBB4B', 'ACTG1', 'GLRX', 'CCT4', 'ANXA7', 'FN1', 'KIF3A', 'NCL', 'ATP1B1', 'SLPI', 'SLC27A2', 'PA2G4', 'PSMA3', 'ITGA3', 'KRT7', 'AKR1C1', 'CTSB', 'RPS29', 'ANXA2', 'F12', 'MYL12B', 'HSPD1', 'TXN', 'VIM', 'EIF6', 'NEU1', 'BLVRB', 'CDC42', 'S100A11', 'ECH1', 'LDHA', 'CTNNB1', 'HSPA5', 'RAN', 'CCT5', 'ANXA1', 'PTPRF', 'PLAU', 'EIF4A1', 'TAGLN2', 'GCNT3', 'PTPRS', 'PRDX1', 'RPL26', 'NANS', 'FGB', 'MMP7', 'FSCN1', 'SDC4', 'HEXA', 'PPP1R7', 'SFN', 'MUC5AC', 'FABP5', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'ANXA3', 'ENO1', 'CPNE7', 'SLC35F6', 'GSTO1', 'GLA', 'LDHB', 'TUBB', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'ACTG1', 'MUC5AC', 'ANXA7', 'AXL', 'PROCR', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'PPIB', 'HSPA8', 'RTN4RL2', 'EIF2S3', 'UPK1B', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'RPL37A', 'KRT8', 'ATP1B1', 'PKM', 'HSPG2', 'CTNNB1', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'COTL1', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'CFD', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'CPNE7', 'CDK1', 'RPL26', 'LGALS3BP', 'EZR', 'RHOF', 'CD44', 'SLC3A2', 'CTSL', 'EXOSC9', 'PGD', 'TAGLN2', 'KRT18', 'HLA-A', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'ENO1', 'EIF6', 'PPP1R7', 'EPS8', 'RPS28', 'BLVRB', 'HSPA5', 'PPP1CB', 'SLC2A1', 'CCT5', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'AKR1C1', 'MMP7', 'SFRP1', 'SLC7A5', 'LGALS3', 'ALDH7A1', 'RAN', 'NCL', 'CKB', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'RPS15A', 'IGFBP7', 'ACTB', 'TIMP1', 'MYL12B', 'SYNGR2', 'F12', 'CAPG', 'RPL27', 'GCNT3', 'ANXA5', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'KIF3A', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'PHGDH', 'ARPC3', 'SLPI', 'CAPZA1', 'CHP1', 'VIM', 'RPS29', 'KRT7', 'BASP1', 'ANXA3', 'TUBB4B', 'RPL31', 'FGB', 'ANXA1', 'PSMA3', 'LDHB', 'ANXA4', 'KRT19', 'PTPRS', 'CLU', 'RPS18', 'NEU1', 'S100A16', 'S100A10', 'SLC27A2', 'PA2G4', 'CCT7', 'B2M', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'FSCN1', 'CDC42']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['CST3', 'PROCR', 'ACTB', 'RPS15A', 'NT5E', 'CD63', 'LGALS3BP', 'PCNA', 'RPL37A', 'SPP1', 'SFRP1', 'RPL28', 'CFD', 'SQSTM1', 'YWHAE', 'ANXA5', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'RPL27', 'CAPG', 'B2M', 'SYNGR2', 'TUBA1A', 'S100A10', 'EZR', 'ANXA4', 'S100A4', 'ALDH1A1', 'SULT2B1', 'MYL6', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'ALDH7A1', 'RHOF', 'CD44', 'HSP90AB1', 'CKB', 'HSPE1', 'S100A6', 'GPRC5A', 'RPS18', 'CLU', 'CD70', 'MARCKS', 'EPS8', 'RTN4RL2', 'TXNRD1', 'PPA1', 'EIF2S3', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'RPS28', 'KRT8', 'PPIB', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'HSPG2', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'TGFBI', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'CAPZA1', 'TUBB4B', 'ACTG1', 'GLRX', 'CCT4', 'ANXA7', 'FN1', 'KIF3A', 'NCL', 'ATP1B1', 'SLPI', 'SLC27A2', 'PA2G4', 'PSMA3', 'ITGA3', 'KRT7', 'AKR1C1', 'CTSB', 'RPS29', 'ANXA2', 'F12', 'MYL12B', 'HSPD1', 'TXN', 'VIM', 'EIF6', 'NEU1', 'BLVRB', 'CDC42', 'S100A11', 'ECH1', 'LDHA', 'CTNNB1', 'HSPA5', 'RAN', 'CCT5', 'ANXA1', 'PTPRF', 'PLAU', 'EIF4A1', 'TAGLN2', 'GCNT3', 'PTPRS', 'PRDX1', 'RPL26', 'NANS', 'FGB', 'MMP7', 'FSCN1', 'SDC4', 'HEXA', 'PPP1R7', 'SFN', 'MUC5AC', 'FABP5', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'ANXA3', 'ENO1', 'CPNE7', 'SLC35F6', 'GSTO1', 'GLA', 'LDHB', 'TUBB', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'ACTG1', 'MUC5AC', 'ANXA7', 'AXL', 'PROCR', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'PPIB', 'HSPA8', 'RTN4RL2', 'EIF2S3', 'UPK1B', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'RPL37A', 'KRT8', 'ATP1B1', 'PKM', 'HSPG2', 'CTNNB1', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'COTL1', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'CFD', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'CPNE7', 'CDK1', 'RPL26', 'LGALS3BP', 'EZR', 'RHOF', 'CD44', 'SLC3A2', 'CTSL', 'EXOSC9', 'PGD', 'TAGLN2', 'KRT18', 'HLA-A', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'ENO1', 'EIF6', 'PPP1R7', 'EPS8', 'RPS28', 'BLVRB', 'HSPA5', 'PPP1CB', 'SLC2A1', 'CCT5', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'AKR1C1', 'MMP7', 'SFRP1', 'SLC7A5', 'LGALS3', 'ALDH7A1', 'RAN', 'NCL', 'CKB', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'RPS15A', 'IGFBP7', 'ACTB', 'TIMP1', 'MYL12B', 'SYNGR2', 'F12', 'CAPG', 'RPL27', 'GCNT3', 'ANXA5', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'KIF3A', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'PHGDH', 'ARPC3', 'SLPI', 'CAPZA1', 'CHP1', 'VIM', 'RPS29', 'KRT7', 'BASP1', 'ANXA3', 'TUBB4B', 'RPL31', 'FGB', 'ANXA1', 'PSMA3', 'LDHB', 'ANXA4', 'KRT19', 'PTPRS', 'CLU', 'RPS18', 'NEU1', 'S100A16', 'S100A10', 'SLC27A2', 'PA2G4', 'CCT7', 'B2M', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'FSCN1', 'CDC42']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['CST3', 'PROCR', 'ACTB', 'RPS15A', 'NT5E', 'CD63', 'LGALS3BP', 'PCNA', 'RPL37A', 'SPP1', 'SFRP1', 'RPL28', 'CFD', 'SQSTM1', 'YWHAE', 'ANXA5', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'RPL27', 'CAPG', 'B2M', 'SYNGR2', 'TUBA1A', 'S100A10', 'EZR', 'ANXA4', 'S100A4', 'ALDH1A1', 'SULT2B1', 'MYL6', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'ALDH7A1', 'RHOF', 'CD44', 'HSP90AB1', 'CKB', 'HSPE1', 'S100A6', 'GPRC5A', 'RPS18', 'CLU', 'CD70', 'MARCKS', 'EPS8', 'RTN4RL2', 'TXNRD1', 'PPA1', 'EIF2S3', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'RPS28', 'KRT8', 'PPIB', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'HSPG2', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'TGFBI', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'CAPZA1', 'TUBB4B', 'ACTG1', 'GLRX', 'CCT4', 'ANXA7', 'FN1', 'KIF3A', 'NCL', 'ATP1B1', 'SLPI', 'SLC27A2', 'PA2G4', 'PSMA3', 'ITGA3', 'KRT7', 'AKR1C1', 'CTSB', 'RPS29', 'ANXA2', 'F12', 'MYL12B', 'HSPD1', 'TXN', 'VIM', 'EIF6', 'NEU1', 'BLVRB', 'CDC42', 'S100A11', 'ECH1', 'LDHA', 'CTNNB1', 'HSPA5', 'RAN', 'CCT5', 'ANXA1', 'PTPRF', 'PLAU', 'EIF4A1', 'TAGLN2', 'GCNT3', 'PTPRS', 'PRDX1', 'RPL26', 'NANS', 'FGB', 'MMP7', 'FSCN1', 'SDC4', 'HEXA', 'PPP1R7', 'SFN', 'MUC5AC', 'FABP5', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'ANXA3', 'ENO1', 'CPNE7', 'SLC35F6', 'GSTO1', 'GLA', 'LDHB', 'TUBB', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'ACTG1', 'MUC5AC', 'ANXA7', 'AXL', 'PROCR', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'PPIB', 'HSPA8', 'RTN4RL2', 'EIF2S3', 'UPK1B', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'RPL37A', 'KRT8', 'ATP1B1', 'PKM', 'HSPG2', 'CTNNB1', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'COTL1', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'CFD', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'CPNE7', 'CDK1', 'RPL26', 'LGALS3BP', 'EZR', 'RHOF', 'CD44', 'SLC3A2', 'CTSL', 'EXOSC9', 'PGD', 'TAGLN2', 'KRT18', 'HLA-A', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'ENO1', 'EIF6', 'PPP1R7', 'EPS8', 'RPS28', 'BLVRB', 'HSPA5', 'PPP1CB', 'SLC2A1', 'CCT5', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'AKR1C1', 'MMP7', 'SFRP1', 'SLC7A5', 'LGALS3', 'ALDH7A1', 'RAN', 'NCL', 'CKB', 'MYL6', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'RPS15A', 'IGFBP7', 'ACTB', 'TIMP1', 'MYL12B', 'SYNGR2', 'F12', 'CAPG', 'RPL27', 'GCNT3', 'ANXA5', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'KIF3A', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'PHGDH', 'ARPC3', 'SLPI', 'CAPZA1', 'CHP1', 'VIM', 'RPS29', 'KRT7', 'BASP1', 'ANXA3', 'TUBB4B', 'RPL31', 'FGB', 'ANXA1', 'PSMA3', 'LDHB', 'ANXA4', 'KRT19', 'PTPRS', 'CLU', 'RPS18', 'NEU1', 'S100A16', 'S100A10', 'SLC27A2', 'PA2G4', 'CCT7', 'B2M', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'FSCN1', 'CDC42']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MAGED2', 'CST3', 'PROCR', 'ACTB', 'RPS15A', 'NT5E', 'CD63', 'LGALS3BP', 'PCNA', 'RPL37A', 'EMP2', 'SPP1', 'SFRP1', 'RPL28', 'CFD', 'SQSTM1', 'PSMC2', 'YWHAE', 'ANXA5', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'GOLIM4', 'B2M', 'SYNGR2', 'TUBA1A', 'S100A10', 'EZR', 'ANXA4', 'ANTXR1', 'S100A4', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'MYL6', 'EEF1A1', 'AXL', 'RIPK2', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'GAL', 'ALDH7A1', 'OCIAD2', 'RHOF', 'CD44', 'HSP90AB1', 'LY6K', 'CAV2', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CD70', 'MARCKS', 'EPS8', 'AP1M2', 'PHACTR2', 'RTN4RL2', 'TXNRD1', 'PPA1', 'EIF2S3', 'CAV1', 'COTL1', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'RPS28', 'KRT8', 'PPIB', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'TGFBI', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'CDA', 'CAPZA1', 'TUBB4B', 'ACTG1', 'GLRX', 'CCT4', 'ANXA7', 'PHLDA1', 'FN1', 'KIF3A', 'NCL', 'ATP1B1', 'SLPI', 'SLC27A2', 'PA2G4', 'PSMD1', 'PSMA3', 'ITGA3', 'PTP4A1', 'KRT7', 'AKR1C1', 'CTSB', 'RPS29', 'DYNLL1', 'DKK1', 'ANXA2', 'BCL2L1', 'F12', 'MYL12B', 'PRSS3', 'HSPD1', 'GCHFR', 'LAPTM4A', 'TXN', 'RAB11FIP1', 'VIM', 'EIF6', 'NEU1', 'BLVRB', 'MMD', 'CDC42', 'S100A11', 'TMSB4X', 'ECH1', 'LDHA', 'CTNNB1', 'HSPA5', 'RAN', 'CCT5', 'AP3S1', 'ANXA1', 'PTPRF', 'PLAU', 'ERGIC1', 'EIF4A1', 'TAGLN2', 'PSMD14', 'GCNT3', 'PTPRS', 'PRDX1', 'RPL26', 'OPTN', 'NANS', 'FGB', 'MMP7', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'HEXA', 'PPP1R7', 'SFN', 'MUC5AC', 'FABP5', 'SLC7A5', 'LITAF', 'AKR1B1', 'AMOTL2', 'HSPA8', 'CCT7', 'ANXA3', 'ENO1', 'CPNE7', 'SLC35F6', 'GSTO1', 'GLA', 'LDHB', 'TUBB', 'MGST1', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'PCSK1N', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'UPK1B', 'RABAC1', 'XRCC5']</t>
+          <t>['HSP90AB1', 'ACTG1', 'MUC5AC', 'ANXA7', 'AXL', 'PROCR', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'RABAC1', 'PPIB', 'HSPA8', 'RTN4RL2', 'EIF2S3', 'PMEPA1', 'CDA', 'GAL', 'TMSB4X', 'UPK1B', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'RPL37A', 'KRT8', 'ATP1B1', 'CNIH4', 'DEGS1', 'PKM', 'HSPG2', 'CTNNB1', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'COTL1', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'CFD', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST1', 'CPNE7', 'CDK1', 'RPL26', 'PRSS3', 'LGALS3BP', 'DKK1', 'EZR', 'RHOF', 'GOLIM4', 'ILF2', 'CD44', 'PSMD14', 'SLC3A2', 'EMP2', 'LY6K', 'PSMC2', 'SMAGP', 'CTSL', 'EXOSC9', 'PGD', 'TAGLN2', 'KRT18', 'PHACTR2', 'HLA-A', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'CAV1', 'AP1M2', 'ANTXR1', 'NT5E', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'PPP1R7', 'EPS8', 'CAV2', 'RPS28', 'BLVRB', 'HSPA5', 'PPP1CB', 'SLC2A1', 'CCT5', 'TXNRD1', 'AP3S1', 'SULT2B1', 'SLC35F6', 'AKR1C1', 'MMP7', 'SFRP1', 'SLC7A5', 'LGALS3', 'ALDH7A1', 'RAN', 'NCL', 'CKB', 'MYL6', 'MMD', 'CD70', 'B4GALT1', 'BCL2L1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'RPS15A', 'IGFBP7', 'ACTB', 'PSMD1', 'GCHFR', 'TIMP1', 'MYL12B', 'SYNGR2', 'OCIAD2', 'CNN2', 'F12', 'ERGIC1', 'PHLDA1', 'CAPG', 'RPL27', 'GCNT3', 'ANXA5', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'CTTN', 'KIF3A', 'OPTN', 'LAPTM4A', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'VIM', 'RPS29', 'KRT7', 'XRCC5', 'BASP1', 'ANXA3', 'TUBB4B', 'RPL31', 'MAGED2', 'FGB', 'ANXA1', 'PSMA3', 'RAB11FIP1', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'PTPRS', 'CLU', 'RPS18', 'NEU1', 'S100A16', 'S100A10', 'SLC27A2', 'PA2G4', 'CCT7', 'B2M', 'CCT4', 'PRDX1', 'ITGA3', 'YPEL5', 'DYNLL1', 'LITAF', 'EEF1A1', 'SH3KBP1', 'FSCN1', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['TAS'], ['HDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['ISS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'ISS'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['IBA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['TAS']]</t>
+          <t>[['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['TAS'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['TAS'], ['HDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA', 'ISS'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IBA', 'TAS'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['ISS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['MAGED2', 'CST3', 'PROCR', 'ACTB', 'RPS15A', 'NT5E', 'ALDH3A1', 'CD63', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'IGFBP6', 'SPP1', 'ADAMTS12', 'SFRP1', 'RPL28', 'CFD', 'MTHFD2', 'SQSTM1', 'PSMC2', 'YWHAE', 'ANXA5', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'AIMP1', 'RPL27', 'CAPG', 'B2M', 'SYNGR2', 'TUBA1A', 'S100A10', 'EZR', 'ANXA4', 'S100A4', 'ALDH1A1', 'SULT2B1', 'NTS', 'COL5A2', 'MYL6', 'EEF1A1', 'AXL', 'ADM', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'GAL', 'CXCL5', 'ALDH7A1', 'RHOF', 'TGFBR2', 'CD44', 'C1orf56', 'YARS', 'CRELD2', 'MDK', 'HSP90AB1', 'LY6K', 'CKB', 'HSPE1', 'S100A6', 'GPRC5A', 'RPS18', 'CLU', 'LIPH', 'CD70', 'MARCKS', 'EPS8', 'RTN4RL2', 'IGFBP3', 'TXNRD1', 'PPA1', 'EIF2S3', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CXCL3', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'RPS28', 'KRT8', 'RSPO3', 'PPIB', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'TGFBI', 'INSL4', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'CDA', 'CAPZA1', 'TUBB4B', 'ACTG1', 'GLRX', 'CCT4', 'ANXA7', 'FN1', 'LXN', 'KIF3A', 'NINJ1', 'NCL', 'PAPPA', 'ATP1B1', 'SLPI', 'RPL39', 'SLC27A2', 'PA2G4', 'PSMD1', 'PSMA3', 'ITGA3', 'KRT7', 'AKR1C1', 'CTSB', 'RPS29', 'DKK1', 'ANXA2', 'EVA1C', 'F12', 'MYL12B', 'PRSS3', 'HSPD1', 'INA', 'CCL2', 'TXN', 'VIM', 'EIF6', 'HMGB2', 'NEU1', 'BLVRB', 'STC2', 'CDC42', 'S100A11', 'AGR2', 'TFF1', 'TMSB4X', 'OAS1', 'ECH1', 'LDHA', 'CTNNB1', 'HSPA5', 'RAN', 'CCT5', 'IGFBP4', 'MUC3A', 'B4GALT4', 'ANXA1', 'PTPRF', 'PLAU', 'EIF4A1', 'TAGLN2', 'PSMD14', 'GCNT3', 'PTPRS', 'PRDX1', 'RPL26', 'KRT81', 'NANS', 'FGB', 'MMP7', 'CNN2', 'FSCN1', 'SDC4', 'HEXA', 'PPP1R7', 'SFN', 'MUC5AC', 'FABP5', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'ANXA3', 'ENO1', 'CPNE7', 'SLC35F6', 'GSTO1', 'GLA', 'LDHB', 'TUBB', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'PCSK1N', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'UPK1B', 'XRCC5']</t>
+          <t>['HSP90AB1', 'ACTG1', 'MUC5AC', 'ANXA7', 'ADM', 'AXL', 'S100A13', 'PROCR', 'ADAMTS12', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'PPIB', 'HSPA8', 'RTN4RL2', 'EIF2S3', 'CDA', 'GAL', 'TMSB4X', 'UPK1B', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'RPL37A', 'KRT8', 'ATP1B1', 'PKM', 'HSPG2', 'CTNNB1', 'SQSTM1', 'S100A11', 'PGK1', 'INA', 'ALDH3A1', 'TGFBI', 'LGALS1', 'COTL1', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'CFD', 'KRT81', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'CPNE7', 'CDK1', 'RPL26', 'PRSS3', 'LGALS3BP', 'DKK1', 'EZR', 'RHOF', 'ILF2', 'CD44', 'CCL2', 'PSMD14', 'OAS1', 'SLC3A2', 'LY6K', 'PSMC2', 'CTSL', 'EXOSC9', 'PGD', 'TAGLN2', 'KRT18', 'HLA-A', 'IGFBP4', 'PTPRF', 'AKR1B10', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'NT5E', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'C1orf56', 'PPP1R7', 'LIPH', 'EPS8', 'RPS28', 'BLVRB', 'HSPA5', 'PPP1CB', 'MDK', 'SLC2A1', 'CCT5', 'YARS', 'EVA1C', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'AKR1C1', 'B4GALT4', 'MMP7', 'HMGB2', 'AGR2', 'SFRP1', 'SLC7A5', 'LGALS3', 'ALDH7A1', 'RAN', 'RPL39', 'COL5A2', 'NCL', 'CKB', 'MYL6', 'CXCL5', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'NINJ1', 'CD63', 'PAPPA', 'S100A4', 'RPS15A', 'IGFBP7', 'MUC3A', 'ACTB', 'PSMD1', 'TIMP1', 'MYL12B', 'SYNGR2', 'CNN2', 'F12', 'CRELD2', 'CAPG', 'RPL27', 'LXN', 'GCNT3', 'ANXA5', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'KIF3A', 'TFF1', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'PHGDH', 'ARPC3', 'SLPI', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'STC2', 'VIM', 'RPS29', 'KRT7', 'XRCC5', 'BASP1', 'ANXA3', 'TUBB4B', 'RPL31', 'MAGED2', 'RSPO3', 'FGB', 'ANXA1', 'PSMA3', 'LDHB', 'ANXA4', 'KRT19', 'TGFBR2', 'PTPRS', 'CLU', 'RPS18', 'NEU1', 'IGFBP6', 'S100A16', 'S100A10', 'CXCL3', 'SLC27A2', 'PA2G4', 'CCT7', 'B2M', 'INSL4', 'CCT4', 'PRDX1', 'ITGA3', 'YPEL5', 'EEF1A1', 'FSCN1', 'CDC42']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'ISS', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS']]</t>
+          <t>[['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IEP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['HDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IBA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['NAS', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['NAS'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1929,12 +1929,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['CST3', 'PROCR', 'ACTB', 'RPS15A', 'NT5E', 'ALDH3A1', 'CD63', 'LGALS3BP', 'PCNA', 'RPL37A', 'IGFBP6', 'SPP1', 'SFRP1', 'RPL28', 'CFD', 'MTHFD2', 'SQSTM1', 'YWHAE', 'ANXA5', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'AIMP1', 'RPL27', 'CAPG', 'B2M', 'SYNGR2', 'TUBA1A', 'S100A10', 'EZR', 'ANXA4', 'S100A4', 'ALDH1A1', 'SULT2B1', 'COL5A2', 'MYL6', 'EEF1A1', 'AXL', 'ADM', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'GAL', 'CXCL5', 'ALDH7A1', 'RHOF', 'CD44', 'YARS', 'CRELD2', 'HSP90AB1', 'CKB', 'HSPE1', 'S100A6', 'GPRC5A', 'RPS18', 'CLU', 'LIPH', 'CD70', 'MARCKS', 'EPS8', 'RTN4RL2', 'IGFBP3', 'TXNRD1', 'PPA1', 'EIF2S3', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CXCL3', 'BASP1', 'VAMP8', 'PGD', 'B4GALT1', 'RPS28', 'KRT8', 'PPIB', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'HSPG2', 'LGALS3', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'TGFBI', 'INSL4', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'CAPZA1', 'TUBB4B', 'ACTG1', 'GLRX', 'CCT4', 'ANXA7', 'FN1', 'LXN', 'KIF3A', 'NCL', 'PAPPA', 'ATP1B1', 'SLPI', 'RPL39', 'SLC27A2', 'PA2G4', 'PSMA3', 'ITGA3', 'KRT7', 'AKR1C1', 'CTSB', 'RPS29', 'DKK1', 'ANXA2', 'F12', 'MYL12B', 'PRSS3', 'HSPD1', 'INA', 'CCL2', 'TXN', 'VIM', 'EIF6', 'HMGB2', 'NEU1', 'BLVRB', 'STC2', 'CDC42', 'S100A11', 'AGR2', 'TFF1', 'ECH1', 'LDHA', 'CTNNB1', 'HSPA5', 'RAN', 'CCT5', 'IGFBP4', 'ANXA1', 'PTPRF', 'PLAU', 'EIF4A1', 'TAGLN2', 'GCNT3', 'PTPRS', 'PRDX1', 'RPL26', 'KRT81', 'NANS', 'FGB', 'MMP7', 'FSCN1', 'SDC4', 'HEXA', 'PPP1R7', 'SFN', 'MUC5AC', 'FABP5', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'ANXA3', 'ENO1', 'CPNE7', 'SLC35F6', 'GSTO1', 'GLA', 'LDHB', 'TUBB', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'PCSK1N', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'UPK1B']</t>
+          <t>['HSP90AB1', 'ACTG1', 'MUC5AC', 'ANXA7', 'ADM', 'AXL', 'S100A13', 'PROCR', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'PPIB', 'HSPA8', 'RTN4RL2', 'EIF2S3', 'GAL', 'UPK1B', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'RPL37A', 'KRT8', 'ATP1B1', 'PKM', 'HSPG2', 'CTNNB1', 'SQSTM1', 'S100A11', 'PGK1', 'INA', 'ALDH3A1', 'TGFBI', 'LGALS1', 'COTL1', 'FABP5', 'TUBB', 'NANS', 'SLC12A2', 'CFD', 'KRT81', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'CPNE7', 'CDK1', 'RPL26', 'PRSS3', 'LGALS3BP', 'DKK1', 'EZR', 'RHOF', 'CD44', 'CCL2', 'SLC3A2', 'CTSL', 'EXOSC9', 'PGD', 'TAGLN2', 'KRT18', 'HLA-A', 'IGFBP4', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'NT5E', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'S100A6', 'ALDH1A1', 'ENO1', 'EIF6', 'PCSK1N', 'PPP1R7', 'LIPH', 'EPS8', 'RPS28', 'BLVRB', 'HSPA5', 'PPP1CB', 'SLC2A1', 'CCT5', 'YARS', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'AKR1C1', 'MMP7', 'HMGB2', 'AGR2', 'SFRP1', 'SLC7A5', 'LGALS3', 'ALDH7A1', 'RAN', 'RPL39', 'COL5A2', 'NCL', 'CKB', 'MYL6', 'CXCL5', 'CD70', 'B4GALT1', 'PRKCA', 'SPP1', 'CD63', 'PAPPA', 'S100A4', 'RPS15A', 'IGFBP7', 'ACTB', 'TIMP1', 'MYL12B', 'SYNGR2', 'F12', 'CRELD2', 'CAPG', 'RPL27', 'LXN', 'GCNT3', 'ANXA5', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'KIF3A', 'TFF1', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'PHGDH', 'ARPC3', 'SLPI', 'CAPZA1', 'CHP1', 'STC2', 'VIM', 'RPS29', 'KRT7', 'BASP1', 'ANXA3', 'TUBB4B', 'RPL31', 'FGB', 'ANXA1', 'PSMA3', 'LDHB', 'ANXA4', 'KRT19', 'PTPRS', 'CLU', 'RPS18', 'NEU1', 'IGFBP6', 'S100A16', 'S100A10', 'CXCL3', 'SLC27A2', 'PA2G4', 'CCT7', 'B2M', 'INSL4', 'CCT4', 'PRDX1', 'ITGA3', 'EEF1A1', 'FSCN1', 'CDC42']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['HDA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IEA'], ['HDA'], ['HDA', 'ISS', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IBA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['IBA'], ['HDA'], ['HDA', 'ISS', 'IBA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['NFKBIA', 'MAGED2', 'TYMP', 'EIF3D', 'ACTB', 'KRT80', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'ALDH3A1', 'AKR1B10', 'RPL37A', 'SFRP1', 'KYNU', 'RPL28', 'RND3', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'RPL34', 'EXOSC9', 'CTTN', 'CES1', 'AIMP1', 'RPL27', 'C19orf33', 'RPS24', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'NIP7', 'B2M', 'TUBA1A', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'GPX2', 'CCNB2', 'NQO1', 'S100A4', 'CCND1', 'ALDH1A1', 'SULT2B1', 'SH3KBP1', 'CDKN1A', 'MYL6', 'TNRC6B', 'EEF1A1', 'RIPK2', 'MYL12A', 'GPX1', 'ALDH7A1', 'SSB', 'RHOF', 'TGFBR2', 'DOCK5', 'CD44', 'YARS', 'HSP90AB1', 'NUP37', 'NNMT', 'CKB', 'S100A6', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CTNNAL1', 'CDK6', 'HNRNPH1', 'PDLIM5', 'AP1M2', 'AKR1C2', 'TXNRD1', 'PPA1', 'EIF2S3', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'VAMP8', 'PGD', 'RPS28', 'KRT8', 'TP53I3', 'PPIB', 'ZC3H4', 'KMT5A', 'HSP90AA1', 'PSAT1', 'PGK1', 'PKM', 'FBXO2', 'LGALS3', 'CENPA', 'RAP2B', 'CDK1', 'RPL31', 'SERPINE2', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'CDA', 'CAPZA1', 'CCNB1', 'TUBB4B', 'ACTG1', 'GLRX', 'TNNT1', 'ANKRD28', 'CCT4', 'ELF3', 'PHLDA1', 'RPL41', 'KIF3A', 'DCAF13', 'TSC22D1', 'PFDN2', 'RPL39', 'SLC27A2', 'PSMD1', 'PSMA3', 'KRT7', 'AKR1C1', 'IDI1', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'ANXA2', 'NPM1', 'BCL2L1', 'NDUFAF4', 'MYL12B', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'GCHFR', 'TXN', 'RAB11FIP1', 'RPS27L', 'VIM', 'EIF6', 'RPS17', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'MT2A', 'DDX21', 'CDC42', 'PPP1R14A', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'RPL35', 'LDHA', 'CPLX2', 'RBCK1', 'HMGA1', 'CTNNB1', 'HSPA5', 'RAN', 'CCT5', 'ANXA1', 'ODC1', 'INPP1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'GMPS', 'KRT81', 'OPTN', 'PHKG1', 'NANS', 'PARD3', 'FSCN1', 'ARL1', 'MCL1', 'HEXA', 'GTPBP4', 'SFN', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'AKR1B1', 'ATF4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'SNRPF', 'ENO1', 'HERC4', 'KPNA2', 'SLC35F6', 'UBE2C', 'GSTO1', 'PTGES3', 'LDHB', 'TUBB', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'ADI1', 'PDLIM7', 'S100A3', 'SAT1', 'CAMK1', 'SLC2A1', 'PPP1CB', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'PTRH2']</t>
+          <t>['HSP90AB1', 'ACTG1', 'RPL35', 'GPX1', 'ARL6IP1', 'S100A13', 'AIMP1', 'GLRX', 'HSPD1', 'EIF4A1', 'S100A3', 'NUDC', 'PPIB', 'HSPA8', 'EIF2S3', 'CDA', 'TMSB4X', 'RQCD1', 'NFKBIA', 'DDX21', 'HSPA2', 'SERPINE2', 'PSAT1', 'CCND3', 'INPP1', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'TRIB3', 'KRT8', 'LMNA', 'GPX2', 'RBCK1', 'PKM', 'CTNNB1', 'SQSTM1', 'SSB', 'PGK1', 'PHKG1', 'ALDH3A1', 'LGALS1', 'COTL1', 'CDK6', 'FABP5', 'TUBB', 'FBXO2', 'PTRH2', 'NANS', 'ZC3H4', 'TNNT1', 'KRT81', 'GLRX3', 'RAP2B', 'PKMYT1', 'CDK1', 'RPL26', 'ANKRD28', 'AKAP12', 'RPL41', 'UBE2S', 'EZR', 'RHOF', 'PPP1R14A', 'ILF2', 'UMPS', 'CD44', 'CCNB2', 'PSMD14', 'OAS1', 'PSMC2', 'RPS27L', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'TYMP', 'CUTC', 'NDUFAF4', 'TP53I3', 'NQO1', 'CDCA4', 'AKR1B10', 'KPNA2', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'HEXA', 'RPL34', 'PPA1', 'AP1M2', 'NT5E', 'ZFP36L1', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'DCAF13', 'ENO1', 'EIF6', 'RND3', 'RPS28', 'CDKN1A', 'IDI1', 'BLVRB', 'MCL1', 'HSPA5', 'PPP1CB', 'FDPS', 'ODC1', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'AKR1C2', 'TXNRD1', 'CENPA', 'SULT2B1', 'SLC35F6', 'HNRNPH1', 'CAMK1', 'AKR1C1', 'RPS17', 'DOCK5', 'SFRP1', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'RPL39', 'HMGA1', 'CKB', 'MYL6', 'UBE2C', 'GMPS', 'BCL2L1', 'PRKCA', 'S100A4', 'RPS15A', 'PFDN2', 'ACTB', 'PSMD1', 'KRT80', 'NPM1', 'SAT1', 'GCHFR', 'HERC4', 'MYL12B', 'CDKN3', 'PHLDA1', 'MT2A', 'RPL27', 'ATF4', 'ANXA5', 'ECH1', 'RAI14', 'HSP90AA1', 'TUBA1A', 'LDHA', 'PDLIM7', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'CES1', 'PDLIM5', 'EIF3D', 'TNRC6B', 'AMOTL2', 'GSTO1', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'ARPC3', 'FGFR1', 'CAPZA1', 'CTNNAL1', 'PTTG1', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'PSMC4', 'TPM1', 'XRCC5', 'CPLX2', 'PRMT1', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'TSC22D1', 'ANXA1', 'PSMA3', 'RAB11FIP1', 'LDHB', 'RIN2', 'KRT19', 'TGFBR2', 'KIF23', 'PTPRS', 'CLU', 'RPS18', 'BIRC5', 'NIP7', 'PTGES3', 'S100A16', 'SLC27A2', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'CCT4', 'PRDX1', 'NNMT', 'PIR', 'DYNLL1', 'RPS24', 'C19orf33', 'EEF1A1', 'SH3KBP1', 'FSCN1', 'CCNB1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'ISS', 'TAS'], ['IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA', 'TAS'], ['IDA'], ['IPI', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IBA'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'TAS'], ['TAS'], ['IDA'], ['IBA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'TAS'], ['IBA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IMP', 'IBA']]</t>
+          <t>[['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IMP', 'IBA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'HDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IBA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IBA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS']]</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'TPPP3', 'CST3', 'TYMP', 'EIF3D', 'PROCR', 'ACTB', 'SUCLG1', 'KRT80', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'RBFOX3', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'AKR1B10', 'RPL37A', 'ALG8', 'ABCG2', 'EMP2', 'SPP1', 'SFRP1', 'KYNU', 'RPL28', 'CEBPB', 'CFD', 'MTHFD2', 'RND3', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'C19orf33', 'MRPS30', 'RPS24', 'GOLIM4', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'FEZ2', 'NIP7', 'B2M', 'MUC12', 'SYNGR2', 'PHLDA3', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'GPX2', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'RIPK2', 'ADM', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'TUBA1B', 'ANP32A', 'GAL', 'GPX1', 'IK', 'ALDH7A1', 'OCIAD2', 'SSB', 'DRAM1', 'RHOF', 'TGFBR2', 'DOCK5', 'CD44', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'LY6K', 'CAV2', 'NNMT', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CTNNAL1', 'CDK6', 'DHRS7', 'MARCKS', 'EPS8', 'HNRNPH1', 'PDLIM5', 'TRAM1', 'AP1M2', 'PHACTR2', 'BZW1', 'AKR1C2', 'SCD', 'IGFBP3', 'TXNRD1', 'PPA1', 'EIF2S3', 'BTG1', 'PHLDA2', 'CAV1', 'PLPP5', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'BASP1', 'LRRC75A', 'VAMP8', 'PGD', 'LBH', 'B4GALT1', 'FDFT1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'TP53I3', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'RAP2B', 'DNAJC12', 'CDK1', 'RNF121', 'RPL31', 'SERPINE2', 'TGFBI', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'CDA', 'CAPZA1', 'CCNB1', 'TUBB4B', 'ACTG1', 'PDLIM1', 'GLRX', 'TNNT1', 'ID3', 'ANKRD28', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'LXN', 'KIF3A', 'MKNK2', 'HM13', 'DCAF13', 'TSC22D1', 'NCL', 'PFDN2', 'IRF2BP2', 'SLPI', 'MRPL13', 'RPL39', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'ITGA3', 'PTP4A1', 'KRT7', 'AKR1C1', 'IDI1', 'CTSB', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'DKK1', 'ANXA2', 'NPM1', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'INA', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'ZFAS1', 'HMGB2', 'RPS17', 'NEU1', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'IFI27L2', 'STC2', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'MMD', 'DDX21', 'CDC42', 'FKBP11', 'MCM3', 'PPP1R14A', 'SPCS2', 'TRIML2', 'S100A11', 'AGR2', 'PLEK2', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'RPL35', 'LDHA', 'GRPEL1', 'CPLX2', 'RBCK1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'MUC3A', 'AP3S1', 'B4GALT4', 'ANXA1', 'ODC1', 'PTPRF', 'PLAU', 'TOP2A', 'INPP1', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'GMPS', 'KRT81', 'OPTN', 'PHKG1', 'NANS', 'PARD3', 'FGB', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'SNRPF', 'ANXA3', 'ENO1', 'HERC4', 'EIF1AY', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'GSTO1', 'PTGES3', 'GLA', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ADI1', 'PDLIM7', 'PCSK1N', 'S100A3', 'SAT1', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'COX7B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'ACTG1', 'RPL35', 'MUC5AC', 'ANXA7', 'GPX1', 'ADM', 'ARL6IP1', 'S100A13', 'PROCR', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'RABAC1', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'G0S2', 'EIF2S3', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'FEZ2', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'CCND3', 'INPP1', 'TRIML2', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'FKBP11', 'TRIB3', 'ALG8', 'KRT8', 'CNIH4', 'CEBPB', 'PHLDA2', 'DEGS1', 'LMNA', 'GPX2', 'RBCK1', 'IFI27L2', 'PKM', 'HSPG2', 'CTNNB1', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'PGK1', 'INA', 'PHKG1', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'COTL1', 'CDK6', 'FABP5', 'TUBB', 'FBXO2', 'RNF121', 'PLEK2', 'LETM1', 'PTRH2', 'NANS', 'SLC12A2', 'CFD', 'ZC3H4', 'TUBA1B', 'TNNT1', 'KRT81', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'RPL26', 'ANKRD28', 'PRSS3', 'AKAP12', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'PLPP5', 'DKK1', 'EZR', 'RHOF', 'GOLIM4', 'PPP1R14A', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'LY6K', 'TPPP3', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'TYMP', 'CUTC', 'PHACTR2', 'HLA-A', 'IGFBP4', 'NDUFAF4', 'DUSP1', 'TP53I3', 'PTPRF', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'PDLIM1', 'LBH', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'HEXA', 'RPL34', 'PPA1', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'PPP1R7', 'RND3', 'MYC', 'EPS8', 'MGST2', 'CAV2', 'RPS28', 'CDKN1A', 'IDI1', 'BLVRB', 'MCL1', 'HSPA5', 'PPP1CB', 'TRAM1', 'FDPS', 'ODC1', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'ZFAS1', 'AKR1C2', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'SLC35F6', 'MUC12', 'HNRNPH1', 'LRRC75A', 'CAMK1', 'GCNT2', 'AKR1C1', 'RPS17', 'B4GALT4', 'HMGB2', 'AGR2', 'DOCK5', 'SFRP1', 'EIF1AY', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'RPL39', 'BZW1', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'MMD', 'GMPS', 'B4GALT1', 'BCL2L1', 'PRKCA', 'SPP1', 'CD63', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'CRIP2', 'ETFB', 'B4GALT5', 'MUC3A', 'ACTB', 'PSMD1', 'KRT80', 'NPM1', 'SAT1', 'COX14', 'GCHFR', 'HERC4', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'OCIAD2', 'CNN2', 'F12', 'CRELD2', 'RBFOX3', 'ERGIC1', 'PHLDA1', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'LXN', 'GCNT3', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HSP90AA1', 'TUBA1A', 'LDHA', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'PDLIM5', 'MRPS30', 'EIF3D', 'LAPTM4A', 'TNRC6B', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'CTNNAL1', 'HM13', 'PTTG1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'EPHX1', 'PSMC4', 'TPM1', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'FGB', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'TGFBR2', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'DNAJC12', 'S100A16', 'IRF2BP2', 'S100A10', 'SLC27A2', 'PA2G4', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'CCT4', 'PRDX1', 'SOX4', 'NNMT', 'ITGA3', 'CLSPN', 'YPEL5', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'C19orf33', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'PHLDA3', 'SMIM14', 'TMPO', 'FSCN1', 'CCNB1', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IC'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS'], ['HTP', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['TAS'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IDA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['TAS'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MDM4', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'TPPP3', 'CST3', 'TYMP', 'EIF3D', 'PROCR', 'ACTB', 'SUCLG1', 'JUNB', 'KRT80', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'RBFOX3', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'ALG8', 'ABCG2', 'EMP2', 'SPP1', 'SFRP1', 'KYNU', 'RPL28', 'CEBPB', 'CFD', 'MTHFD2', 'RND3', 'NEAT1', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'INO80C', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'HELLS', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RAD51AP1', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'C19orf33', 'MRPS30', 'RPS24', 'GOLIM4', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'FEZ2', 'NIP7', 'B2M', 'MUC12', 'SYNGR2', 'RPF2', 'PHLDA3', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'GPX2', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'AXL', 'RIPK2', 'ADM', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'TUBA1B', 'ANP32A', 'GAL', 'GPX1', 'IK', 'ALDH7A1', 'OCIAD2', 'SSB', 'DRAM1', 'RHOF', 'RNF212', 'TGFBR2', 'DOCK5', 'CD44', 'TMEM120B', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'LY6K', 'CAV2', 'NNMT', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'SNW1', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CDT1', 'CTNNAL1', 'CDK6', 'DHRS7', 'MARCKS', 'EPS8', 'HNRNPH1', 'PDLIM5', 'TRAM1', 'AP1M2', 'PHACTR2', 'BZW1', 'UBE2T', 'AKR1C2', 'EBNA1BP2', 'SCD', 'IGFBP3', 'CD24', 'TXNRD1', 'PPA1', 'EIF2S3', 'BTG1', 'PHLDA2', 'CAV1', 'PLPP5', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'BASP1', 'LRRC75A', 'VAMP8', 'PGD', 'LBH', 'SLC16A3', 'B4GALT1', 'FDFT1', 'TDG', 'FOSL1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'TP53I3', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'RAP2B', 'DNAJC12', 'CDK1', 'CKS1B', 'RSL1D1', 'RNF121', 'TMEM92', 'RPL31', 'SERPINE2', 'TGFBI', 'PAK1IP1', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'FOXM1', 'CDA', 'CAPZA1', 'MKI67', 'CCNB1', 'TUBB4B', 'ACTG1', 'PDLIM1', 'GLRX', 'TNNT1', 'ID3', 'ANKRD28', 'TSPYL1', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'LXN', 'KIF3A', 'MKNK2', 'HM13', 'HOXB8', 'DCAF13', 'TSC22D1', 'NCL', 'PFDN2', 'IRF2BP2', 'SLPI', 'MRPL13', 'RPL39', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'ITGA3', 'PTP4A1', 'KRT7', 'AKR1C1', 'IDI1', 'CTSB', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'DKK1', 'ANXA2', 'NPM1', 'HES4', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'INA', 'GINS2', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'UTP18', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'ZFAS1', 'HMGB2', 'CBX6', 'RPS17', 'NEU1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'IFI27L2', 'STC2', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'TCEAL8', 'MMD', 'DDX21', 'CDC42', 'FKBP11', 'MCM3', 'PPP1R14A', 'SPCS2', 'TRIML2', 'S100A11', 'AGR2', 'PLEK2', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'RPL35', 'LDHA', 'GRPEL1', 'CPLX2', 'RBCK1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'MUC3A', 'AP3S1', 'B4GALT4', 'SFR1', 'ANXA1', 'ODC1', 'PTPRF', 'PLAU', 'TOP2A', 'INPP1', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'GMPS', 'KRT81', 'OPTN', 'PHKG1', 'NANS', 'PARD3', 'FGB', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'TRA2A', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'MORC4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'AMIGO2', 'SNRPF', 'ANXA3', 'ASF1A', 'ENO1', 'HERC4', 'EIF1AY', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'GSTO1', 'PTGES3', 'GLA', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ADI1', 'PDLIM7', 'DDB2', 'PCSK1N', 'S100A3', 'SAT1', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'COX7B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TRMT6', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'PAK1IP1', 'ACTG1', 'RPL35', 'MUC5AC', 'ANXA7', 'GPX1', 'ADM', 'ARL6IP1', 'AXL', 'S100A13', 'PROCR', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'RABAC1', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'G0S2', 'EIF2S3', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'FEZ2', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'CCND3', 'INPP1', 'TSPYL1', 'TRIML2', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'FKBP11', 'TRIB3', 'TDG', 'ALG8', 'KRT8', 'CNIH4', 'CEBPB', 'PHLDA2', 'DEGS1', 'LMNA', 'GPX2', 'RBCK1', 'IFI27L2', 'PKM', 'HSPG2', 'CTNNB1', 'EBNA1BP2', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'PGK1', 'INA', 'PHKG1', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'GINS2', 'COTL1', 'CDK6', 'UTP18', 'FABP5', 'TUBB', 'FBXO2', 'RNF121', 'PLEK2', 'LETM1', 'PTRH2', 'NANS', 'SLC12A2', 'CFD', 'SLC16A3', 'ZC3H4', 'TUBA1B', 'TNNT1', 'KRT81', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'RPL26', 'ANKRD28', 'DDX10', 'PRSS3', 'AKAP12', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'PLPP5', 'DKK1', 'EZR', 'RHOF', 'GOLIM4', 'PPP1R14A', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'LY6K', 'TPPP3', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'TYMP', 'CUTC', 'PHACTR2', 'HLA-A', 'IGFBP4', 'NDUFAF4', 'SNW1', 'DUSP1', 'TP53I3', 'PTPRF', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'PDLIM1', 'LBH', 'ANXA2', 'EIF4EBP1', 'TMEM120B', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'PPP1R7', 'RND3', 'MYC', 'MKI67', 'EPS8', 'MGST2', 'CAV2', 'RPS28', 'ASF1A', 'CDKN1A', 'RNF212', 'IDI1', 'BLVRB', 'MCL1', 'RAD51AP1', 'HSPA5', 'PPP1CB', 'TRAM1', 'FDPS', 'ODC1', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'ZFAS1', 'AKR1C2', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'SLC35F6', 'MUC12', 'HNRNPH1', 'TCEAL8', 'LRRC75A', 'CAMK1', 'GCNT2', 'MDM4', 'AKR1C1', 'RPS17', 'B4GALT4', 'HMGB2', 'AGR2', 'DOCK5', 'SFRP1', 'EIF1AY', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'RPL39', 'BZW1', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'MMD', 'GMPS', 'B4GALT1', 'BCL2L1', 'UBE2T', 'FOSL1', 'PRKCA', 'SPP1', 'NEAT1', 'CD63', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'CRIP2', 'ETFB', 'B4GALT5', 'FOXM1', 'MUC3A', 'ACTB', 'CKS1B', 'PSMD1', 'KRT80', 'NPM1', 'SAT1', 'COX14', 'HES4', 'GCHFR', 'HERC4', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'OCIAD2', 'CNN2', 'F12', 'CRELD2', 'RBFOX3', 'ERGIC1', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'LXN', 'GCNT3', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HELLS', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'PDLIM5', 'MRPS30', 'EIF3D', 'LAPTM4A', 'SFR1', 'TNRC6B', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'CDT1', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'CTNNAL1', 'HM13', 'PTTG1', 'RSL1D1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'CBX6', 'EPHX1', 'PSMC4', 'TRA2A', 'TPM1', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'HOXB8', 'FGB', 'CD24', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'MORC4', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'TGFBR2', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'INO80C', 'DNAJC12', 'S100A16', 'IRF2BP2', 'S100A10', 'TRMT6', 'SLC27A2', 'RPF2', 'PA2G4', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'CCT4', 'PRDX1', 'SOX4', 'NNMT', 'ITGA3', 'CLSPN', 'YPEL5', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'C19orf33', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'PHLDA3', 'SMIM14', 'TMPO', 'DDB2', 'FSCN1', 'CCNB1', 'JUNB', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MDM4', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'TPPP3', 'CST3', 'TYMP', 'EIF3D', 'PROCR', 'ACTB', 'SUCLG1', 'JUNB', 'KRT80', 'TM4SF4', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'RBFOX3', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'ALG8', 'IGFBP6', 'ABCG2', 'EMP2', 'SPP1', 'ADAMTS12', 'SFRP1', 'KYNU', 'RPL28', 'CEBPB', 'CFD', 'MTHFD2', 'RND3', 'NEAT1', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'INO80C', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'HELLS', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RAD51AP1', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'C19orf33', 'MRPS30', 'RPS24', 'GOLIM4', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'FEZ2', 'NIP7', 'B2M', 'MUC12', 'SYNGR2', 'RPF2', 'PHLDA3', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'GPX2', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'AXL', 'RIPK2', 'ADM', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'TUBA1B', 'ANP32A', 'GAL', 'GPX1', 'IK', 'CXCL5', 'ALDH7A1', 'OCIAD2', 'SSB', 'DRAM1', 'RHOF', 'RNF212', 'TGFBR2', 'DOCK5', 'CD44', 'C1orf56', 'TMEM120B', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'MDK', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'LY6K', 'CAV2', 'NNMT', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'SNW1', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CDT1', 'LIPH', 'CTNNAL1', 'CD70', 'PMP22', 'DCBLD2', 'CDK6', 'DHRS7', 'MARCKS', 'EPS8', 'HNRNPH1', 'PDLIM5', 'TRAM1', 'AP1M2', 'PHACTR2', 'BZW1', 'UBE2T', 'AKR1C2', 'EBNA1BP2', 'SCD', 'RTN4RL2', 'IGFBP3', 'CD24', 'TXNRD1', 'PPA1', 'EIF2S3', 'BTG1', 'PHLDA2', 'CAV1', 'PLPP5', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CXCL3', 'BASP1', 'LRRC75A', 'VAMP8', 'PGD', 'LBH', 'SLC16A3', 'B4GALT1', 'FDFT1', 'TDG', 'FOSL1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'RSPO3', 'TP53I3', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'SEMA4B', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'PCDH9', 'RAP2B', 'DNAJC12', 'CDK1', 'PBDC1', 'CKS1B', 'RSL1D1', 'RNF121', 'TMEM92', 'RPL31', 'SERPINE2', 'TGFBI', 'PAK1IP1', 'INSL4', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'FOXM1', 'CDA', 'CAPZA1', 'MKI67', 'CCNB1', 'TUBB4B', 'ACTG1', 'PDLIM1', 'GLRX', 'DNAJC22', 'TNNT1', 'TMEM205', 'ID3', 'ANKRD28', 'TSPYL1', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'LXN', 'KIF3A', 'MKNK2', 'HM13', 'HOXB8', 'DCAF13', 'TSC22D1', 'NINJ1', 'NCL', 'PAPPA', 'PFDN2', 'IRF2BP2', 'ATP1B1', 'SLPI', 'MRPL13', 'RPL39', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'ITGA3', 'SLC4A7', 'PTP4A1', 'KRT7', 'AKR1C1', 'IDI1', 'CTSB', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'TNFRSF12A', 'DKK1', 'ANXA2', 'NPM1', 'HES4', 'EVA1C', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'INA', 'CCL2', 'GINS2', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'CKS2', 'UTP18', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'ZFAS1', 'HMGB2', 'CBX6', 'RPS17', 'NEU1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'IFI27L2', 'STC2', 'EFHD2', 'SMIM6', 'PAQR5', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'TCEAL8', 'MMD', 'DDX21', 'CDC42', 'FKBP11', 'MCM3', 'HPCAL1', 'PPP1R14A', 'ANKRD40', 'SPCS2', 'TRIML2', 'S100A11', 'AGR2', 'TFF1', 'PLEK2', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'SLC35F3', 'RPL35', 'LDHA', 'GRPEL1', 'CPLX2', 'RBCK1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'TM4SF1', 'MUC3A', 'AP3S1', 'B4GALT4', 'SFR1', 'ANXA1', 'ODC1', 'PTPRF', 'PLAU', 'TOP2A', 'INPP1', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'TMEM54', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'GMPS', 'KRT81', 'OPTN', 'PHKG1', 'NANS', 'PARD3', 'FGB', 'MMP7', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'TRA2A', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'MORC4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'AMIGO2', 'SNRPF', 'ANXA3', 'ASF1A', 'ENO1', 'HERC4', 'EIF1AY', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'GSTO1', 'PTGES3', 'GLA', 'KCNMA1', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'EMP3', 'MARCKSL1', 'ADI1', 'PDLIM7', 'DDB2', 'PCSK1N', 'S100A3', 'SAT1', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC16A5', 'SLC12A2', 'COX7B', 'UPK1B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TRMT6', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'PAK1IP1', 'ACTG1', 'RPL35', 'MUC5AC', 'ANXA7', 'GPX1', 'ADM', 'ARL6IP1', 'DNAJC22', 'AXL', 'S100A13', 'PROCR', 'ADAMTS12', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'TM4SF1', 'RABAC1', 'CKS2', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'RTN4RL2', 'G0S2', 'EIF2S3', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'PCDH9', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'FEZ2', 'UPK1B', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'CCND3', 'INPP1', 'TSPYL1', 'HPCAL1', 'TRIML2', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'FKBP11', 'TRIB3', 'TDG', 'ALG8', 'KRT8', 'ATP1B1', 'CNIH4', 'CEBPB', 'PHLDA2', 'DEGS1', 'LMNA', 'GPX2', 'RBCK1', 'IFI27L2', 'PKM', 'HSPG2', 'CTNNB1', 'EBNA1BP2', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'PGK1', 'INA', 'PHKG1', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'GINS2', 'COTL1', 'CDK6', 'UTP18', 'FABP5', 'TUBB', 'FBXO2', 'RNF121', 'PLEK2', 'LETM1', 'PTRH2', 'NANS', 'SLC12A2', 'CFD', 'SLC16A3', 'ZC3H4', 'TUBA1B', 'TNNT1', 'KRT81', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'PMP22', 'RPL26', 'ANKRD28', 'DDX10', 'PRSS3', 'AKAP12', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'PLPP5', 'DKK1', 'EZR', 'RHOF', 'GOLIM4', 'PPP1R14A', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCL2', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'LY6K', 'TPPP3', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'TYMP', 'CUTC', 'PHACTR2', 'HLA-A', 'TMEM205', 'IGFBP4', 'NDUFAF4', 'SLC35F3', 'SNW1', 'DUSP1', 'TP53I3', 'PTPRF', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'PDLIM1', 'LBH', 'ANXA2', 'EIF4EBP1', 'TMEM120B', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'DCBLD2', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'C1orf56', 'PPP1R7', 'RND3', 'LIPH', 'MYC', 'MKI67', 'EPS8', 'MGST2', 'CAV2', 'RPS28', 'ASF1A', 'CDKN1A', 'RNF212', 'IDI1', 'BLVRB', 'MCL1', 'RAD51AP1', 'HSPA5', 'PPP1CB', 'MDK', 'TRAM1', 'FDPS', 'ODC1', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'ZFAS1', 'AKR1C2', 'EVA1C', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'TNFRSF12A', 'SLC35F6', 'MUC12', 'HNRNPH1', 'TCEAL8', 'LRRC75A', 'CAMK1', 'GCNT2', 'MDM4', 'AKR1C1', 'RPS17', 'B4GALT4', 'MMP7', 'HMGB2', 'AGR2', 'DOCK5', 'SFRP1', 'EIF1AY', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'RPL39', 'BZW1', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'CXCL5', 'MMD', 'GMPS', 'CD70', 'B4GALT1', 'BCL2L1', 'UBE2T', 'FOSL1', 'SMIM6', 'PRKCA', 'SPP1', 'NINJ1', 'NEAT1', 'CD63', 'PAPPA', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'CRIP2', 'ETFB', 'B4GALT5', 'FOXM1', 'MUC3A', 'ACTB', 'CKS1B', 'PSMD1', 'KRT80', 'NPM1', 'SAT1', 'COX14', 'TM4SF4', 'HES4', 'GCHFR', 'HERC4', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'OCIAD2', 'CNN2', 'F12', 'CRELD2', 'RBFOX3', 'ERGIC1', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'LXN', 'GCNT3', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HELLS', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'PDLIM5', 'SEMA4B', 'MRPS30', 'EIF3D', 'KCNMA1', 'LAPTM4A', 'SFR1', 'TFF1', 'EFHD2', 'TNRC6B', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'CDT1', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'CTNNAL1', 'HM13', 'PTTG1', 'RSL1D1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'CBX6', 'EPHX1', 'PSMC4', 'TRA2A', 'TPM1', 'SLC16A5', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'RSPO3', 'HOXB8', 'FGB', 'CD24', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'MORC4', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'TGFBR2', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'INO80C', 'ANKRD40', 'IGFBP6', 'DNAJC12', 'S100A16', 'IRF2BP2', 'S100A10', 'CXCL3', 'TRMT6', 'PBDC1', 'SLC27A2', 'RPF2', 'PA2G4', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'INSL4', 'CCT4', 'PRDX1', 'SOX4', 'NNMT', 'ITGA3', 'CLSPN', 'EMP3', 'YPEL5', 'TMEM54', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'C19orf33', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'PHLDA3', 'SLC4A7', 'SMIM14', 'TMPO', 'PAQR5', 'DDB2', 'FSCN1', 'CCNB1', 'JUNB', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND', 'IEA'], ['ISS', 'IBA', 'ND', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'ND', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ND', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'ND', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['ND'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'ND', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA', 'IEP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['HDA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'TAS', 'ND', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'ND', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'ND', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'ND', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ND'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['EXP', 'IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['MDM4', 'NFKBIA', 'CST3', 'ACTB', 'RQCD1', 'PCNA', 'EMP2', 'CEBPB', 'RND3', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'YWHAE', 'DUSP1', 'AIMP1', 'GLRX3', 'EZR', 'CCND1', 'SH3KBP1', 'CDKN1A', 'EEF1A1', 'RIPK2', 'APOE', 'TUBA1B', 'RHOF', 'DOCK5', 'HSP90AB1', 'CAV2', 'CKB', 'SNW1', 'CLU', 'RIN2', 'CDT1', 'MARCKS', 'EPS8', 'PDLIM5', 'UBE2T', 'CD24', 'BTG1', 'CAV1', 'COTL1', 'HSPA2', 'TDG', 'PPIB', 'PLAUR', 'HSP90AA1', 'CHP1', 'LGALS3', 'CKS1B', 'TIMP1', 'FOXM1', 'CCNB1', 'ACTG1', 'TSPYL1', 'FN1', 'KIF3A', 'HM13', 'NCL', 'ATP1B1', 'SLPI', 'SLC27A2', 'PA2G4', 'PSMD1', 'PSMA3', 'ITGA3', 'UCHL1', 'DYNLL1', 'ANXA2', 'NPM1', 'BCL2L1', 'HSPD1', 'GCHFR', 'RAB11FIP1', 'CKS2', 'STC2', 'TOR1AIP2', 'CDC42', 'TMSB4X', 'PPP3CA', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'EGR1', 'TOP2A', 'PHKG1', 'SDC4', 'SFN', 'AKAP12', 'EGLN1', 'ATF4', 'HSPA8', 'ENO1', 'KPNA2', 'UBE2C', 'PTGES3', 'LDHB', 'TUBB', 'TRIB3', 'PRKCA', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'RABAC1', 'CYB5A', 'PRMT1', 'XRCC5', 'TOB1']</t>
+          <t>['HSP90AB1', 'ACTG1', 'AIMP1', 'HSPD1', 'APOE', 'RABAC1', 'CKS2', 'PPIB', 'HSPA8', 'TOP2A', 'TMSB4X', 'RQCD1', 'NFKBIA', 'HSPA2', 'MARCKS', 'CCND3', 'TSPYL1', 'TRIB3', 'TDG', 'ATP1B1', 'CEBPB', 'CTNNB1', 'SQSTM1', 'PHKG1', 'COTL1', 'TUBB', 'SLC12A2', 'TUBA1B', 'GLRX3', 'SDC4', 'FN1', 'AKAP12', 'TOB1', 'EZR', 'RHOF', 'TOR1AIP2', 'EMP2', 'CYB5A', 'SNW1', 'DUSP1', 'KPNA2', 'ANXA2', 'PCNA', 'CAV1', 'FGD6', 'YWHAE', 'PPP3CA', 'ENO1', 'PLAUR', 'RND3', 'EPS8', 'CAV2', 'CDKN1A', 'HSPA5', 'PPP1CB', 'SLC2A1', 'EGR1', 'MDM4', 'DOCK5', 'LGALS3', 'HMGA1', 'NCL', 'CKB', 'UBE2C', 'BCL2L1', 'UBE2T', 'PRKCA', 'FOXM1', 'ACTB', 'CKS1B', 'PSMD1', 'NPM1', 'GCHFR', 'TIMP1', 'ATF4', 'HSP90AA1', 'KIF3A', 'PDLIM5', 'CST3', 'SFN', 'UCHL1', 'SLPI', 'CDT1', 'CHP1', 'HM13', 'STC2', 'EGLN1', 'XRCC5', 'PRMT1', 'CD24', 'PSMA3', 'RAB11FIP1', 'LDHB', 'RIN2', 'CLU', 'BIRC5', 'PTGES3', 'SLC27A2', 'PA2G4', 'CCND1', 'ITGA3', 'DYNLL1', 'BTG1', 'HACD3', 'EEF1A1', 'SH3KBP1', 'CCNB1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IEA'], ['IBA'], ['ISS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['ISS', 'IEA'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IBA'], ['IBA'], ['IPI', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA'], ['IBA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IPI'], ['IPI'], ['IPI', 'NAS'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['ISS'], ['IPI'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IBA'], ['IEA'], ['IBA'], ['IDA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['EXP', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IPI'], ['ISS'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA']]</t>
+          <t>[['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IEA'], ['EXP', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IEA'], ['IPI'], ['IPI'], ['IDA'], ['IPI'], ['IBA'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IBA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA'], ['IPI'], ['IPI', 'IBA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IBA'], ['IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['ISS'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IBA'], ['ISS'], ['IPI'], ['IDA'], ['ISS'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IEA'], ['IBA'], ['IDA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IEA'], ['IPI', 'NAS'], ['IDA'], ['IPI'], ['IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI']]</t>
         </is>
       </c>
     </row>
@@ -2325,12 +2325,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MDM4', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'CST3', 'PROCR', 'ACTB', 'SUCLG1', 'JUNB', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'RBFOX3', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'ALG8', 'ABCG2', 'EMP2', 'SPP1', 'SFRP1', 'KYNU', 'RPL28', 'CEBPB', 'CFD', 'MTHFD2', 'RND3', 'NEAT1', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'INO80C', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'HELLS', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RAD51AP1', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'C19orf33', 'MRPS30', 'RPS24', 'GOLIM4', 'TESC', 'GLRX3', 'ARL6IP1', 'NIP7', 'B2M', 'MUC12', 'SYNGR2', 'RPF2', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'ANTXR1', 'CCNB2', 'NQO1', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'AXL', 'RIPK2', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'ANP32A', 'GAL', 'GPX1', 'IK', 'ALDH7A1', 'OCIAD2', 'SSB', 'DRAM1', 'RHOF', 'RNF212', 'CD44', 'TMEM120B', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'LY6K', 'CAV2', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'SNW1', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CDT1', 'CD70', 'CDK6', 'DHRS7', 'MARCKS', 'EPS8', 'HNRNPH1', 'TRAM1', 'AP1M2', 'PHACTR2', 'UBE2T', 'EBNA1BP2', 'SCD', 'RTN4RL2', 'IGFBP3', 'CD24', 'TXNRD1', 'PPA1', 'EIF2S3', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'LBH', 'SLC16A3', 'B4GALT1', 'FDFT1', 'TDG', 'FOSL1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'RAP2B', 'CDK1', 'CKS1B', 'RSL1D1', 'RNF121', 'TMEM92', 'RPL31', 'SERPINE2', 'TGFBI', 'PAK1IP1', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'FOXM1', 'CDA', 'CAPZA1', 'MKI67', 'CCNB1', 'TUBB4B', 'ACTG1', 'GLRX', 'ID3', 'ANKRD28', 'TSPYL1', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'KIF3A', 'MKNK2', 'HM13', 'HOXB8', 'DCAF13', 'TSC22D1', 'NCL', 'PFDN2', 'IRF2BP2', 'ATP1B1', 'SLPI', 'MRPL13', 'RPL39', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'ITGA3', 'PTP4A1', 'KRT7', 'AKR1C1', 'IDI1', 'CTSB', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'DKK1', 'ANXA2', 'NPM1', 'HES4', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'GINS2', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'UTP18', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'ZFAS1', 'HMGB2', 'CBX6', 'RPS17', 'NEU1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'IFI27L2', 'STC2', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'TCEAL8', 'MMD', 'DDX21', 'CDC42', 'FKBP11', 'MCM3', 'SPCS2', 'S100A11', 'AGR2', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'RPL35', 'LDHA', 'GRPEL1', 'CPLX2', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'MUC3A', 'AP3S1', 'B4GALT4', 'SFR1', 'ANXA1', 'PTPRF', 'PLAU', 'TOP2A', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'OPTN', 'NANS', 'FGB', 'MMP7', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'TRA2A', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'MORC4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'AMIGO2', 'SNRPF', 'ANXA3', 'ASF1A', 'ENO1', 'HERC4', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'GSTO1', 'PTGES3', 'GLA', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ADI1', 'PDLIM7', 'DDB2', 'PCSK1N', 'S100A3', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'COX7B', 'UPK1B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TRMT6', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'PAK1IP1', 'ACTG1', 'RPL35', 'MUC5AC', 'ANXA7', 'GPX1', 'ARL6IP1', 'AXL', 'S100A13', 'PROCR', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'RABAC1', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'RTN4RL2', 'G0S2', 'EIF2S3', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'UPK1B', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'CCND3', 'TSPYL1', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'FKBP11', 'TRIB3', 'TDG', 'ALG8', 'KRT8', 'ATP1B1', 'CNIH4', 'CEBPB', 'DEGS1', 'LMNA', 'IFI27L2', 'PKM', 'HSPG2', 'CTNNB1', 'EBNA1BP2', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'PGK1', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'GINS2', 'COTL1', 'CDK6', 'UTP18', 'FABP5', 'TUBB', 'FBXO2', 'RNF121', 'LETM1', 'PTRH2', 'NANS', 'SLC12A2', 'CFD', 'SLC16A3', 'ZC3H4', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'RPL26', 'ANKRD28', 'DDX10', 'PRSS3', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'DKK1', 'EZR', 'RHOF', 'GOLIM4', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'LY6K', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'CUTC', 'PHACTR2', 'HLA-A', 'IGFBP4', 'NDUFAF4', 'SNW1', 'DUSP1', 'PTPRF', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'LBH', 'ANXA2', 'EIF4EBP1', 'TMEM120B', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'PPP1R7', 'RND3', 'MYC', 'MKI67', 'EPS8', 'MGST2', 'CAV2', 'RPS28', 'ASF1A', 'CDKN1A', 'RNF212', 'IDI1', 'BLVRB', 'MCL1', 'RAD51AP1', 'HSPA5', 'PPP1CB', 'TRAM1', 'FDPS', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'ZFAS1', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'SLC35F6', 'MUC12', 'HNRNPH1', 'TCEAL8', 'CAMK1', 'GCNT2', 'MDM4', 'AKR1C1', 'RPS17', 'B4GALT4', 'MMP7', 'HMGB2', 'AGR2', 'SFRP1', 'SLC7A5', 'LGALS3', 'ALDH7A1', 'RAN', 'RPL39', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'MMD', 'CD70', 'B4GALT1', 'BCL2L1', 'UBE2T', 'FOSL1', 'PRKCA', 'SPP1', 'NEAT1', 'CD63', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'ETFB', 'B4GALT5', 'FOXM1', 'MUC3A', 'ACTB', 'CKS1B', 'PSMD1', 'NPM1', 'COX14', 'HES4', 'GCHFR', 'HERC4', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'OCIAD2', 'CNN2', 'F12', 'CRELD2', 'RBFOX3', 'ERGIC1', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'GCNT3', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HELLS', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'MRPS30', 'LAPTM4A', 'SFR1', 'TNRC6B', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'CDT1', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'HM13', 'PTTG1', 'RSL1D1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'CBX6', 'EPHX1', 'PSMC4', 'TRA2A', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'HOXB8', 'FGB', 'CD24', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'MORC4', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'INO80C', 'S100A16', 'IRF2BP2', 'S100A10', 'TRMT6', 'SLC27A2', 'RPF2', 'PA2G4', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'CCT4', 'PRDX1', 'SOX4', 'ITGA3', 'CLSPN', 'YPEL5', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'C19orf33', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'SMIM14', 'TMPO', 'DDB2', 'FSCN1', 'CCNB1', 'JUNB', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['EXP', 'IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IBA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['IBA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IPI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IMP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HTP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IDA'], ['IDA', 'IBA'], ['IBA', 'NAS'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS'], ['IBA'], ['HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['HTP', 'ISS', 'IEA'], ['TAS'], ['HDA', 'IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2391,12 +2391,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MDM4', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'TPPP3', 'CST3', 'PROCR', 'ACTB', 'SUCLG1', 'JUNB', 'KRT80', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'RBFOX3', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'ALG8', 'ABCG2', 'EMP2', 'SPP1', 'SFRP1', 'KYNU', 'RPL28', 'CEBPB', 'CFD', 'MTHFD2', 'RND3', 'NEAT1', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'INO80C', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'HELLS', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RAD51AP1', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'C19orf33', 'MRPS30', 'RPS24', 'GOLIM4', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'NIP7', 'B2M', 'MUC12', 'SYNGR2', 'RPF2', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'GPX2', 'ANTXR1', 'CCNB2', 'NQO1', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'AXL', 'RIPK2', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'TUBA1B', 'ANP32A', 'GAL', 'GPX1', 'IK', 'ALDH7A1', 'OCIAD2', 'SSB', 'DRAM1', 'RHOF', 'RNF212', 'DOCK5', 'CD44', 'TMEM120B', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'LY6K', 'CAV2', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'SNW1', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CDT1', 'CTNNAL1', 'CD70', 'CDK6', 'DHRS7', 'MARCKS', 'EPS8', 'HNRNPH1', 'PDLIM5', 'TRAM1', 'AP1M2', 'PHACTR2', 'UBE2T', 'EBNA1BP2', 'SCD', 'RTN4RL2', 'IGFBP3', 'CD24', 'TXNRD1', 'PPA1', 'EIF2S3', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'LBH', 'SLC16A3', 'B4GALT1', 'FDFT1', 'TDG', 'FOSL1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'SEMA4B', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'RAP2B', 'CDK1', 'CKS1B', 'RSL1D1', 'RNF121', 'TMEM92', 'RPL31', 'SERPINE2', 'TGFBI', 'PAK1IP1', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'FOXM1', 'CDA', 'CAPZA1', 'MKI67', 'CCNB1', 'TUBB4B', 'ACTG1', 'PDLIM1', 'GLRX', 'TNNT1', 'ID3', 'ANKRD28', 'TSPYL1', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'KIF3A', 'MKNK2', 'HM13', 'HOXB8', 'DCAF13', 'TSC22D1', 'NCL', 'PFDN2', 'IRF2BP2', 'ATP1B1', 'SLPI', 'MRPL13', 'RPL39', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'ITGA3', 'SLC4A7', 'PTP4A1', 'KRT7', 'AKR1C1', 'IDI1', 'CTSB', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'DKK1', 'ANXA2', 'NPM1', 'HES4', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'INA', 'GINS2', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'UTP18', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'ZFAS1', 'HMGB2', 'CBX6', 'RPS17', 'NEU1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'IFI27L2', 'STC2', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'TCEAL8', 'MMD', 'DDX21', 'CDC42', 'FKBP11', 'MCM3', 'SPCS2', 'S100A11', 'AGR2', 'PLEK2', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'RPL35', 'LDHA', 'GRPEL1', 'CPLX2', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'MUC3A', 'AP3S1', 'B4GALT4', 'SFR1', 'ANXA1', 'PTPRF', 'PLAU', 'TOP2A', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'KRT81', 'OPTN', 'NANS', 'PARD3', 'FGB', 'MMP7', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'TRA2A', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'MORC4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'AMIGO2', 'SNRPF', 'ANXA3', 'ASF1A', 'ENO1', 'HERC4', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'GSTO1', 'PTGES3', 'GLA', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ADI1', 'PDLIM7', 'DDB2', 'PCSK1N', 'S100A3', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'COX7B', 'UPK1B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TRMT6', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'PAK1IP1', 'ACTG1', 'RPL35', 'MUC5AC', 'ANXA7', 'GPX1', 'ARL6IP1', 'AXL', 'S100A13', 'PROCR', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'RABAC1', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'RTN4RL2', 'G0S2', 'EIF2S3', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'UPK1B', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'CCND3', 'TSPYL1', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'FKBP11', 'TRIB3', 'TDG', 'ALG8', 'KRT8', 'ATP1B1', 'CNIH4', 'CEBPB', 'DEGS1', 'LMNA', 'GPX2', 'IFI27L2', 'PKM', 'HSPG2', 'CTNNB1', 'EBNA1BP2', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'PGK1', 'INA', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'GINS2', 'COTL1', 'CDK6', 'UTP18', 'FABP5', 'TUBB', 'FBXO2', 'RNF121', 'PLEK2', 'LETM1', 'PTRH2', 'NANS', 'SLC12A2', 'CFD', 'SLC16A3', 'ZC3H4', 'TUBA1B', 'TNNT1', 'KRT81', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'RPL26', 'ANKRD28', 'DDX10', 'PRSS3', 'AKAP12', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'DKK1', 'EZR', 'RHOF', 'GOLIM4', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'LY6K', 'TPPP3', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'CUTC', 'PHACTR2', 'HLA-A', 'IGFBP4', 'NDUFAF4', 'SNW1', 'DUSP1', 'PTPRF', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'PDLIM1', 'LBH', 'ANXA2', 'EIF4EBP1', 'TMEM120B', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'PPP1R7', 'RND3', 'MYC', 'MKI67', 'EPS8', 'MGST2', 'CAV2', 'RPS28', 'ASF1A', 'CDKN1A', 'RNF212', 'IDI1', 'BLVRB', 'MCL1', 'RAD51AP1', 'HSPA5', 'PPP1CB', 'TRAM1', 'FDPS', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'ZFAS1', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'SLC35F6', 'MUC12', 'HNRNPH1', 'TCEAL8', 'CAMK1', 'GCNT2', 'MDM4', 'AKR1C1', 'RPS17', 'B4GALT4', 'MMP7', 'HMGB2', 'AGR2', 'DOCK5', 'SFRP1', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'RPL39', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'MMD', 'CD70', 'B4GALT1', 'BCL2L1', 'UBE2T', 'FOSL1', 'PRKCA', 'SPP1', 'NEAT1', 'CD63', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'ETFB', 'B4GALT5', 'FOXM1', 'MUC3A', 'ACTB', 'CKS1B', 'PSMD1', 'KRT80', 'NPM1', 'COX14', 'HES4', 'GCHFR', 'HERC4', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'OCIAD2', 'CNN2', 'F12', 'CRELD2', 'RBFOX3', 'ERGIC1', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'GCNT3', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HELLS', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'PDLIM5', 'SEMA4B', 'MRPS30', 'LAPTM4A', 'SFR1', 'TNRC6B', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'CDT1', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'CTNNAL1', 'HM13', 'PTTG1', 'RSL1D1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'CBX6', 'EPHX1', 'PSMC4', 'TRA2A', 'TPM1', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'HOXB8', 'FGB', 'CD24', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'MORC4', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'INO80C', 'S100A16', 'IRF2BP2', 'S100A10', 'TRMT6', 'SLC27A2', 'RPF2', 'PA2G4', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'CCT4', 'PRDX1', 'SOX4', 'ITGA3', 'CLSPN', 'YPEL5', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'C19orf33', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'SLC4A7', 'SMIM14', 'TMPO', 'DDB2', 'FSCN1', 'CCNB1', 'JUNB', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IBA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IMP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA'], ['HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['HDA', 'IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2457,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['YWHAE', 'SLC3A2', 'RPL34', 'CTTN', 'CAPG', 'NUDC', 'EZR', 'CCNB2', 'TMPO', 'HSP90AB1', 'GPRC5A', 'CTNNAL1', 'PDLIM5', 'BZW1', 'EIF2S3', 'PKM', 'RSL1D1', 'KRT18', 'CAPZA1', 'PDLIM1', 'ANXA2', 'EFHD2', 'S100A11', 'LDHA', 'CTNNB1', 'HSPA5', 'RAN', 'ANXA1', 'TAGLN2', 'PRDX1', 'CNN2', 'FSCN1', 'SFN', 'HSPA8', 'ENO1']</t>
+          <t>['HSP90AB1', 'NUDC', 'HSPA8', 'EIF2S3', 'PKM', 'CTNNB1', 'S100A11', 'EZR', 'CCNB2', 'SLC3A2', 'TAGLN2', 'KRT18', 'GPRC5A', 'PDLIM1', 'ANXA2', 'RPL34', 'YWHAE', 'ENO1', 'HSPA5', 'RAN', 'BZW1', 'CNN2', 'CAPG', 'LDHA', 'CTTN', 'PDLIM5', 'EFHD2', 'SFN', 'CAPZA1', 'CTNNAL1', 'RSL1D1', 'ANXA1', 'PRDX1', 'TMPO', 'FSCN1']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MDM4', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'TPPP3', 'CST3', 'TYMP', 'EIF3D', 'PROCR', 'ACTB', 'SUCLG1', 'JUNB', 'KRT80', 'TM4SF4', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'RBFOX3', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'ALG8', 'IGFBP6', 'ABCG2', 'EMP2', 'SPP1', 'ADAMTS12', 'SFRP1', 'KYNU', 'RPL28', 'CEBPB', 'CFD', 'MTHFD2', 'RND3', 'NEAT1', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'INO80C', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'HELLS', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RAD51AP1', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'C19orf33', 'MRPS30', 'RPS24', 'GOLIM4', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'FEZ2', 'NIP7', 'B2M', 'MUC12', 'SYNGR2', 'RPF2', 'PHLDA3', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'GPX2', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'AXL', 'RIPK2', 'ADM', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'TUBA1B', 'ANP32A', 'GAL', 'GPX1', 'IK', 'CXCL5', 'ALDH7A1', 'OCIAD2', 'SSB', 'DRAM1', 'RHOF', 'RNF212', 'TGFBR2', 'DOCK5', 'CD44', 'C1orf56', 'TMEM120B', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'MDK', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'LY6K', 'CAV2', 'NNMT', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'SNW1', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CDT1', 'LIPH', 'CTNNAL1', 'CD70', 'PMP22', 'DCBLD2', 'CDK6', 'DHRS7', 'MARCKS', 'EPS8', 'HNRNPH1', 'PDLIM5', 'TRAM1', 'AP1M2', 'PHACTR2', 'BZW1', 'UBE2T', 'AKR1C2', 'EBNA1BP2', 'SCD', 'RTN4RL2', 'IGFBP3', 'CD24', 'TXNRD1', 'PPA1', 'EIF2S3', 'BTG1', 'PHLDA2', 'CAV1', 'PLPP5', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CXCL3', 'BASP1', 'LRRC75A', 'VAMP8', 'PGD', 'LBH', 'SLC16A3', 'B4GALT1', 'FDFT1', 'TDG', 'FOSL1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'RSPO3', 'TP53I3', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'SEMA4B', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'PCDH9', 'RAP2B', 'DNAJC12', 'CDK1', 'CKS1B', 'RSL1D1', 'RNF121', 'TMEM92', 'RPL31', 'SERPINE2', 'TGFBI', 'PAK1IP1', 'INSL4', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'FOXM1', 'CDA', 'CAPZA1', 'MKI67', 'CCNB1', 'TUBB4B', 'ACTG1', 'PDLIM1', 'GLRX', 'DNAJC22', 'TNNT1', 'TMEM205', 'ID3', 'ANKRD28', 'TSPYL1', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'LXN', 'KIF3A', 'MKNK2', 'HM13', 'HOXB8', 'DCAF13', 'TSC22D1', 'NINJ1', 'NCL', 'PAPPA', 'PFDN2', 'IRF2BP2', 'ATP1B1', 'SLPI', 'MRPL13', 'RPL39', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'ITGA3', 'SLC4A7', 'PTP4A1', 'KRT7', 'AKR1C1', 'IDI1', 'CTSB', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'TNFRSF12A', 'DKK1', 'ANXA2', 'NPM1', 'HES4', 'EVA1C', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'INA', 'CCL2', 'GINS2', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'UTP18', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'ZFAS1', 'HMGB2', 'CBX6', 'RPS17', 'NEU1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'IFI27L2', 'STC2', 'EFHD2', 'SMIM6', 'PAQR5', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'TCEAL8', 'MMD', 'DDX21', 'CDC42', 'FKBP11', 'MCM3', 'HPCAL1', 'PPP1R14A', 'SPCS2', 'TRIML2', 'S100A11', 'AGR2', 'TFF1', 'PLEK2', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'SLC35F3', 'RPL35', 'LDHA', 'GRPEL1', 'CPLX2', 'RBCK1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'TM4SF1', 'MUC3A', 'AP3S1', 'B4GALT4', 'SFR1', 'ANXA1', 'ODC1', 'PTPRF', 'PLAU', 'TOP2A', 'INPP1', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'TMEM54', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'GMPS', 'KRT81', 'OPTN', 'PHKG1', 'NANS', 'PARD3', 'FGB', 'MMP7', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'TRA2A', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'MORC4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'AMIGO2', 'SNRPF', 'ANXA3', 'ASF1A', 'ENO1', 'HERC4', 'EIF1AY', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'GSTO1', 'PTGES3', 'GLA', 'KCNMA1', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'EMP3', 'MARCKSL1', 'ADI1', 'PDLIM7', 'DDB2', 'PCSK1N', 'S100A3', 'SAT1', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC16A5', 'SLC12A2', 'COX7B', 'UPK1B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TRMT6', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'PAK1IP1', 'ACTG1', 'RPL35', 'MUC5AC', 'ANXA7', 'GPX1', 'ADM', 'ARL6IP1', 'DNAJC22', 'AXL', 'S100A13', 'PROCR', 'ADAMTS12', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'TM4SF1', 'RABAC1', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'RTN4RL2', 'G0S2', 'EIF2S3', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'PCDH9', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'FEZ2', 'UPK1B', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'CCND3', 'INPP1', 'TSPYL1', 'HPCAL1', 'TRIML2', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'FKBP11', 'TRIB3', 'TDG', 'ALG8', 'KRT8', 'ATP1B1', 'CNIH4', 'CEBPB', 'PHLDA2', 'DEGS1', 'LMNA', 'GPX2', 'RBCK1', 'IFI27L2', 'PKM', 'HSPG2', 'CTNNB1', 'EBNA1BP2', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'PGK1', 'INA', 'PHKG1', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'GINS2', 'COTL1', 'CDK6', 'UTP18', 'FABP5', 'TUBB', 'FBXO2', 'RNF121', 'PLEK2', 'LETM1', 'PTRH2', 'NANS', 'SLC12A2', 'CFD', 'SLC16A3', 'ZC3H4', 'TUBA1B', 'TNNT1', 'KRT81', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'PMP22', 'RPL26', 'ANKRD28', 'DDX10', 'PRSS3', 'AKAP12', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'PLPP5', 'DKK1', 'EZR', 'RHOF', 'GOLIM4', 'PPP1R14A', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCL2', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'LY6K', 'TPPP3', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'TYMP', 'CUTC', 'PHACTR2', 'HLA-A', 'TMEM205', 'IGFBP4', 'NDUFAF4', 'SLC35F3', 'SNW1', 'DUSP1', 'TP53I3', 'PTPRF', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'PDLIM1', 'LBH', 'ANXA2', 'EIF4EBP1', 'TMEM120B', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'DCBLD2', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'C1orf56', 'PPP1R7', 'RND3', 'LIPH', 'MYC', 'MKI67', 'EPS8', 'MGST2', 'CAV2', 'RPS28', 'ASF1A', 'CDKN1A', 'RNF212', 'IDI1', 'BLVRB', 'MCL1', 'RAD51AP1', 'HSPA5', 'PPP1CB', 'MDK', 'TRAM1', 'FDPS', 'ODC1', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'ZFAS1', 'AKR1C2', 'EVA1C', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'TNFRSF12A', 'SLC35F6', 'MUC12', 'HNRNPH1', 'TCEAL8', 'LRRC75A', 'CAMK1', 'GCNT2', 'MDM4', 'AKR1C1', 'RPS17', 'B4GALT4', 'MMP7', 'HMGB2', 'AGR2', 'DOCK5', 'SFRP1', 'EIF1AY', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'RPL39', 'BZW1', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'CXCL5', 'MMD', 'GMPS', 'CD70', 'B4GALT1', 'BCL2L1', 'UBE2T', 'FOSL1', 'SMIM6', 'PRKCA', 'SPP1', 'NINJ1', 'NEAT1', 'CD63', 'PAPPA', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'CRIP2', 'ETFB', 'B4GALT5', 'FOXM1', 'MUC3A', 'ACTB', 'CKS1B', 'PSMD1', 'KRT80', 'NPM1', 'SAT1', 'COX14', 'TM4SF4', 'HES4', 'GCHFR', 'HERC4', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'OCIAD2', 'CNN2', 'F12', 'CRELD2', 'RBFOX3', 'ERGIC1', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'LXN', 'GCNT3', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HELLS', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'PDLIM5', 'SEMA4B', 'MRPS30', 'EIF3D', 'KCNMA1', 'LAPTM4A', 'SFR1', 'TFF1', 'EFHD2', 'TNRC6B', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'CDT1', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'CTNNAL1', 'HM13', 'PTTG1', 'RSL1D1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'CBX6', 'EPHX1', 'PSMC4', 'TRA2A', 'TPM1', 'SLC16A5', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'RSPO3', 'HOXB8', 'FGB', 'CD24', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'MORC4', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'TGFBR2', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'INO80C', 'IGFBP6', 'DNAJC12', 'S100A16', 'IRF2BP2', 'S100A10', 'CXCL3', 'TRMT6', 'SLC27A2', 'RPF2', 'PA2G4', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'INSL4', 'CCT4', 'PRDX1', 'SOX4', 'NNMT', 'ITGA3', 'CLSPN', 'EMP3', 'YPEL5', 'TMEM54', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'C19orf33', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'PHLDA3', 'SLC4A7', 'SMIM14', 'TMPO', 'PAQR5', 'DDB2', 'FSCN1', 'CCNB1', 'JUNB', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA', 'IEP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['HDA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2589,12 +2589,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MDM4', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'TPPP3', 'CST3', 'PROCR', 'ACTB', 'SUCLG1', 'JUNB', 'KRT80', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'RBFOX3', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'ALG8', 'ABCG2', 'EMP2', 'SPP1', 'KYNU', 'RPL28', 'CEBPB', 'CFD', 'MTHFD2', 'RND3', 'NEAT1', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'INO80C', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'HELLS', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RAD51AP1', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'C19orf33', 'MRPS30', 'RPS24', 'GOLIM4', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'NIP7', 'B2M', 'MUC12', 'SYNGR2', 'RPF2', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'GPX2', 'ANTXR1', 'CCNB2', 'NQO1', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'AXL', 'RIPK2', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'TUBA1B', 'ANP32A', 'GAL', 'GPX1', 'IK', 'ALDH7A1', 'OCIAD2', 'SSB', 'DRAM1', 'RHOF', 'RNF212', 'DOCK5', 'CD44', 'TMEM120B', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'LY6K', 'CAV2', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'SNW1', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CDT1', 'CTNNAL1', 'CDK6', 'DHRS7', 'MARCKS', 'HNRNPH1', 'PDLIM5', 'TRAM1', 'AP1M2', 'PHACTR2', 'UBE2T', 'EBNA1BP2', 'SCD', 'IGFBP3', 'CD24', 'TXNRD1', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'BASP1', 'VAMP8', 'PGD', 'LBH', 'SLC16A3', 'B4GALT1', 'FDFT1', 'TDG', 'FOSL1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'CHP1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'RAP2B', 'CDK1', 'CKS1B', 'RSL1D1', 'RNF121', 'TMEM92', 'RPL31', 'SERPINE2', 'TGFBI', 'PAK1IP1', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'FOXM1', 'CDA', 'CAPZA1', 'MKI67', 'CCNB1', 'TUBB4B', 'ACTG1', 'PDLIM1', 'GLRX', 'TNNT1', 'ID3', 'ANKRD28', 'TSPYL1', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'KIF3A', 'MKNK2', 'HM13', 'HOXB8', 'DCAF13', 'TSC22D1', 'NCL', 'PFDN2', 'IRF2BP2', 'SLPI', 'MRPL13', 'RPL39', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'PTP4A1', 'KRT7', 'IDI1', 'CTSB', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'DKK1', 'ANXA2', 'NPM1', 'HES4', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'INA', 'GINS2', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'UTP18', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'ZFAS1', 'HMGB2', 'CBX6', 'RPS17', 'NEU1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'IFI27L2', 'STC2', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'TCEAL8', 'MMD', 'DDX21', 'CDC42', 'FKBP11', 'MCM3', 'SPCS2', 'S100A11', 'AGR2', 'PLEK2', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'RPL35', 'LDHA', 'GRPEL1', 'CPLX2', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'MUC3A', 'AP3S1', 'B4GALT4', 'SFR1', 'ANXA1', 'PLAU', 'TOP2A', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'GCNT3', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'KRT81', 'OPTN', 'PARD3', 'FGB', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'TRA2A', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'MORC4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'AMIGO2', 'SNRPF', 'ANXA3', 'ASF1A', 'ENO1', 'HERC4', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'PTGES3', 'GLA', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'LGALS1', 'MARCKSL1', 'ADI1', 'PDLIM7', 'DDB2', 'PCSK1N', 'S100A3', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC12A2', 'COX7B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TRMT6', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'PAK1IP1', 'ACTG1', 'RPL35', 'MUC5AC', 'ANXA7', 'GPX1', 'ARL6IP1', 'AXL', 'S100A13', 'PROCR', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'RABAC1', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'G0S2', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'MARCKS', 'CCND3', 'TSPYL1', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'FKBP11', 'TRIB3', 'TDG', 'ALG8', 'KRT8', 'CNIH4', 'CEBPB', 'DEGS1', 'LMNA', 'GPX2', 'IFI27L2', 'PKM', 'HSPG2', 'CTNNB1', 'EBNA1BP2', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'INA', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'GINS2', 'COTL1', 'CDK6', 'UTP18', 'FABP5', 'TUBB', 'FBXO2', 'RNF121', 'PLEK2', 'LETM1', 'PTRH2', 'SLC12A2', 'CFD', 'SLC16A3', 'ZC3H4', 'TUBA1B', 'TNNT1', 'KRT81', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'RPL26', 'ANKRD28', 'DDX10', 'PRSS3', 'AKAP12', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'DKK1', 'EZR', 'RHOF', 'GOLIM4', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'LY6K', 'TPPP3', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'CUTC', 'PHACTR2', 'HLA-A', 'IGFBP4', 'NDUFAF4', 'SNW1', 'DUSP1', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'PDLIM1', 'LBH', 'ANXA2', 'EIF4EBP1', 'TMEM120B', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'PPP1R7', 'RND3', 'MYC', 'MKI67', 'MGST2', 'CAV2', 'RPS28', 'ASF1A', 'CDKN1A', 'RNF212', 'IDI1', 'BLVRB', 'MCL1', 'RAD51AP1', 'HSPA5', 'PPP1CB', 'TRAM1', 'FDPS', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'ZFAS1', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'SLC35F6', 'MUC12', 'HNRNPH1', 'TCEAL8', 'CAMK1', 'GCNT2', 'MDM4', 'RPS17', 'B4GALT4', 'HMGB2', 'AGR2', 'DOCK5', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'RPL39', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'MMD', 'B4GALT1', 'BCL2L1', 'UBE2T', 'FOSL1', 'PRKCA', 'SPP1', 'NEAT1', 'CD63', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'ETFB', 'B4GALT5', 'FOXM1', 'MUC3A', 'ACTB', 'CKS1B', 'PSMD1', 'KRT80', 'NPM1', 'COX14', 'HES4', 'GCHFR', 'HERC4', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'OCIAD2', 'CNN2', 'F12', 'CRELD2', 'RBFOX3', 'ERGIC1', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'GCNT3', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HELLS', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'PDLIM5', 'MRPS30', 'LAPTM4A', 'SFR1', 'TNRC6B', 'AMOTL2', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'CDT1', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'CTNNAL1', 'HM13', 'PTTG1', 'RSL1D1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'CBX6', 'EPHX1', 'PSMC4', 'TRA2A', 'TPM1', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'HOXB8', 'FGB', 'CD24', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'MORC4', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'INO80C', 'S100A16', 'IRF2BP2', 'S100A10', 'TRMT6', 'SLC27A2', 'RPF2', 'PA2G4', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'CCT4', 'PRDX1', 'SOX4', 'CLSPN', 'YPEL5', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'C19orf33', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'SMIM14', 'TMPO', 'DDB2', 'FSCN1', 'CCNB1', 'JUNB', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IC', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MDM4', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'TPPP3', 'CST3', 'TYMP', 'EIF3D', 'PROCR', 'ACTB', 'SUCLG1', 'JUNB', 'KRT80', 'TM4SF4', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'ALG8', 'IGFBP6', 'ABCG2', 'EMP2', 'SPP1', 'ADAMTS12', 'SFRP1', 'KYNU', 'RPL28', 'CEBPB', 'MTHFD2', 'RND3', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'INO80C', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'HELLS', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RAD51AP1', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'RPS24', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'FEZ2', 'NIP7', 'B2M', 'SYNGR2', 'RPF2', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'AXL', 'RIPK2', 'ADM', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'TUBA1B', 'ANP32A', 'GAL', 'GPX1', 'IK', 'CXCL5', 'ALDH7A1', 'SSB', 'DRAM1', 'RHOF', 'TGFBR2', 'DOCK5', 'CD44', 'C1orf56', 'TMEM120B', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'MDK', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'CAV2', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'SNW1', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CDT1', 'LIPH', 'CTNNAL1', 'CD70', 'PMP22', 'DCBLD2', 'CDK6', 'DHRS7', 'MARCKS', 'EPS8', 'HNRNPH1', 'PDLIM5', 'TRAM1', 'AP1M2', 'PHACTR2', 'BZW1', 'UBE2T', 'EBNA1BP2', 'SCD', 'RTN4RL2', 'IGFBP3', 'CD24', 'TXNRD1', 'EIF2S3', 'BTG1', 'PHLDA2', 'CAV1', 'PLPP5', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CXCL3', 'BASP1', 'VAMP8', 'LBH', 'SLC16A3', 'B4GALT1', 'C16orf74', 'FDFT1', 'TDG', 'FOSL1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'RSPO3', 'TP53I3', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'SEMA4B', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'RAP2B', 'DNAJC12', 'CDK1', 'PBDC1', 'CKS1B', 'RSL1D1', 'TMEM92', 'RPL31', 'SERPINE2', 'TGFBI', 'PAK1IP1', 'INSL4', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'FOXM1', 'CDA', 'CAPZA1', 'MKI67', 'CCNB1', 'TUBB4B', 'ACTG1', 'PDLIM1', 'GLRX', 'DNAJC22', 'TNNT1', 'TMEM205', 'ID3', 'ANKRD28', 'TSPYL1', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'LXN', 'KIF3A', 'MKNK2', 'HM13', 'DCAF13', 'TSC22D1', 'NINJ1', 'NCL', 'PAPPA', 'PFDN2', 'ATP1B1', 'SLPI', 'MRPL13', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'ITGA3', 'SLC4A7', 'PTP4A1', 'KRT7', 'AKR1C1', 'IDI1', 'CTSB', 'UCHL1', 'DYNLL1', 'TNFRSF12A', 'DKK1', 'ANXA2', 'NPM1', 'HES4', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'INA', 'CCL2', 'GINS2', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'CKS2', 'UTP18', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'HMGB2', 'CBX6', 'NEU1', 'DDX10', 'SET', 'RAI14', 'BLVRB', 'STC2', 'EFHD2', 'PAQR5', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'TCEAL8', 'MMD', 'DDX21', 'CDC42', 'MCM3', 'HPCAL1', 'ANKRD40', 'SPCS2', 'TRIML2', 'S100A11', 'AGR2', 'TFF1', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'LDHA', 'GRPEL1', 'CPLX2', 'RBCK1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'TM4SF1', 'AP3S1', 'B4GALT4', 'SFR1', 'ANXA1', 'ODC1', 'PTPRF', 'PLAU', 'TOP2A', 'INPP1', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'TMEM54', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'KRT81', 'OPTN', 'PHKG1', 'PARD3', 'FGB', 'MMP7', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'TRA2A', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'MORC4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'AMIGO2', 'SNRPF', 'ANXA3', 'ASF1A', 'ENO1', 'EIF1AY', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'GSTO1', 'PTGES3', 'GLA', 'KCNMA1', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'EMP3', 'MARCKSL1', 'ADI1', 'PDLIM7', 'DDB2', 'PCSK1N', 'S100A3', 'SAT1', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC16A5', 'SLC12A2', 'COX7B', 'UPK1B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TRMT6', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'PAK1IP1', 'ACTG1', 'MUC5AC', 'ANXA7', 'GPX1', 'ADM', 'ARL6IP1', 'DNAJC22', 'AXL', 'S100A13', 'PROCR', 'ADAMTS12', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'TM4SF1', 'RABAC1', 'CKS2', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'RTN4RL2', 'G0S2', 'EIF2S3', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'FEZ2', 'UPK1B', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'CCND3', 'INPP1', 'TSPYL1', 'HPCAL1', 'TRIML2', 'RPL37A', 'DDIT4', 'KMT5A', 'TRIB3', 'TDG', 'ALG8', 'KRT8', 'ATP1B1', 'CNIH4', 'CEBPB', 'PHLDA2', 'DEGS1', 'LMNA', 'RBCK1', 'PKM', 'HSPG2', 'CTNNB1', 'EBNA1BP2', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'PGK1', 'INA', 'PHKG1', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'GINS2', 'COTL1', 'CDK6', 'UTP18', 'FABP5', 'TUBB', 'FBXO2', 'LETM1', 'PTRH2', 'SLC12A2', 'SLC16A3', 'ZC3H4', 'TUBA1B', 'TNNT1', 'KRT81', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'PMP22', 'RPL26', 'ANKRD28', 'DDX10', 'PRSS3', 'AKAP12', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'PLPP5', 'DKK1', 'EZR', 'RHOF', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCL2', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'TPPP3', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'CYB5A', 'TAGLN2', 'KRT18', 'TYMP', 'CUTC', 'PHACTR2', 'HLA-A', 'TMEM205', 'IGFBP4', 'NDUFAF4', 'SNW1', 'DUSP1', 'TP53I3', 'PTPRF', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'PDLIM1', 'LBH', 'ANXA2', 'EIF4EBP1', 'TMEM120B', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'DCBLD2', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'C1orf56', 'PPP1R7', 'RND3', 'LIPH', 'MYC', 'MKI67', 'EPS8', 'MGST2', 'CAV2', 'RPS28', 'ASF1A', 'CDKN1A', 'IDI1', 'BLVRB', 'MCL1', 'RAD51AP1', 'HSPA5', 'PPP1CB', 'MDK', 'TRAM1', 'FDPS', 'ODC1', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'TNFRSF12A', 'SLC35F6', 'HNRNPH1', 'TCEAL8', 'CAMK1', 'GCNT2', 'MDM4', 'AKR1C1', 'B4GALT4', 'MMP7', 'HMGB2', 'AGR2', 'DOCK5', 'SFRP1', 'EIF1AY', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'BZW1', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'CXCL5', 'MMD', 'CD70', 'B4GALT1', 'BCL2L1', 'UBE2T', 'FOSL1', 'PRKCA', 'SPP1', 'NINJ1', 'CD63', 'PAPPA', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'CRIP2', 'ETFB', 'B4GALT5', 'FOXM1', 'ACTB', 'CKS1B', 'PSMD1', 'KRT80', 'NPM1', 'SAT1', 'COX14', 'TM4SF4', 'HES4', 'GCHFR', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'CNN2', 'F12', 'CRELD2', 'ERGIC1', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'LXN', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HELLS', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'PDLIM5', 'SEMA4B', 'EIF3D', 'KCNMA1', 'LAPTM4A', 'SFR1', 'TFF1', 'EFHD2', 'TNRC6B', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'CDT1', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'CTNNAL1', 'HM13', 'PTTG1', 'RSL1D1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'KRT7', 'EGLN1', 'CBX6', 'EPHX1', 'PSMC4', 'TRA2A', 'TPM1', 'SLC16A5', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'RSPO3', 'FGB', 'CD24', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'MORC4', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'TGFBR2', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'INO80C', 'ANKRD40', 'IGFBP6', 'C16orf74', 'DNAJC12', 'S100A16', 'S100A10', 'CXCL3', 'TRMT6', 'PBDC1', 'SLC27A2', 'RPF2', 'PA2G4', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'INSL4', 'CCT4', 'PRDX1', 'SOX4', 'ITGA3', 'CLSPN', 'EMP3', 'YPEL5', 'TMEM54', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'SLC4A7', 'SMIM14', 'TMPO', 'PAQR5', 'DDB2', 'FSCN1', 'CCNB1', 'JUNB', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'NAS'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI', 'ISS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'TAS'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'HDA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['ISS'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'HDA', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'HDA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IC', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'TAS'], ['IPI'], ['IPI', 'HDA', 'TAS'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA'], ['IBA'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'HDA'], ['IPI', 'NAS'], ['IPI'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ISS', 'TAS'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'TAS', 'NAS'], ['IDA', 'IPI', 'IBA'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IC'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IC', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IGI', 'ISS', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IEA'], ['HDA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IMP'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'ISS'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'ISS'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'HDA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['TAS'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI']]</t>
+          <t>[['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IC', 'IEA'], ['IPI'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'HDA', 'IBA'], ['IPI', 'ISS', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'HDA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IMP'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA'], ['IPI', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IC', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'HDA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA'], ['IPI'], ['TAS'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'TAS'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IGI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'NAS'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IC'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['HDA'], ['IPI'], ['IPI', 'ISS'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI'], ['IDA', 'IEA'], ['IPI', 'ISS'], ['IPI'], ['IPI'], ['IPI', 'ISS'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'TAS', 'NAS'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IBA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'TAS'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['ISS'], ['IPI', 'NAS'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'TAS'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI']]</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MDM4', 'TOMM7', 'NFKBIA', 'B4GALT5', 'MAGED2', 'TPPP3', 'CST3', 'TYMP', 'EIF3D', 'PROCR', 'ACTB', 'SUCLG1', 'JUNB', 'KRT80', 'TM4SF4', 'RPS15A', 'EIF4EBP1', 'RQCD1', 'NT5E', 'RBFOX3', 'ALDH3A1', 'UQCRB', 'CD63', 'CCDC85B', 'LGALS3BP', 'PCNA', 'AKR1B10', 'RPL37A', 'ALG8', 'IGFBP6', 'ABCG2', 'EMP2', 'SPP1', 'ADAMTS12', 'SFRP1', 'KYNU', 'RPL28', 'CEBPB', 'MTHFD2', 'RND3', 'FGD6', 'SQSTM1', 'CCND3', 'BIRC5', 'PSMC2', 'INO80C', 'CUTC', 'LMNA', 'YWHAE', 'ANXA5', 'HELLS', 'SLC3A2', 'RPL34', 'EXOSC9', 'CTSL', 'CTTN', 'RAD51AP1', 'DUSP1', 'PDHA1', 'CES1', 'COX17', 'AIMP1', 'RPL27', 'CAPG', 'TUBA1C', 'DEGS1', 'MRPS30', 'RPS24', 'TPM1', 'TESC', 'GLRX3', 'ARL6IP1', 'FEZ2', 'NIP7', 'B2M', 'SYNGR2', 'RPF2', 'PHLDA3', 'TUBA1A', 'S100A10', 'NUDC', 'UBE2S', 'FDPS', 'EZR', 'ANXA4', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'LETM1', 'S100A4', 'EPHX1', 'CCND1', 'ALDH1A1', 'SULT2B1', 'NTS', 'SH3KBP1', 'CDKN1A', 'COL5A2', 'MYL6', 'TNRC6B', 'EEF1A1', 'AXL', 'RIPK2', 'ADM', 'MYL12A', 'IGFBP7', 'APOE', 'HLA-A', 'TUBA1B', 'ANP32A', 'GAL', 'GPX1', 'IK', 'CXCL5', 'ALDH7A1', 'SSB', 'DRAM1', 'RHOF', 'RNF212', 'TGFBR2', 'DOCK5', 'CD44', 'C1orf56', 'TMEM120B', 'TM4SF20', 'YARS', 'CRELD2', 'TMPO', 'MDK', 'SOX4', 'HSP90AB1', 'NUP37', 'MGST3', 'CAV2', 'CKB', 'HSPE1', 'S100A6', 'SMAGP', 'SNW1', 'GPRC5A', 'RPS18', 'CLU', 'RIN2', 'CDCA4', 'CDT1', 'LIPH', 'CTNNAL1', 'CD70', 'PMP22', 'DCBLD2', 'CDK6', 'DHRS7', 'MARCKS', 'EPS8', 'HNRNPH1', 'PDLIM5', 'TRAM1', 'AP1M2', 'PHACTR2', 'BZW1', 'UBE2T', 'AKR1C2', 'EBNA1BP2', 'SCD', 'RTN4RL2', 'IGFBP3', 'CD24', 'TXNRD1', 'PPA1', 'EIF2S3', 'BTG1', 'PHLDA2', 'CAV1', 'PLPP5', 'COTL1', 'S100A13', 'KRT19', 'HSPA2', 'CXCL3', 'BASP1', 'VAMP8', 'PGD', 'LBH', 'SLC16A3', 'B4GALT1', 'C16orf74', 'FDFT1', 'TDG', 'FOSL1', 'MGST2', 'COX14', 'RPS28', 'KRT8', 'RSPO3', 'TP53I3', 'PPIB', 'ZC3H4', 'KMT5A', 'PLAUR', 'HSP90AA1', 'PSAT1', 'CHP1', 'SEMA4B', 'PGK1', 'PKM', 'YPEL5', 'HSPG2', 'FBXO2', 'LGALS3', 'CENPA', 'PCDH9', 'RAP2B', 'DNAJC12', 'CDK1', 'PBDC1', 'CKS1B', 'RSL1D1', 'RNF121', 'TMEM92', 'RPL31', 'SERPINE2', 'TGFBI', 'PAK1IP1', 'INSL4', 'FGFR1', 'ARPC3', 'S100A16', 'KRT18', 'TIMP1', 'FOXM1', 'CDA', 'CAPZA1', 'MKI67', 'CCNB1', 'TUBB4B', 'ACTG1', 'PDLIM1', 'GLRX', 'DNAJC22', 'TNNT1', 'TMEM205', 'ID3', 'ANKRD28', 'TSPYL1', 'CCT4', 'ELF3', 'ANXA7', 'PHLDA1', 'RPL41', 'FN1', 'LXN', 'KIF3A', 'MKNK2', 'HM13', 'HOXB8', 'DCAF13', 'TSC22D1', 'NINJ1', 'NCL', 'PAPPA', 'PFDN2', 'IRF2BP2', 'ATP1B1', 'SLPI', 'MRPL13', 'RPL39', 'SLC27A2', 'PA2G4', 'CLSPN', 'PSMD1', 'PSMA3', 'ITGA3', 'SLC4A7', 'PTP4A1', 'KRT7', 'AKR1C1', 'IDI1', 'CTSB', 'RPS29', 'UCHL1', 'DYNLL1', 'NT5DC3', 'TNFRSF12A', 'DKK1', 'ANXA2', 'NPM1', 'HES4', 'EVA1C', 'BCL2L1', 'NDUFAF4', 'F12', 'MYL12B', 'PRSS3', 'PKMYT1', 'HSPD1', 'DDIT4', 'ZFP36L1', 'MYC', 'GCHFR', 'INA', 'CCL2', 'GINS2', 'LAPTM4A', 'TXN', 'HMGB3', 'RAB11FIP1', 'GCNT2', 'CKS2', 'UTP18', 'RPS27L', 'EMC7', 'RRS1', 'VIM', 'EIF6', 'HMGB2', 'CBX6', 'RPS17', 'NEU1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'BLVRB', 'STC2', 'EFHD2', 'PAQR5', 'TOR1AIP2', 'KNSTRN', 'MT2A', 'TCEAL8', 'MMD', 'DDX21', 'CDC42', 'MCM3', 'HPCAL1', 'ANKRD40', 'SPCS2', 'TRIML2', 'S100A11', 'AGR2', 'TFF1', 'PLEK2', 'TMSB4X', 'OAS1', 'PPP3CA', 'PIR', 'ECH1', 'RPL35', 'LDHA', 'GRPEL1', 'CPLX2', 'RBCK1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'RAN', 'CCT5', 'DDX39A', 'IGFBP4', 'ETFB', 'EGR1', 'TM4SF1', 'AP3S1', 'B4GALT4', 'SFR1', 'ANXA1', 'ODC1', 'PTPRF', 'PLAU', 'TOP2A', 'INPP1', 'ERGIC1', 'EIF4A1', 'KIF23', 'TAGLN2', 'PSMD14', 'TMEM54', 'PTPRS', 'PRDX1', 'PSMC4', 'UMPS', 'RPL26', 'GMPS', 'KRT81', 'OPTN', 'PHKG1', 'PARD3', 'FGB', 'MMP7', 'CNN2', 'FSCN1', 'SDC4', 'CNIH4', 'ARL1', 'MCL1', 'HEXA', 'TRA2A', 'GTPBP4', 'PPP1R7', 'SFN', 'MUC5AC', 'APOBEC3C', 'AKAP12', 'FABP5', 'SLC7A5', 'EGLN1', 'LITAF', 'AKR1B1', 'ATF4', 'MORC4', 'AMOTL2', 'HSPA8', 'CCT7', 'CDKN3', 'AMIGO2', 'SNRPF', 'ANXA3', 'ASF1A', 'ENO1', 'EIF1AY', 'KPNA2', 'SPTSSA', 'G0S2', 'CPNE7', 'SLC35F6', 'DKC1', 'UBE2C', 'GSTO1', 'PTGES3', 'GLA', 'KCNMA1', 'LDHB', 'TUBB', 'SMIM14', 'MGST1', 'TRIB3', 'ILF2', 'PRKCA', 'PHGDH', 'LGALS1', 'EMP3', 'MARCKSL1', 'ADI1', 'PDLIM7', 'DDB2', 'PCSK1N', 'S100A3', 'SAT1', 'CAMK1', 'SLC2A1', 'PPP1CB', 'SLC16A5', 'SLC12A2', 'COX7B', 'UPK1B', 'RABAC1', 'CYB5A', 'PRMT1', 'PTTG1', 'XRCC5', 'TRMT6', 'TOB1', 'PTRH2']</t>
+          <t>['HSP90AB1', 'PAK1IP1', 'ACTG1', 'RPL35', 'MUC5AC', 'ANXA7', 'GPX1', 'ADM', 'ARL6IP1', 'DNAJC22', 'AXL', 'S100A13', 'PROCR', 'ADAMTS12', 'AIMP1', 'CTSB', 'GLRX', 'HSPD1', 'EIF4A1', 'APOE', 'TM4SF1', 'RABAC1', 'CKS2', 'S100A3', 'FDFT1', 'NUDC', 'PPIB', 'HSPA8', 'RTN4RL2', 'G0S2', 'EIF2S3', 'PMEPA1', 'DKC1', 'TOP2A', 'CDA', 'GAL', 'TMSB4X', 'PCDH9', 'RQCD1', 'SPCS2', 'NFKBIA', 'EMC7', 'DDX21', 'SUCLG1', 'FEZ2', 'UPK1B', 'SCD', 'HSPA2', 'MARCKSL1', 'SERPINE2', 'PSAT1', 'MARCKS', 'CCND3', 'INPP1', 'TSPYL1', 'HPCAL1', 'TRIML2', 'RPL37A', 'NUDT19', 'DDIT4', 'KMT5A', 'TRIB3', 'TDG', 'ALG8', 'KRT8', 'ATP1B1', 'CNIH4', 'CEBPB', 'PHLDA2', 'DEGS1', 'LMNA', 'RBCK1', 'PKM', 'HSPG2', 'CTNNB1', 'EBNA1BP2', 'SQSTM1', 'DHRS7', 'SSB', 'S100A11', 'PGK1', 'INA', 'PHKG1', 'ALDH3A1', 'TGFBI', 'RRS1', 'LGALS1', 'GINS2', 'COTL1', 'CDK6', 'UTP18', 'FABP5', 'TUBB', 'FBXO2', 'RNF121', 'PLEK2', 'LETM1', 'PTRH2', 'SLC12A2', 'SLC16A3', 'ZC3H4', 'TUBA1B', 'TNNT1', 'KRT81', 'GLRX3', 'GLA', 'SDC4', 'FN1', 'RAP2B', 'MGST3', 'PDHA1', 'ANP32A', 'COX7B', 'MGST1', 'GRPEL1', 'CPNE7', 'ID3', 'PKMYT1', 'CDK1', 'PMP22', 'RPL26', 'ANKRD28', 'DDX10', 'PRSS3', 'AKAP12', 'RPL41', 'LGALS3BP', 'UBE2S', 'TOB1', 'PLPP5', 'DKK1', 'EZR', 'RHOF', 'ILF2', 'TOR1AIP2', 'UMPS', 'CD44', 'CCL2', 'CCNB2', 'PSMD14', 'OAS1', 'SLC3A2', 'EMP2', 'TPPP3', 'PSMC2', 'SMAGP', 'RPS27L', 'CTSL', 'NUP37', 'EXOSC9', 'GTPBP4', 'PGD', 'CYB5A', 'TAGLN2', 'KRT18', 'TYMP', 'CUTC', 'PHACTR2', 'HLA-A', 'TMEM205', 'IGFBP4', 'NDUFAF4', 'SNW1', 'DUSP1', 'TP53I3', 'PTPRF', 'NQO1', 'CDCA4', 'AKR1B10', 'GPRC5A', 'PLAU', 'KPNA2', 'PDLIM1', 'LBH', 'ANXA2', 'EIF4EBP1', 'TMEM120B', 'AKR1B1', 'HEXA', 'PCNA', 'RPL34', 'PPA1', 'DCBLD2', 'CAV1', 'FGD6', 'AP1M2', 'ANTXR1', 'NT5E', 'ZFP36L1', 'IGFBP3', 'MTHFD2', 'YWHAE', 'TXN', 'PPP3CA', 'S100A6', 'ALDH1A1', 'APOBEC3C', 'DCAF13', 'ENO1', 'EIF6', 'PCSK1N', 'PLAUR', 'C1orf56', 'PPP1R7', 'RND3', 'LIPH', 'MYC', 'MKI67', 'EPS8', 'MGST2', 'CAV2', 'RPS28', 'ASF1A', 'CDKN1A', 'RNF212', 'IDI1', 'BLVRB', 'MCL1', 'RAD51AP1', 'HSPA5', 'PPP1CB', 'MDK', 'TRAM1', 'FDPS', 'ODC1', 'SLC2A1', 'CCT5', 'ARL1', 'YARS', 'AKR1C2', 'EVA1C', 'TXNRD1', 'CENPA', 'EGR1', 'AP3S1', 'SULT2B1', 'TNFRSF12A', 'SLC35F6', 'HNRNPH1', 'TCEAL8', 'CAMK1', 'GCNT2', 'MDM4', 'AKR1C1', 'RPS17', 'B4GALT4', 'MMP7', 'HMGB2', 'AGR2', 'DOCK5', 'SFRP1', 'EIF1AY', 'SLC7A5', 'LGALS3', 'PARD3', 'ALDH7A1', 'RAN', 'RPL39', 'BZW1', 'COL5A2', 'HMGA1', 'NCL', 'CKB', 'MYL6', 'UBE2C', 'CXCL5', 'MMD', 'GMPS', 'CD70', 'B4GALT1', 'BCL2L1', 'UBE2T', 'FOSL1', 'PRKCA', 'SPP1', 'NINJ1', 'CD63', 'PAPPA', 'S100A4', 'RPS15A', 'PFDN2', 'IGFBP7', 'CRIP2', 'ETFB', 'B4GALT5', 'FOXM1', 'ACTB', 'CKS1B', 'PSMD1', 'KRT80', 'NPM1', 'SAT1', 'COX14', 'TM4SF4', 'HES4', 'GCHFR', 'TIMP1', 'COX17', 'MYL12B', 'MCM3', 'SYNGR2', 'CDKN3', 'CNN2', 'F12', 'CRELD2', 'RBFOX3', 'ERGIC1', 'PHLDA1', 'AMIGO2', 'CAPG', 'MT2A', 'RPL27', 'ATF4', 'LXN', 'IK', 'ANXA5', 'ECH1', 'RAI14', 'KNSTRN', 'MKNK2', 'HELLS', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'PDLIM7', 'HSPE1', 'RPL28', 'SNRPF', 'CTTN', 'KIF3A', 'OPTN', 'SPTSSA', 'CES1', 'PDLIM5', 'SEMA4B', 'MRPS30', 'EIF3D', 'KCNMA1', 'LAPTM4A', 'SFR1', 'TFF1', 'EFHD2', 'TNRC6B', 'AMOTL2', 'GSTO1', 'CST3', 'SFN', 'VAMP8', 'MYL12A', 'ELF3', 'ADI1', 'UCHL1', 'PHGDH', 'TUBA1C', 'ARPC3', 'SLPI', 'MRPL13', 'CDT1', 'FGFR1', 'CAPZA1', 'CHP1', 'NTS', 'CTNNAL1', 'HM13', 'PTTG1', 'RSL1D1', 'TOMM7', 'UQCRB', 'STC2', 'TESC', 'VIM', 'RPS29', 'KRT7', 'EGLN1', 'CBX6', 'EPHX1', 'PSMC4', 'TRA2A', 'TPM1', 'SLC16A5', 'XRCC5', 'BASP1', 'CPLX2', 'PRMT1', 'ANXA3', 'TUBB4B', 'SET', 'RPL31', 'KYNU', 'MAGED2', 'RSPO3', 'HOXB8', 'FGB', 'CD24', 'TSC22D1', 'ANXA1', 'DDX39A', 'PSMA3', 'RAB11FIP1', 'MORC4', 'LDHB', 'ANXA4', 'RIN2', 'KRT19', 'TGFBR2', 'KIF23', 'PTPRS', 'CLU', 'ABCG2', 'RPS18', 'NEU1', 'BIRC5', 'NIP7', 'PTGES3', 'INO80C', 'ANKRD40', 'IGFBP6', 'C16orf74', 'DNAJC12', 'S100A16', 'IRF2BP2', 'S100A10', 'CXCL3', 'TRMT6', 'PBDC1', 'SLC27A2', 'RPF2', 'PA2G4', 'NT5DC3', 'CCT7', 'B2M', 'CCND1', 'DRAM1', 'INSL4', 'CCT4', 'PRDX1', 'SOX4', 'ITGA3', 'CLSPN', 'EMP3', 'YPEL5', 'TMEM54', 'PIR', 'DYNLL1', 'RPS24', 'BTG1', 'HMGB3', 'TM4SF20', 'LITAF', 'HACD3', 'EEF1A1', 'CCDC85B', 'SH3KBP1', 'PHLDA3', 'SLC4A7', 'SMIM14', 'TMPO', 'PAQR5', 'DDB2', 'FSCN1', 'CCNB1', 'JUNB', 'PTP4A1', 'CDC42', 'RIPK2']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[['IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'NAS'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['EXP', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['HDA'], ['HDA', 'ISS'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'HDA', 'IBA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA'], ['IPI', 'HDA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA'], ['IPI', 'HDA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA'], ['IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IBA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'NAS'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IBA', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'HDA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'TAS', 'IC', 'IEA'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA'], ['IEA'], ['IPI'], ['IPI', 'HDA', 'TAS'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'TAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IEA'], ['IPI', 'HDA', 'ISS', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IBA'], ['TAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IC', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA'], ['IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['ISS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['HDA', 'IBA', 'TAS'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IEA'], ['IPI']]</t>
+          <t>[['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IEA'], ['ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'ISS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IEA'], ['IPI', 'TAS', 'IC', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IC', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['TAS'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IMP'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['HDA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IMP', 'HDA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IEA'], ['IEA'], ['EXP', 'IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['EXP', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'NAS'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IC', 'IEA'], ['IPI', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['HDA', 'ISS'], ['IPI', 'NAS'], ['IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2888,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['EIF3D', 'NOL11', 'RPL37A', 'RPS12', 'UNC50', 'YWHAE', 'SLC3A2', 'TSFM', 'HSPA1A', 'GLRX3', 'EIF3E', 'NQO1', 'ISG20', 'EEF1A1', 'TUBA1B', 'SSB', 'YARS', 'HSP90AB1', 'RPS18', 'SMC1A', 'HNRNPH1', 'EIF2S3', 'SLC16A3', 'RPS28', 'HSP90AA1', 'PKM', 'LGALS3', 'RPL31', 'EIF4A3', 'S100A16', 'MKI67', 'DCAF13', 'NCL', 'SLPI', 'NPM1', 'HSPD1', 'DDX10', 'CCT3', 'DDX21', 'TMSB4X', 'OAS1', 'NUCKS1', 'HMGA1', 'TOP2A', 'FSCN1', 'GTPBP4', 'APOBEC3C', 'SNRPF', 'HSPA8', 'EIF1AY', 'KPNA2', 'DKC1', 'HSP90B1', 'NOLC1', 'HMGB2', 'SUCLG1', 'RPL28', 'NOC3L', 'NOL7', 'UBC', 'RPS24', 'ZFP36L2', 'RPL38', 'PSMC1', 'S100A4', 'TNRC6B', 'HLA-A', 'SRP54', 'ANP32A', 'CSRP1', 'HSPE1', 'EBNA1BP2', 'RBM8A', 'LACTB2', 'RPL21', 'PUS1', 'KRT18', 'TUBB4B', 'ZFP36', 'CCT4', 'RPL41', 'SPATS2', 'RPL39', 'SLBP', 'PA2G4', 'ZNF622', 'RPS29', 'ANXA2', 'UTP6', 'ZFP36L1', 'TXN', 'HMGB3', 'UTP18', 'RRS1', 'VIM', 'CBX6', 'RAN', 'CCT5', 'DDX39A', 'RPS27', 'PRDX1', 'AHNAK', 'RAD21', 'ENO1', 'LGALS1', 'NAA15', 'PRMT1', 'XRCC5']</t>
+          <t>['RBM8A', 'NUCKS1', 'TSFM', 'DKC1', 'TOP2A', 'TMSB4X', 'DDX21', 'NOC3L', 'PKM', 'LGALS1', 'EIF3E', 'UTP18', 'PSMC1', 'SMC1A', 'TUBA1B', 'RPS27', 'SLC3A2', 'UNC50', 'NOL7', 'KRT18', 'HLA-A', 'NOL11', 'KPNA2', 'RPL21', 'YWHAE', 'DCAF13', 'ENO1', 'HMGB2', 'EIF1AY', 'LGALS3', 'RPL39', 'UBC', 'NPM1', 'AHNAK', 'SNRPF', 'TNRC6B', 'SRP54', 'SLPI', 'ZNF622', 'CBX6', 'XRCC5', 'TUBB4B', 'RPL31', 'RPS18', 'LACTB2', 'PA2G4', 'CCT3', 'CCT4', 'HMGB3', 'EEF1A1', 'RPS12', 'FSCN1', 'HSP90AB1', 'HSPA1A', 'HSPD1', 'HSPA8', 'EIF2S3', 'RAD21', 'SUCLG1', 'RPL37A', 'CSRP1', 'PUS1', 'EBNA1BP2', 'SSB', 'RRS1', 'SLC16A3', 'NOLC1', 'GLRX3', 'ZFP36', 'ANP32A', 'DDX10', 'RPL41', 'OAS1', 'NAA15', 'GTPBP4', 'NQO1', 'ANXA2', 'ZFP36L1', 'TXN', 'APOBEC3C', 'MKI67', 'RPL38', 'RPS28', 'YARS', 'CCT5', 'SLBP', 'HNRNPH1', 'RAN', 'NCL', 'HMGA1', 'S100A4', 'HSP90B1', 'EIF4A3', 'HSP90AA1', 'HSPE1', 'RPL28', 'SPATS2', 'EIF3D', 'UTP6', 'RPS29', 'VIM', 'PRMT1', 'DDX39A', 'ISG20', 'S100A16', 'ZFP36L2', 'PRDX1', 'RPS24']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['IDA'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IPI'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IMP', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['HDA'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'TAS'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['IDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA']]</t>
+          <t>[['HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['IPI', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['IEA'], ['IDA', 'HDA'], ['IDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -2954,12 +2954,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['MAP1B', 'EIF3D', 'EIF4EBP1', 'RMI2', 'RPL37A', 'RPS12', 'SFRP1', 'HILPDA', 'TUBA4A', 'RND3', 'SQSTM1', 'ATXN10', 'YWHAE', 'JADE1', 'HSPA1A', 'HOMER3', 'TESC', 'GLRX3', 'SH3BGRL3', 'EIF3E', 'UBE2S', 'CCNB2', 'NQO1', 'CCND1', 'ALDH1A1', 'RAD51C', 'EEF1A1', 'CALB2', 'MYL12A', 'SSB', 'CD44', 'STMN1', 'YARS', 'PLK2', 'HSP90AB1', 'NUP37', 'RPS18', 'RIN2', 'SMC1A', 'CTNNAL1', 'HNRNPH1', 'PDLIM5', 'TXNRD1', 'ADA', 'EIF2S3', 'HSPA2', 'VAMP8', 'SGOL1', 'EIF3M', 'CDCA3', 'RPS28', 'KRT8', 'TP53I3', 'HSP90AA1', 'TRAPPC6A', 'MSH6', 'PGK1', 'PKM', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'RPL31', 'SERPINE2', 'EIF4A3', 'S100A16', 'CCNB1', 'ACTG1', 'GAMT', 'SMOX', 'ELF3', 'DCAF13', 'TSC22D1', 'SLC27A2', 'TK1', 'KRT7', 'PLK1', 'UCHL1', 'CAPN2', 'DYNLL1', 'NPM1', 'BCL2L1', 'HSPD1', 'DDIT4', 'NUF2', 'NUDT19', 'SET', 'RAI14', 'CCT3', 'CDC42', 'NRDC', 'DDX21', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'HMGA1', 'CTNNB1', 'HSPA5', 'PSMA4', 'NDUFA12', 'ANXA1', 'ODC1', 'CCT2', 'INPP1', 'TAGLN2', 'KIF23', 'AHNAK2', 'PSMC4', 'KRT81', 'FSCN1', 'NAMPT', 'GTPBP4', 'PSMD7', 'SFN', 'AKAP12', 'SLC7A5', 'ARHGAP11A', 'AKR1B1', 'SNRPF', 'HSPA8', 'CCT7', 'NANS', 'KPNA2', 'SLC35F6', 'GSTO1', 'MZT1', 'TRIB3', 'LDHB', 'RHOD', 'CDKN2D', 'HSP90B1', 'S100A3', 'GSN', 'PPP1CB', 'PRPS2', 'PTTG1', 'PTRH2', 'ACAT2', 'ACTB', 'ALDH3A1', 'HMGCS1', 'AKR1B10', 'KYNU', 'RPL28', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'CTTN', 'CCT8', 'CCNA2', 'CDC42EP1', 'CES1', 'UBC', 'DNMBP', 'RPS24', 'ORC5', 'ARL6IP1', 'RRM2', 'B2M', 'RPL38', 'PSMC1', 'UBB', 'TUBA1A', 'GPX2', 'S100A4', 'SULT2B1', 'MYL6', 'TNRC6B', 'RIPK2', 'CTSH', 'SRP54', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'ARHGAP29', 'MAP1LC3B', 'NNMT', 'S100A6', 'ANKRD1', 'CLU', 'CDC25B', 'AKR1C2', 'CENPF', 'CTNNBL1', 'COTL1', 'S100A13', 'KRT19', 'PGD', 'NFKBIE', 'PDXK', 'UBR4', 'MGLL', 'AIMP2', 'NDRG1', 'KLF6', 'RAP2B', 'RBM8A', 'RPL21', 'KRT18', 'CAPZA1', 'FBXO5', 'RAP1GAP', 'TUBB4B', 'GLRX', 'ZFP36', 'CCT4', 'RPL41', 'TPX2', 'SPATS2', 'AURKA', 'RPL39', 'SLBP', 'TKT', 'PSMA3', 'ZNF622', 'RPS29', 'ANXA2', 'PKMYT1', 'MYL12B', 'ZFP36L1', 'TXN', 'VIM', 'BLVRB', 'GIGYF1', 'PPID', 'MT2A', 'BIRC3', 'CDC20', 'PPP1R14A', 'PIR', 'LDHA', 'CPLX2', 'MYBL2', 'RAN', 'PPP1R15A', 'CCT5', 'DNAJC3', 'AP1S2', 'RAB10', 'RPS27', 'PSMD14', 'PTPRS', 'PRDX1', 'DOK4', 'GCLC', 'AURKB', 'ID2', 'AHNAK', 'RAD21', 'ATF4', 'TALDO1', 'ENO1', 'UBE2C', 'PYCARD', 'LMO7', 'UPP1', 'HMMR', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'CDCA5', 'PDLIM7', 'NAA15', 'SAT1', 'CYB5A', 'PRMT1', 'XRCC5']</t>
+          <t>['ACTG1', 'GPX1', 'RBM8A', 'GLRX', 'GSN', 'AKR1C3', 'S100A3', 'TMSB4X', 'FBXO5', 'MAP1B', 'DDX21', 'MCM7', 'HSPA2', 'CCND3', 'DDIT4', 'TRIB3', 'MZT1', 'PKM', 'SQSTM1', 'ARHGAP11A', 'PGK1', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'ID2', 'CCNA2', 'PTRH2', 'PSMC1', 'NANS', 'SMC1A', 'PRDX4', 'CDCA3', 'TPX2', 'GAMT', 'RAP2B', 'PKMYT1', 'RRM2', 'EIF3M', 'AKAP12', 'UBE2S', 'TK1', 'NRDC', 'RPS27', 'CCNB2', 'UBB', 'JADE1', 'KLF6', 'PSMC2', 'SGOL1', 'CYB5A', 'PGD', 'KRT18', 'TAGLN2', 'TP53I3', 'AKR1B10', 'KPNA2', 'RMI2', 'CACYBP', 'RPL21', 'YWHAE', 'S100A6', 'ALDH1A1', 'DCAF13', 'DNAJC3', 'ENO1', 'TUBA4A', 'BLVRB', 'CALB2', 'ODC1', 'AKR1C2', 'TXNRD1', 'ORC5', 'NFKBIE', 'SULT2B1', 'SLC35F6', 'SFRP1', 'BIRC3', 'LGALS3', 'RPL39', 'UBE2C', 'MYL6', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'SAT1', 'AHNAK', 'MYL12B', 'PSMD7', 'MT2A', 'RAI14', 'HMGCS1', 'PDLIM7', 'MGLL', 'SNRPF', 'CTTN', 'CES1', 'PDLIM5', 'TNRC6B', 'GSTO1', 'VAMP8', 'SRP54', 'ANKRD1', 'MYBL2', 'CAPZA1', 'PDXK', 'KRT7', 'ZNF622', 'PSMC4', 'NDUFA12', 'XRCC5', 'CPLX2', 'TUBB4B', 'RPL31', 'HOMER3', 'KYNU', 'RAB10', 'TSC22D1', 'ANXA1', 'KIF23', 'PTPRS', 'RPS18', 'CDKN2D', 'PPID', 'NDRG1', 'CAPN2', 'CCT7', 'CCT3', 'CCND1', 'HILPDA', 'CCT4', 'DYNLL1', 'TALDO1', 'EEF1A1', 'MAP1LC3B', 'RPS12', 'FSCN1', 'CCNB1', 'RIPK2', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'ARL6IP1', 'S100A13', 'CDCA5', 'HSPA1A', 'HSPD1', 'HSPA8', 'EIF2S3', 'RAD21', 'SERPINE2', 'INPP1', 'FOS', 'AIMP2', 'RPL37A', 'NUDT19', 'HMOX1', 'KRT8', 'GPX2', 'LMNA', 'CTNNB1', 'SSB', 'CTSH', 'ALDH3A1', 'CCT2', 'CDC20', 'TUBB', 'CENPF', 'KRT81', 'GLRX3', 'ZFP36', 'CDK1', 'AURKA', 'RPL41', 'PPP1R14A', 'CD44', 'PSMD14', 'OAS1', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'PPP1R15A', 'ARHGAP29', 'NQO1', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'GABRA5', 'ZFP36L1', 'TKT', 'TXN', 'PPP3CA', 'PRPS2', 'DNMBP', 'RND3', 'RPL38', 'RPS28', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'CENPA', 'SLBP', 'SMOX', 'HNRNPH1', 'SLC7A5', 'RAN', 'HMGA1', 'GIGYF1', 'LMO7', 'BCL2L1', 'CDC42EP1', 'S100A4', 'UBR4', 'NAMPT', 'CCT8', 'HSP90B1', 'AP1S2', 'ATF4', 'EIF4A3', 'ECH1', 'RHOD', 'HSP90AA1', 'TUBA1A', 'LDHA', 'RPL28', 'SPATS2', 'EIF3D', 'RAD51C', 'PYCARD', 'SFN', 'MYL12A', 'ELF3', 'STMN1', 'PHGDH', 'UCHL1', 'ADA', 'TRAPPC6A', 'CTNNAL1', 'PTTG1', 'RAP1GAP', 'TESC', 'AHNAK2', 'RPS29', 'VIM', 'DOK4', 'HMMR', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'PSMA3', 'CDC25B', 'LDHB', 'RIN2', 'KRT19', 'CLU', 'BIRC5', 'S100A16', 'ACAT2', 'SLC27A2', 'B2M', 'GCLC', 'ATXN10', 'PRDX1', 'NNMT', 'PLK2', 'PIR', 'RPS24', 'CDC42']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS'], ['IDA'], ['TAS'], ['TAS'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IBA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IMP', 'IBA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IBA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['TAS'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS']]</t>
+          <t>[['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA'], ['IDA'], ['IMP', 'IBA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA'], ['TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'ISS', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['RPL37A', 'SPP1', 'SFRP1', 'TUBA4A', 'SQSTM1', 'YWHAE', 'SLC3A2', 'CTSL', 'HSPA1A', 'SH3BGRL3', 'EIF3E', 'S100A10', 'SERPINE1', 'ALDH1A1', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'CD44', 'STMN1', 'HSP90AB1', 'GPRC5A', 'RPS18', 'TXNRD1', 'ITGB1', 'EIF2S3', 'HSPA2', 'BASP1', 'VAMP8', 'B4GALT1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'PGK1', 'PKM', 'LGALS3', 'CDK1', 'RPL31', 'S100A16', 'CD55', 'ACTG1', 'FN1', 'NCL', 'SLPI', 'SLC27A2', 'KRT7', 'CTSB', 'CAPN2', 'HSPD1', 'SLC26A2', 'PRSS23', 'GPX3', 'CCT3', 'CDC42', 'ECH1', 'CTNNB1', 'HSPA5', 'PSMA4', 'ANXA1', 'PLAU', 'CCT2', 'TAGLN2', 'GCNT3', 'FSCN1', 'NAMPT', 'PSMD7', 'PPP1R7', 'SFN', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'NANS', 'SLC35F6', 'GSTO1', 'LDHB', 'ITGB5', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UPK1B', 'ACAT2', 'ACTB', 'CD63', 'PCNA', 'RPL28', 'PRDX4', 'CCT8', 'CAPG', 'UBC', 'B2M', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CTSH', 'HLA-A', 'CACYBP', 'CSRP1', 'HSPE1', 'S100A6', 'CLU', 'LGMN', 'CD70', 'COTL1', 'KRT19', 'PGD', 'NPC2', 'PDXK', 'VDAC3', 'NDRG1', 'RAP2B', 'TGFBI', 'KRT18', 'CAPZA1', 'TIMP1', 'TUBB4B', 'GLRX', 'CCT4', 'ATP1B1', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'RPS29', 'ANXA2', 'F12', 'MYL12B', 'TXN', 'VIM', 'MFGE8', 'BLVRB', 'S100A11', 'LDHA', 'RAN', 'CCT5', 'DNAJC3', 'SERPINB1', 'PTPRF', 'RAB10', 'CD9', 'RAB3B', 'RARRES1', 'PTPRS', 'PRDX1', 'MUC5AC', 'AHNAK', 'TALDO1', 'ENO1', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ACAT1']</t>
+          <t>['ACTG1', 'MUC5AC', 'GLRX', 'GSN', 'AKR1C3', 'MARCKSL1', 'HSPA2', 'ATP1B1', 'PKM', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'NANS', 'PRDX4', 'SERPINE1', 'RAP2B', 'RARRES1', 'CD55', 'UBB', 'SLC3A2', 'CTSL', 'PGD', 'KRT18', 'TAGLN2', 'HLA-A', 'ITGB5', 'ALDH2', 'CACYBP', 'YWHAE', 'LGMN', 'S100A6', 'ALDH1A1', 'DNAJC3', 'ENO1', 'PPP1R7', 'TUBA4A', 'BLVRB', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'RAB3B', 'SFRP1', 'LGALS3', 'MYL6', 'B4GALT1', 'UBC', 'ACTB', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'ACAT1', 'SERPINB1', 'GSTO1', 'VAMP8', 'SLPI', 'CAPZA1', 'PDXK', 'KRT7', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'ANXA1', 'ANXA4', 'PTPRS', 'RPS18', 'NDRG1', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCT4', 'ITGA3', 'TALDO1', 'EEF1A1', 'FSCN1', 'HSP90AB1', 'SH3BGRL3', 'ITGB1', 'AXL', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'HSPA8', 'EIF2S3', 'UPK1B', 'PRSS23', 'RPL37A', 'CSRP1', 'KRT8', 'CTNNB1', 'CTSH', 'CCT2', 'TUBB', 'SLC12A2', 'ATP1B3', 'FN1', 'CDK1', 'CD44', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'PCNA', 'TKT', 'TXN', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'CCT5', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'GPX3', 'CD70', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'NAMPT', 'CCT8', 'HSP90B1', 'F12', 'CAPG', 'GCNT3', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'SFN', 'MYL12A', 'STMN1', 'PHGDH', 'CHP1', 'RPS29', 'VIM', 'PSMA3', 'LDHB', 'KRT19', 'CLU', 'S100A16', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'PRDX1', 'CDC42']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3086,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['RPL37A', 'SPP1', 'SFRP1', 'TUBA4A', 'SQSTM1', 'YWHAE', 'SLC3A2', 'CTSL', 'HSPA1A', 'SH3BGRL3', 'EIF3E', 'S100A10', 'SERPINE1', 'ALDH1A1', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'CD44', 'STMN1', 'HSP90AB1', 'GPRC5A', 'RPS18', 'TXNRD1', 'ITGB1', 'EIF2S3', 'HSPA2', 'BASP1', 'VAMP8', 'B4GALT1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'PGK1', 'PKM', 'LGALS3', 'CDK1', 'RPL31', 'SERPINE2', 'S100A16', 'CD55', 'ACTG1', 'FN1', 'NCL', 'SLPI', 'SLC27A2', 'KRT7', 'CTSB', 'CAPN2', 'HSPD1', 'SLC26A2', 'PRSS23', 'GPX3', 'CCT3', 'CDC42', 'ECH1', 'CTNNB1', 'HSPA5', 'PSMA4', 'ANXA1', 'PLAU', 'CCT2', 'TAGLN2', 'GCNT3', 'FSCN1', 'NAMPT', 'PSMD7', 'PPP1R7', 'SFN', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'NANS', 'SLC35F6', 'GSTO1', 'LDHB', 'ITGB5', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UPK1B', 'ACAT2', 'ACTB', 'CD63', 'PCNA', 'RPL28', 'PRDX4', 'CCT8', 'CAPG', 'UBC', 'B2M', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CTSH', 'HLA-A', 'CACYBP', 'CSRP1', 'HSPE1', 'S100A6', 'CLU', 'LGMN', 'CD70', 'COTL1', 'KRT19', 'PGD', 'NPC2', 'PDXK', 'VDAC3', 'NDRG1', 'RAP2B', 'TGFBI', 'KRT18', 'CAPZA1', 'TIMP1', 'TUBB4B', 'GLRX', 'CCT4', 'ATP1B1', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'RPS29', 'ANXA2', 'F12', 'MYL12B', 'TXN', 'VIM', 'MFGE8', 'BLVRB', 'S100A11', 'LDHA', 'RAN', 'CCT5', 'DNAJC3', 'SERPINB1', 'PTPRF', 'RAB10', 'CD9', 'RAB3B', 'RARRES1', 'PTPRS', 'PRDX1', 'MUC5AC', 'AHNAK', 'TALDO1', 'ENO1', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ACAT1']</t>
+          <t>['ACTG1', 'MUC5AC', 'GLRX', 'GSN', 'AKR1C3', 'MARCKSL1', 'HSPA2', 'ATP1B1', 'PKM', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'NANS', 'PRDX4', 'SERPINE1', 'RAP2B', 'RARRES1', 'CD55', 'UBB', 'SLC3A2', 'CTSL', 'PGD', 'KRT18', 'TAGLN2', 'HLA-A', 'ITGB5', 'ALDH2', 'CACYBP', 'YWHAE', 'LGMN', 'S100A6', 'ALDH1A1', 'DNAJC3', 'ENO1', 'PPP1R7', 'TUBA4A', 'BLVRB', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'RAB3B', 'SFRP1', 'LGALS3', 'MYL6', 'B4GALT1', 'UBC', 'ACTB', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'ACAT1', 'SERPINB1', 'GSTO1', 'VAMP8', 'SLPI', 'CAPZA1', 'PDXK', 'KRT7', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'ANXA1', 'ANXA4', 'PTPRS', 'RPS18', 'NDRG1', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCT4', 'ITGA3', 'TALDO1', 'EEF1A1', 'FSCN1', 'HSP90AB1', 'SH3BGRL3', 'ITGB1', 'AXL', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'HSPA8', 'EIF2S3', 'UPK1B', 'PRSS23', 'SERPINE2', 'RPL37A', 'CSRP1', 'KRT8', 'CTNNB1', 'CTSH', 'CCT2', 'TUBB', 'SLC12A2', 'ATP1B3', 'FN1', 'CDK1', 'CD44', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'PCNA', 'TKT', 'TXN', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'CCT5', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'GPX3', 'CD70', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'NAMPT', 'CCT8', 'HSP90B1', 'F12', 'CAPG', 'GCNT3', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'SFN', 'MYL12A', 'STMN1', 'PHGDH', 'CHP1', 'RPS29', 'VIM', 'PSMA3', 'LDHB', 'KRT19', 'CLU', 'S100A16', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'PRDX1', 'CDC42']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3152,12 +3152,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['RPL37A', 'SPP1', 'SFRP1', 'TUBA4A', 'SQSTM1', 'YWHAE', 'SLC3A2', 'CTSL', 'HSPA1A', 'SH3BGRL3', 'EIF3E', 'S100A10', 'SERPINE1', 'ALDH1A1', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'CD44', 'STMN1', 'HSP90AB1', 'GPRC5A', 'RPS18', 'TXNRD1', 'ITGB1', 'EIF2S3', 'HSPA2', 'BASP1', 'VAMP8', 'B4GALT1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'PGK1', 'PKM', 'LGALS3', 'CDK1', 'RPL31', 'SERPINE2', 'S100A16', 'CD55', 'ACTG1', 'FN1', 'NCL', 'SLPI', 'SLC27A2', 'KRT7', 'CTSB', 'CAPN2', 'HSPD1', 'SLC26A2', 'PRSS23', 'GPX3', 'CCT3', 'CDC42', 'ECH1', 'CTNNB1', 'HSPA5', 'PSMA4', 'ANXA1', 'PLAU', 'CCT2', 'TAGLN2', 'GCNT3', 'FSCN1', 'NAMPT', 'PSMD7', 'PPP1R7', 'SFN', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'NANS', 'SLC35F6', 'GSTO1', 'LDHB', 'ITGB5', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UPK1B', 'ACAT2', 'ACTB', 'CD63', 'PCNA', 'RPL28', 'PRDX4', 'CCT8', 'CAPG', 'UBC', 'B2M', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CTSH', 'HLA-A', 'CACYBP', 'CSRP1', 'HSPE1', 'S100A6', 'CLU', 'LGMN', 'CD70', 'COTL1', 'KRT19', 'PGD', 'NPC2', 'PDXK', 'VDAC3', 'NDRG1', 'RAP2B', 'TGFBI', 'KRT18', 'CAPZA1', 'TIMP1', 'TUBB4B', 'GLRX', 'CCT4', 'ATP1B1', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'RPS29', 'ANXA2', 'F12', 'MYL12B', 'TXN', 'VIM', 'MFGE8', 'BLVRB', 'S100A11', 'LDHA', 'RAN', 'CCT5', 'DNAJC3', 'SERPINB1', 'PTPRF', 'RAB10', 'CD9', 'RAB3B', 'RARRES1', 'PTPRS', 'PRDX1', 'MUC5AC', 'AHNAK', 'TALDO1', 'ENO1', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ACAT1']</t>
+          <t>['ACTG1', 'MUC5AC', 'GLRX', 'GSN', 'AKR1C3', 'MARCKSL1', 'HSPA2', 'ATP1B1', 'PKM', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'NANS', 'PRDX4', 'SERPINE1', 'RAP2B', 'RARRES1', 'CD55', 'UBB', 'SLC3A2', 'CTSL', 'PGD', 'KRT18', 'TAGLN2', 'HLA-A', 'ITGB5', 'ALDH2', 'CACYBP', 'YWHAE', 'LGMN', 'S100A6', 'ALDH1A1', 'DNAJC3', 'ENO1', 'PPP1R7', 'TUBA4A', 'BLVRB', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'RAB3B', 'SFRP1', 'LGALS3', 'MYL6', 'B4GALT1', 'UBC', 'ACTB', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'ACAT1', 'SERPINB1', 'GSTO1', 'VAMP8', 'SLPI', 'CAPZA1', 'PDXK', 'KRT7', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'ANXA1', 'ANXA4', 'PTPRS', 'RPS18', 'NDRG1', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCT4', 'ITGA3', 'TALDO1', 'EEF1A1', 'FSCN1', 'HSP90AB1', 'SH3BGRL3', 'ITGB1', 'AXL', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'HSPA8', 'EIF2S3', 'UPK1B', 'PRSS23', 'SERPINE2', 'RPL37A', 'CSRP1', 'KRT8', 'CTNNB1', 'CTSH', 'CCT2', 'TUBB', 'SLC12A2', 'ATP1B3', 'FN1', 'CDK1', 'CD44', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'PCNA', 'TKT', 'TXN', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'CCT5', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'GPX3', 'CD70', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'NAMPT', 'CCT8', 'HSP90B1', 'F12', 'CAPG', 'GCNT3', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'SFN', 'MYL12A', 'STMN1', 'PHGDH', 'CHP1', 'RPS29', 'VIM', 'PSMA3', 'LDHB', 'KRT19', 'CLU', 'S100A16', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'PRDX1', 'CDC42']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3218,12 +3218,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['RPL37A', 'SPP1', 'SFRP1', 'TUBA4A', 'SQSTM1', 'YWHAE', 'SLC3A2', 'CTSL', 'HSPA1A', 'SH3BGRL3', 'EIF3E', 'S100A10', 'SERPINE1', 'ALDH1A1', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'CD44', 'STMN1', 'HSP90AB1', 'GPRC5A', 'RPS18', 'TXNRD1', 'ITGB1', 'EIF2S3', 'HSPA2', 'BASP1', 'VAMP8', 'B4GALT1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'PGK1', 'PKM', 'LGALS3', 'CDK1', 'RPL31', 'SERPINE2', 'S100A16', 'CD55', 'ACTG1', 'FN1', 'NCL', 'SLPI', 'SLC27A2', 'KRT7', 'CTSB', 'CAPN2', 'HSPD1', 'SLC26A2', 'PRSS23', 'GPX3', 'CCT3', 'CDC42', 'ECH1', 'CTNNB1', 'HSPA5', 'PSMA4', 'ANXA1', 'PLAU', 'CCT2', 'TAGLN2', 'GCNT3', 'FSCN1', 'NAMPT', 'PSMD7', 'PPP1R7', 'SFN', 'SLC7A5', 'AKR1B1', 'HSPA8', 'CCT7', 'NANS', 'SLC35F6', 'GSTO1', 'LDHB', 'ITGB5', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UPK1B', 'ACAT2', 'ACTB', 'CD63', 'PCNA', 'RPL28', 'PRDX4', 'CCT8', 'CAPG', 'UBC', 'B2M', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CTSH', 'HLA-A', 'CACYBP', 'CSRP1', 'HSPE1', 'S100A6', 'CLU', 'LGMN', 'CD70', 'COTL1', 'KRT19', 'PGD', 'NPC2', 'PDXK', 'VDAC3', 'NDRG1', 'RAP2B', 'TGFBI', 'KRT18', 'CAPZA1', 'TIMP1', 'TUBB4B', 'GLRX', 'CCT4', 'ATP1B1', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'RPS29', 'ANXA2', 'F12', 'MYL12B', 'TXN', 'VIM', 'MFGE8', 'BLVRB', 'S100A11', 'LDHA', 'RAN', 'CCT5', 'DNAJC3', 'SERPINB1', 'PTPRF', 'RAB10', 'CD9', 'RAB3B', 'RARRES1', 'PTPRS', 'PRDX1', 'MUC5AC', 'AHNAK', 'TALDO1', 'ENO1', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ACAT1']</t>
+          <t>['ACTG1', 'MUC5AC', 'GLRX', 'GSN', 'AKR1C3', 'MARCKSL1', 'HSPA2', 'ATP1B1', 'PKM', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'NANS', 'PRDX4', 'SERPINE1', 'RAP2B', 'RARRES1', 'CD55', 'UBB', 'SLC3A2', 'CTSL', 'PGD', 'KRT18', 'TAGLN2', 'HLA-A', 'ITGB5', 'ALDH2', 'CACYBP', 'YWHAE', 'LGMN', 'S100A6', 'ALDH1A1', 'DNAJC3', 'ENO1', 'PPP1R7', 'TUBA4A', 'BLVRB', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'RAB3B', 'SFRP1', 'LGALS3', 'MYL6', 'B4GALT1', 'UBC', 'ACTB', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'ACAT1', 'SERPINB1', 'GSTO1', 'VAMP8', 'SLPI', 'CAPZA1', 'PDXK', 'KRT7', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'ANXA1', 'ANXA4', 'PTPRS', 'RPS18', 'NDRG1', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCT4', 'ITGA3', 'TALDO1', 'EEF1A1', 'FSCN1', 'HSP90AB1', 'SH3BGRL3', 'ITGB1', 'AXL', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'HSPA8', 'EIF2S3', 'UPK1B', 'PRSS23', 'SERPINE2', 'RPL37A', 'CSRP1', 'KRT8', 'CTNNB1', 'CTSH', 'CCT2', 'TUBB', 'SLC12A2', 'ATP1B3', 'FN1', 'CDK1', 'CD44', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'PCNA', 'TKT', 'TXN', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'CCT5', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'GPX3', 'CD70', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'NAMPT', 'CCT8', 'HSP90B1', 'F12', 'CAPG', 'GCNT3', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'SFN', 'MYL12A', 'STMN1', 'PHGDH', 'CHP1', 'RPS29', 'VIM', 'PSMA3', 'LDHB', 'KRT19', 'CLU', 'S100A16', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'PRDX1', 'CDC42']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MAP1B', 'TPPP3', 'EIF3D', 'EIF4EBP1', 'NDUFC2', 'UQCRC2', 'RMI2', 'RPL37A', 'RPS12', 'SPP1', 'SFRP1', 'HILPDA', 'TUBA4A', 'RND3', 'UNC50', 'MNS1', 'SQSTM1', 'ATXN10', 'YWHAE', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'HSPA1A', 'DUSP1', 'HOMER3', 'TESC', 'GLRX3', 'SH3BGRL3', 'CRIP1', 'EIF3E', 'PIF1', 'S100A10', 'UBE2S', 'SERPINE1', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'ISG20', 'GAL3ST1', 'CCND1', 'ALDH1A1', 'NTS', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'CALB2', 'ADM', 'MYL12A', 'IGFBP7', 'REEP5', 'TUBA1B', 'SSB', 'COX7C', 'CD44', 'STMN1', 'YARS', 'TMPO', 'PLK2', 'HSP90AB1', 'NUP37', 'LY6K', 'LOXL2', 'TMSB10', 'GPRC5A', 'RPS18', 'RIN2', 'SMC1A', 'CTNNAL1', 'DHRS7', 'HNRNPH1', 'MFSD12', 'PDLIM5', 'TRAM1', 'PHACTR2', 'IGFBP3', 'TXNRD1', 'ITGB1', 'ADA', 'EIF2S3', 'PHLDA2', 'HSPA2', 'BASP1', 'VAMP8', 'SGOL1', 'B4GALT1', 'CNFN', 'EIF3M', 'INSIG1', 'CDCA3', 'RPS28', 'KRT8', 'TP53I3', 'HSP90AA1', 'CHP1', 'TRAPPC6A', 'MSH6', 'CD68', 'PGK1', 'PKM', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'RPL31', 'SERPINE2', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'CD55', 'CCNB1', 'ACTG1', 'GAMT', 'ID3', 'SMOX', 'ELF3', 'FN1', 'DCAF13', 'TSC22D1', 'NCL', 'IRF2BP2', 'SLPI', 'SLC27A2', 'TK1', 'KRT7', 'PLK1', 'CTSB', 'UCHL1', 'CAPN2', 'DYNLL1', 'NPM1', 'GADD45B', 'BCL2L1', 'KANK1', 'HSPD1', 'DDIT4', 'NUF2', 'PRSS23', 'LAPTM4A', 'NDUFA9', 'CYP1B1', 'NUDT19', 'SET', 'RAI14', 'STC2', 'CA8', 'CCT3', 'MMD', 'CDC42', 'NRDC', 'DDX21', 'FKBP11', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'PSMA4', 'EGR1', 'NDUFA12', 'UCP2', 'ANXA1', 'ODC1', 'PLAU', 'TOP2A', 'CCT2', 'INPP1', 'NUPR1', 'TAGLN2', 'KIF23', 'AHNAK2', 'FA2H', 'GCNT3', 'PSMC4', 'KRT81', 'FSCN1', 'CNIH4', 'ORMDL2', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'PPP1R7', 'SFN', 'APOBEC3C', 'AKAP12', 'SLC7A5', 'FSTL3', 'ARHGAP11A', 'AKR1B1', 'RILP', 'SNRPF', 'HSPA8', 'CCT7', 'NANS', 'EIF1AY', 'KPNA2', 'DKC1', 'SLC35F6', 'REXO2', 'GSTO1', 'MZT1', 'TRIB3', 'LDHB', 'RHOD', 'SMIM14', 'CDKN2D', 'ITGB5', 'HSP90B1', 'S100A3', 'GSN', 'ATP1B3', 'PPP1CB', 'PRPS2', 'SLC12A2', 'PTTG1', 'TOB1', 'PTRH2', 'DPM1', 'REEP4', 'ACAT2', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'CD63', 'ALDH3A1', 'HMGCS1', 'AKR1B10', 'ABCG2', 'ALG8', 'KYNU', 'RPL28', 'MTHFD2', 'CEBPB', 'NOC3L', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'CTTN', 'DHRS3', 'NOL7', 'CCT8', 'CCNA2', 'CDC42EP1', 'CES1', 'CAPG', 'UBC', 'TUBA1C', 'DNMBP', 'RPS24', 'ORC5', 'GOLIM4', 'ARL6IP1', 'RRM2', 'B2M', 'MRPS22', 'ZFP36L2', 'RPL38', 'PSMC1', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'GPX2', 'S100A4', 'SULT2B1', 'MYL6', 'CYBA', 'TNRC6B', 'RIPK2', 'PDHB', 'CTSH', 'HLA-A', 'SRP54', 'GAL', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'UQCR11', 'CDC123', 'ARHGAP29', 'CSRP1', 'MAP1LC3B', 'CAV2', 'NNMT', 'INHBB', 'HSPE1', 'S100A6', 'ANKRD1', 'CLU', 'LGMN', 'CDC25B', 'CYB5B', 'MUC3A', 'AKR1C2', 'CENPF', 'CTNNBL1', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'LRRC75A', 'PGD', 'LBH', 'NFKBIE', 'NPC2', 'PDXK', 'UBR4', 'VDAC3', 'PLAUR', 'MGLL', 'AIMP2', 'NDRG1', 'KLF6', 'RAP2B', 'RBM8A', 'LACTB2', 'RPL21', 'PUS1', 'TGFBI', 'KRT18', 'CAPZA1', 'FBXO5', 'TIMP1', 'RAP1GAP', 'TUBB4B', 'TSPAN14', 'GLRX', 'ZFP36', 'CCT4', 'RPL41', 'LXN', 'TPX2', 'SPATS2', 'AURKA', 'RPL39', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'PTP4A1', 'ZNF622', 'RPS29', 'ANXA2', 'F12', 'PKMYT1', 'PRSS3', 'MYL12B', 'TEAD4', 'ZFP36L1', 'TXN', 'INA', 'HMGB3', 'ID1', 'ZFAS1', 'RRS1', 'EMC7', 'VIM', 'IMMP2L', 'MFGE8', 'BLVRB', 'GIGYF1', 'UQCRQ', 'TOR1AIP2', 'PPID', 'MT2A', 'BIRC3', 'CDC20', 'PPP1R14A', 'TERF1', 'S100A11', 'AGR2', 'PIR', 'EREG', 'PPA2', 'LDHA', 'CPLX2', 'MYBL2', 'RAN', 'PPP1R15A', 'CCT5', 'DNAJC3', 'IGFBP4', 'DDX39A', 'SERPINB1', 'AP1S2', 'ASPM', 'PTPRF', 'RAB10', 'RPS27', 'PSMD14', 'CD9', 'RAB3B', 'PTPRS', 'PRDX1', 'DOK4', 'GCLC', 'AURKB', 'SDHB', 'ID2', 'MUC5AC', 'AHNAK', 'LITAF', 'RAD21', 'ATF4', 'TALDO1', 'NPTX1', 'ENO1', 'UBE2C', 'PYCARD', 'LMO7', 'UPP1', 'HMMR', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'CDCA5', 'PDLIM7', 'ACAT1', 'PCSK1N', 'NAA15', 'SAT1', 'COX7B', 'CYB5A', 'PRMT1', 'XRCC5']</t>
+          <t>['ACTG1', 'MUC5AC', 'TMSB10', 'GPX1', 'RBM8A', 'NUCKS1', 'GLRX', 'GSN', 'AKR1C3', 'TSFM', 'CA8', 'CYB5B', 'S100A3', 'DKC1', 'TOP2A', 'GAL', 'TMSB4X', 'FBXO5', 'EMC7', 'MAP1B', 'DDX21', 'NOC3L', 'EREG', 'MARCKSL1', 'MCM7', 'HSPA2', 'CCND3', 'ID1', 'DDIT4', 'TRIB3', 'MZT1', 'CNIH4', 'PHLDA2', 'PKM', 'SQSTM1', 'DHRS7', 'S100A11', 'ARHGAP11A', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'DHRS3', 'ID2', 'CCNA2', 'PTRH2', 'PSMC1', 'NANS', 'SMC1A', 'PRDX4', 'CDCA3', 'SERPINE1', 'TUBA1B', 'TPX2', 'GAMT', 'RAP2B', 'ID3', 'PKMYT1', 'RRM2', 'NDUFA9', 'EIF3M', 'CYP1B1', 'PRSS3', 'AKAP12', 'INSIG1', 'UBE2S', 'TOB1', 'GOLIM4', 'TK1', 'NRDC', 'TOR1AIP2', 'CD55', 'RPS27', 'NUPR1', 'CCNB2', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'KANK1', 'UNC50', 'PSMC2', 'SGOL1', 'CTSL', 'CYB5A', 'PGD', 'NOL7', 'KRT18', 'TAGLN2', 'HLA-A', 'SKIL', 'IGFBP4', 'DUSP1', 'TP53I3', 'ITGB5', 'AKR1B10', 'ALDH2', 'KPNA2', 'RMI2', 'CAV1', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'RPL21', 'YWHAE', 'CDC123', 'LGMN', 'S100A6', 'ALDH1A1', 'DCAF13', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'PPP1R7', 'TUBA4A', 'CAV2', 'BLVRB', 'TRAM1', 'CALB2', 'ODC1', 'ZFAS1', 'AKR1C2', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SULT2B1', 'LRRC75A', 'SLC35F6', 'HMGB2', 'RAB3B', 'SFRP1', 'BIRC3', 'EIF1AY', 'LGALS3', 'RPL39', 'UBE2C', 'MYL6', 'MMD', 'B4GALT1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'SAT1', 'AHNAK', 'TIMP1', 'MYL12B', 'PSMD7', 'MT2A', 'LXN', 'ACAT1', 'NPTX1', 'SERPINB1', 'RAI14', 'PIF1', 'HMGCS1', 'PDLIM7', 'MGLL', 'SNRPF', 'CTTN', 'CES1', 'PDLIM5', 'UQCRQ', 'LAPTM4A', 'TNRC6B', 'GSTO1', 'VAMP8', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'CAPZA1', 'PDXK', 'NTS', 'KRT7', 'ZNF622', 'PSMC4', 'NDUFA12', 'BASP1', 'XRCC5', 'CPLX2', 'TUBB4B', 'RPL31', 'HOMER3', 'KYNU', 'RAB10', 'TSC22D1', 'ANXA1', 'ANXA4', 'KIF23', 'PTPRS', 'ABCG2', 'RPS18', 'CDKN2D', 'LACTB2', 'PPID', 'NDRG1', 'IRF2BP2', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'ITGA3', 'REEP5', 'NDUFC2', 'PDHB', 'DYNLL1', 'LITAF', 'HMGB3', 'BTG1', 'TALDO1', 'EEF1A1', 'HACD3', 'MAP1LC3B', 'RPS12', 'SMIM14', 'TMPO', 'FSCN1', 'CCNB1', 'PTP4A1', 'RIPK2', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'ADM', 'ITGB1', 'ARL6IP1', 'UCP2', 'S100A13', 'CDCA5', 'FSTL3', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'TSPAN14', 'LOXL2', 'HSPA8', 'EIF2S3', 'PMEPA1', 'RAD21', 'CD68', 'SUCLG1', 'PRSS23', 'SERPINE2', 'INPP1', 'GADD45B', 'FOS', 'AIMP2', 'RPL37A', 'CSRP1', 'NUDT19', 'HMOX1', 'FKBP11', 'ALG8', 'KRT8', 'CEBPB', 'GPX2', 'LMNA', 'CTNNB1', 'PUS1', 'SSB', 'INA', 'CTSH', 'REEP4', 'ALDH3A1', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'CYBA', 'TUBB', 'CENPF', 'INHBB', 'SLC12A2', 'TEAD4', 'NOLC1', 'ATP1B3', 'KRT81', 'GLRX3', 'FN1', 'DUSP5', 'ZFP36', 'ANP32A', 'COX7B', 'CDK1', 'FEN1', 'AURKA', 'RPL41', 'UQCR11', 'PPP1R14A', 'CD44', 'PSMD14', 'GAL3ST1', 'OAS1', 'LY6K', 'REXO2', 'TPPP3', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'PPP1R15A', 'ARHGAP29', 'PHACTR2', 'CRIP1', 'UQCRC2', 'PTPRF', 'NQO1', 'GPRC5A', 'PLAU', 'LBH', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'ANTXR1', 'GABRA5', 'ZFP36L1', 'TKT', 'TXN', 'PPP3CA', 'APOBEC3C', 'PLAUR', 'PRPS2', 'DNMBP', 'RND3', 'RPL38', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'PRAME', 'CENPA', 'SLBP', 'SMOX', 'HNRNPH1', 'AGR2', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'GIGYF1', 'LMO7', 'BCL2L1', 'STC2', 'CDC42EP1', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBR4', 'CRIP2', 'MUC3A', 'IMMP2L', 'NAMPT', 'ORMDL2', 'CCT8', 'HSP90B1', 'MFSD12', 'F12', 'AP1S2', 'CAPG', 'RILP', 'ATF4', 'EIF4A3', 'GCNT3', 'ECH1', 'RHOD', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'SPATS2', 'EIF3D', 'RAD51C', 'MNS1', 'PYCARD', 'SFN', 'ASPM', 'MYL12A', 'ELF3', 'STMN1', 'PHGDH', 'UCHL1', 'TUBA1C', 'ADA', 'DPM1', 'TRAPPC6A', 'COX7C', 'CHP1', 'CTNNAL1', 'PTTG1', 'RAP1GAP', 'TESC', 'AHNAK2', 'PPA2', 'RPS29', 'VIM', 'DOK4', 'HMMR', 'CNFN', 'FA2H', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'DDX39A', 'PSMA3', 'CDC25B', 'LDHB', 'RIN2', 'KRT19', 'CLU', 'BIRC5', 'ISG20', 'S100A16', 'ZFP36L2', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'GCLC', 'MRPS22', 'ATXN10', 'PRDX1', 'NNMT', 'PLK2', 'PIR', 'RPS24', 'CDC42']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA']]</t>
+          <t>[['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'HTP', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['HTP', 'ISS', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3350,12 +3350,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['RPL37A', 'SPP1', 'SFRP1', 'HILPDA', 'TUBA4A', 'SQSTM1', 'ATXN10', 'YWHAE', 'SLC3A2', 'CTSL', 'HSPA1A', 'SH3BGRL3', 'EIF3E', 'S100A10', 'SERPINE1', 'ALDH1A1', 'COL5A2', 'EEF1A1', 'AXL', 'ADM', 'FGFBP1', 'MYL12A', 'IGFBP7', 'CXCL5', 'CD44', 'STMN1', 'YARS', 'HSP90AB1', 'LOXL2', 'GPRC5A', 'RPS18', 'IGFBP3', 'TXNRD1', 'ITGB1', 'EIF2S3', 'HSPA2', 'BASP1', 'CXCL3', 'VAMP8', 'B4GALT1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'PGK1', 'PKM', 'LGALS3', 'CDK1', 'RPL31', 'SERPINE2', 'INSL4', 'S100A16', 'TIMP2', 'CD55', 'ACTG1', 'FN1', 'NCL', 'SLPI', 'SLC27A2', 'KRT7', 'CTSB', 'CAPN2', 'HSPD1', 'SLC26A2', 'PRSS23', 'GPX3', 'CCL2', 'STC2', 'CCT3', 'CDC42', 'ECH1', 'CTNNB1', 'HSPA5', 'PSMA4', 'ANXA1', 'PLAU', 'CCT2', 'TAGLN2', 'GCNT3', 'KRT81', 'FSCN1', 'NAMPT', 'PSMD7', 'PPP1R7', 'SFN', 'SLC7A5', 'FSTL3', 'AKR1B1', 'HSPA8', 'CCT7', 'NANS', 'SLC35F6', 'GSTO1', 'LDHB', 'ITGB5', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UPK1B', 'ACAT2', 'HMGB2', 'ACTB', 'CD63', 'ALDH3A1', 'PCNA', 'IGFBP6', 'RPL28', 'MTHFD2', 'PRDX4', 'CCT8', 'CAPG', 'UBC', 'B2M', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CTSH', 'HLA-A', 'GAL', 'HMOX1', 'CACYBP', 'CSRP1', 'INHBB', 'HSPE1', 'S100A6', 'CLU', 'LGMN', 'CD70', 'COTL1', 'S100A13', 'KRT19', 'PGD', 'NPC2', 'PDXK', 'VDAC3', 'NDRG1', 'RAP2B', 'TGFBI', 'KRT18', 'CAPZA1', 'TIMP1', 'TUBB4B', 'GLRX', 'CCT4', 'LXN', 'ATP1B1', 'RPL39', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'RPS29', 'ANXA2', 'F12', 'PRSS3', 'MYL12B', 'METRN', 'TXN', 'INA', 'VIM', 'MFGE8', 'BLVRB', 'S100A11', 'AGR2', 'EREG', 'LDHA', 'RAN', 'CCT5', 'DNAJC3', 'IGFBP4', 'SERPINB1', 'PTPRF', 'RAB10', 'CD9', 'RAB3B', 'RARRES1', 'PTPRS', 'PRDX1', 'MUC5AC', 'AHNAK', 'TALDO1', 'ENO1', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ACAT1', 'PCSK1N']</t>
+          <t>['ACTG1', 'MUC5AC', 'GLRX', 'GSN', 'AKR1C3', 'GAL', 'EREG', 'MARCKSL1', 'HSPA2', 'ATP1B1', 'PKM', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'NANS', 'PRDX4', 'SERPINE1', 'RAP2B', 'PRSS3', 'RARRES1', 'CD55', 'UBB', 'SLC3A2', 'CTSL', 'PGD', 'KRT18', 'TAGLN2', 'HLA-A', 'IGFBP4', 'ITGB5', 'ALDH2', 'CACYBP', 'IGFBP3', 'MTHFD2', 'YWHAE', 'LGMN', 'S100A6', 'ALDH1A1', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'PPP1R7', 'TUBA4A', 'BLVRB', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'HMGB2', 'RAB3B', 'SFRP1', 'LGALS3', 'RPL39', 'MYL6', 'B4GALT1', 'UBC', 'ACTB', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'LXN', 'ACAT1', 'SERPINB1', 'FGFBP1', 'GSTO1', 'VAMP8', 'SLPI', 'CAPZA1', 'PDXK', 'KRT7', 'BASP1', 'TUBB4B', 'RPL31', 'RAB10', 'ANXA1', 'ANXA4', 'PTPRS', 'RPS18', 'NDRG1', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'HILPDA', 'CCT4', 'ITGA3', 'TALDO1', 'EEF1A1', 'FSCN1', 'HSP90AB1', 'SH3BGRL3', 'ADM', 'METRN', 'ITGB1', 'AXL', 'S100A13', 'FSTL3', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'LOXL2', 'HSPA8', 'EIF2S3', 'UPK1B', 'PRSS23', 'SERPINE2', 'RPL37A', 'CSRP1', 'HMOX1', 'KRT8', 'CTNNB1', 'INA', 'CTSH', 'ALDH3A1', 'CCT2', 'TUBB', 'INHBB', 'SLC12A2', 'ATP1B3', 'KRT81', 'FN1', 'CDK1', 'CD44', 'CCL2', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'PCNA', 'TKT', 'TXN', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'AGR2', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'GPX3', 'CXCL5', 'CD70', 'STC2', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'NAMPT', 'CCT8', 'HSP90B1', 'F12', 'CAPG', 'GCNT3', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'SFN', 'MYL12A', 'STMN1', 'PHGDH', 'CHP1', 'RPS29', 'VIM', 'PSMA3', 'LDHB', 'KRT19', 'CLU', 'IGFBP6', 'S100A16', 'S100A10', 'ACAT2', 'CXCL3', 'NPC2', 'SLC27A2', 'B2M', 'INSL4', 'ATXN10', 'PRDX1', 'CDC42']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'IBA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'NDUFC2', 'RPL37A', 'SPP1', 'SFRP1', 'HILPDA', 'TUBA4A', 'SQSTM1', 'YWHAE', 'SLC3A2', 'CTSL', 'HSPA1A', 'SH3BGRL3', 'EIF3E', 'S100A10', 'SERPINE1', 'ANTXR1', 'ALDH1A1', 'NTS', 'EEF1A1', 'AXL', 'MYL12A', 'IGFBP7', 'CD44', 'STMN1', 'HSP90AB1', 'LY6K', 'GPRC5A', 'RPS18', 'RIN2', 'MFSD12', 'PHACTR2', 'TXNRD1', 'ITGB1', 'ADA', 'EIF2S3', 'HSPA2', 'BASP1', 'VAMP8', 'B4GALT1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'CD68', 'PGK1', 'PKM', 'LGALS3', 'CDK1', 'RPL31', 'SERPINE2', 'S100A16', 'TIMP2', 'CD55', 'ACTG1', 'FN1', 'NCL', 'SLPI', 'SLC27A2', 'KRT7', 'CTSB', 'CAPN2', 'DYNLL1', 'BCL2L1', 'HSPD1', 'SLC26A2', 'PRSS23', 'GPX3', 'LAPTM4A', 'CCT3', 'MMD', 'CDC42', 'TMSB4X', 'ECH1', 'CTNNB1', 'HSPA5', 'PSMA4', 'ANXA1', 'PLAU', 'CCT2', 'TAGLN2', 'GCNT3', 'FSCN1', 'CNIH4', 'NAMPT', 'SKIL', 'PSMD7', 'PPP1R7', 'SFN', 'SLC7A5', 'AKR1B1', 'RILP', 'HSPA8', 'CCT7', 'NANS', 'SLC35F6', 'GSTO1', 'LDHB', 'RHOD', 'ITGB5', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UPK1B', 'ACAT2', 'ACTB', 'CD63', 'PCNA', 'RPL28', 'PSMC2', 'PRDX4', 'CTTN', 'CCT8', 'CAPG', 'UBC', 'TUBA1C', 'GOLIM4', 'B2M', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CYBA', 'RIPK2', 'CTSH', 'HLA-A', 'GAL', 'CACYBP', 'CSRP1', 'MAP1LC3B', 'CAV2', 'HSPE1', 'S100A6', 'CLU', 'LGMN', 'CD70', 'CAV1', 'COTL1', 'KRT19', 'PGD', 'NPC2', 'PDXK', 'UBR4', 'VDAC3', 'PLAUR', 'NDRG1', 'RAP2B', 'TGFBI', 'KRT18', 'CAPZA1', 'TIMP1', 'RAP1GAP', 'TUBB4B', 'TSPAN14', 'GLRX', 'CCT4', 'ATP1B1', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'PTP4A1', 'RPS29', 'ANXA2', 'F12', 'PRSS3', 'MYL12B', 'TXN', 'VIM', 'MFGE8', 'BLVRB', 'S100A11', 'EREG', 'LDHA', 'RAN', 'CCT5', 'DNAJC3', 'SERPINB1', 'AP1S2', 'PTPRF', 'RAB10', 'PSMD14', 'CD9', 'RAB3B', 'RARRES1', 'PTPRS', 'PRDX1', 'MUC5AC', 'AHNAK', 'LITAF', 'TALDO1', 'NPTX1', 'ENO1', 'PYCARD', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ACAT1', 'PCSK1N', 'XRCC5']</t>
+          <t>['ACTG1', 'MUC5AC', 'GLRX', 'GSN', 'AKR1C3', 'GAL', 'TMSB4X', 'EREG', 'MARCKSL1', 'HSPA2', 'ATP1B1', 'CNIH4', 'PKM', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'NANS', 'PRDX4', 'SERPINE1', 'RAP2B', 'PRSS3', 'RARRES1', 'GOLIM4', 'CD55', 'UBB', 'SLC3A2', 'PSMC2', 'CTSL', 'PGD', 'KRT18', 'TAGLN2', 'HLA-A', 'SKIL', 'ITGB5', 'ALDH2', 'CAV1', 'CACYBP', 'YWHAE', 'LGMN', 'S100A6', 'ALDH1A1', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'PPP1R7', 'TUBA4A', 'CAV2', 'BLVRB', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'RAB3B', 'SFRP1', 'LGALS3', 'MYL6', 'MMD', 'B4GALT1', 'UBC', 'ACTB', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'ACAT1', 'NPTX1', 'SERPINB1', 'CTTN', 'LAPTM4A', 'GSTO1', 'VAMP8', 'SLPI', 'CAPZA1', 'PDXK', 'NTS', 'KRT7', 'BASP1', 'XRCC5', 'TUBB4B', 'RPL31', 'RAB10', 'ANXA1', 'ANXA4', 'PTPRS', 'RPS18', 'NDRG1', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'HILPDA', 'CCT4', 'ITGA3', 'NDUFC2', 'DYNLL1', 'LITAF', 'TALDO1', 'EEF1A1', 'MAP1LC3B', 'FSCN1', 'PTP4A1', 'RIPK2', 'HSP90AB1', 'SH3BGRL3', 'ITGB1', 'AXL', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'TSPAN14', 'HSPA8', 'EIF2S3', 'PMEPA1', 'CD68', 'UPK1B', 'PRSS23', 'SERPINE2', 'RPL37A', 'CSRP1', 'KRT8', 'CTNNB1', 'CTSH', 'CCT2', 'CYBA', 'TUBB', 'SLC12A2', 'ATP1B3', 'FN1', 'CDK1', 'CD44', 'PSMD14', 'LY6K', 'PHACTR2', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'PCNA', 'ANTXR1', 'TKT', 'TXN', 'PLAUR', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'CCT5', 'SLC7A5', 'RAN', 'NCL', 'MFGE8', 'GPX3', 'CD70', 'BCL2L1', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBR4', 'NAMPT', 'CCT8', 'HSP90B1', 'MFSD12', 'F12', 'AP1S2', 'CAPG', 'RILP', 'GCNT3', 'ECH1', 'RHOD', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'PYCARD', 'SFN', 'MYL12A', 'STMN1', 'PHGDH', 'TUBA1C', 'ADA', 'CHP1', 'RAP1GAP', 'RPS29', 'VIM', 'PSMA3', 'LDHB', 'RIN2', 'KRT19', 'CLU', 'S100A16', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'PRDX1', 'CDC42']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'TAS'], ['TAS'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['IDA', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'ISS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['IBA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['TAS']]</t>
+          <t>[['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['HDA'], ['IEA'], ['IDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'ISS'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'IBA', 'TAS'], ['HDA', 'IEA'], ['HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['NRP2', 'RPL37A', 'SPP1', 'SFRP1', 'HILPDA', 'TUBA4A', 'SQSTM1', 'ATXN10', 'YWHAE', 'SLC3A2', 'CTSL', 'HSPA1A', 'SH3BGRL3', 'EIF3E', 'S100A10', 'SERPINE1', 'ALDH1A1', 'NTS', 'COL5A2', 'EEF1A1', 'AXL', 'ADM', 'FGFBP1', 'MYL12A', 'IGFBP7', 'CXCL5', 'CD44', 'STMN1', 'YARS', 'MDK', 'HSP90AB1', 'LY6K', 'LOXL2', 'GPRC5A', 'RPS18', 'CCDC80', 'IGFBP3', 'TXNRD1', 'ITGB1', 'EIF2S3', 'HSPA2', 'BASP1', 'CXCL3', 'VAMP8', 'B4GALT1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'PGK1', 'PKM', 'LGALS3', 'CDK1', 'RPL31', 'SERPINE2', 'INSL4', 'S100A16', 'TIMP2', 'CD55', 'ACTG1', 'FN1', 'NCL', 'SLPI', 'SLC27A2', 'KRT7', 'CTSB', 'CAPN2', 'EVA1C', 'HSPD1', 'SLC26A2', 'PRSS23', 'GPX3', 'CCL2', 'STC2', 'CCT3', 'CDC42', 'TMSB4X', 'OAS1', 'ECH1', 'CTNNB1', 'HSPA5', 'PSMA4', 'ANXA1', 'PLAU', 'CCT2', 'TAGLN2', 'GCNT3', 'KRT81', 'FSCN1', 'NAMPT', 'PSMD7', 'PPP1R7', 'SFN', 'SLC7A5', 'FSTL3', 'AKR1B1', 'HSPA8', 'CCT7', 'NANS', 'SLC35F6', 'GSTO1', 'LDHB', 'ITGB5', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UPK1B', 'ACAT2', 'HMGB2', 'ACTB', 'CD63', 'ALDH3A1', 'PCNA', 'AKR1B10', 'IGFBP6', 'RPL28', 'MTHFD2', 'PSMC2', 'PRDX4', 'CCT8', 'CAPG', 'UBC', 'B2M', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CTSH', 'HLA-A', 'GAL', 'HMOX1', 'CACYBP', 'C1orf56', 'CSRP1', 'INHBB', 'HSPE1', 'S100A6', 'CLU', 'LGMN', 'CD70', 'MUC3A', 'COTL1', 'S100A13', 'KRT19', 'PGD', 'NPC2', 'PDXK', 'RSPO3', 'VDAC3', 'PLAUR', 'NDRG1', 'RAP2B', 'TGFBI', 'KRT18', 'CAPZA1', 'TIMP1', 'TUBB4B', 'GLRX', 'CCT4', 'LXN', 'ATP1B1', 'RPL39', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'RPS29', 'ANXA2', 'F12', 'PRSS3', 'MYL12B', 'METRN', 'TXN', 'INA', 'VIM', 'MFGE8', 'BLVRB', 'S100A11', 'AGR2', 'EREG', 'LDHA', 'RAN', 'CCT5', 'DNAJC3', 'IGFBP4', 'SERPINB1', 'PTPRF', 'RAB10', 'PSMD14', 'CD9', 'RAB3B', 'RARRES1', 'PTPRS', 'PRDX1', 'MUC5AC', 'AHNAK', 'TALDO1', 'NPTX1', 'ENO1', 'PYCARD', 'CRIM1', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'ACAT1', 'PCSK1N', 'XRCC5']</t>
+          <t>['ACTG1', 'MUC5AC', 'GLRX', 'GSN', 'AKR1C3', 'GAL', 'TMSB4X', 'EREG', 'MARCKSL1', 'HSPA2', 'ATP1B1', 'PKM', 'SQSTM1', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'NANS', 'PRDX4', 'SERPINE1', 'RAP2B', 'PRSS3', 'RARRES1', 'CD55', 'UBB', 'SLC3A2', 'PSMC2', 'CTSL', 'PGD', 'KRT18', 'TAGLN2', 'HLA-A', 'IGFBP4', 'ITGB5', 'AKR1B10', 'ALDH2', 'CACYBP', 'IGFBP3', 'MTHFD2', 'YWHAE', 'LGMN', 'CCDC80', 'S100A6', 'ALDH1A1', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'PPP1R7', 'TUBA4A', 'BLVRB', 'MDK', 'TXNRD1', 'SULT2B1', 'SLC35F6', 'HMGB2', 'RAB3B', 'SFRP1', 'LGALS3', 'RPL39', 'MYL6', 'B4GALT1', 'UBC', 'ACTB', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'LXN', 'ACAT1', 'NPTX1', 'SERPINB1', 'FGFBP1', 'GSTO1', 'VAMP8', 'SLPI', 'CAPZA1', 'PDXK', 'NTS', 'KRT7', 'BASP1', 'XRCC5', 'TUBB4B', 'RPL31', 'RAB10', 'ANXA1', 'ANXA4', 'PTPRS', 'RPS18', 'NDRG1', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'HILPDA', 'CCT4', 'ITGA3', 'CRIM1', 'TALDO1', 'EEF1A1', 'FSCN1', 'HSP90AB1', 'SH3BGRL3', 'ADM', 'METRN', 'ITGB1', 'AXL', 'S100A13', 'FSTL3', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'LOXL2', 'HSPA8', 'EIF2S3', 'UPK1B', 'PRSS23', 'SERPINE2', 'RPL37A', 'CSRP1', 'HMOX1', 'KRT8', 'CTNNB1', 'INA', 'CTSH', 'ALDH3A1', 'CCT2', 'TUBB', 'INHBB', 'SLC12A2', 'ATP1B3', 'KRT81', 'FN1', 'CDK1', 'CD44', 'CCL2', 'PSMD14', 'OAS1', 'LY6K', 'PTPRF', 'GPRC5A', 'PLAU', 'ANXA2', 'AKR1B1', 'PCNA', 'TKT', 'TXN', 'PLAUR', 'C1orf56', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'EVA1C', 'AGR2', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'GPX3', 'CXCL5', 'CD70', 'STC2', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'MUC3A', 'NAMPT', 'CCT8', 'HSP90B1', 'F12', 'CAPG', 'GCNT3', 'ECH1', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'PYCARD', 'SFN', 'MYL12A', 'STMN1', 'PHGDH', 'CHP1', 'RPS29', 'VIM', 'NRP2', 'RSPO3', 'PSMA3', 'LDHB', 'KRT19', 'CLU', 'IGFBP6', 'S100A16', 'S100A10', 'ACAT2', 'CXCL3', 'NPC2', 'SLC27A2', 'B2M', 'INSL4', 'ATXN10', 'PRDX1', 'CDC42']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['IDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['TAS']]</t>
+          <t>[['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IBA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['NAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['UQCRC2', 'NOL11', 'RMI2', 'RPS12', 'SPP1', 'HILPDA', 'NEAT1', 'SQSTM1', 'INO80C', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'HSPA1A', 'TESC', 'SH3BGRL3', 'EIF3E', 'PIF1', 'S100A10', 'UBE2S', 'SERPINE1', 'ISG20', 'CCND1', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'IGFBP7', 'YARS', 'HSP90AB1', 'NUP37', 'LOXL2', 'GPRC5A', 'RPS18', 'SMC1A', 'HNRNPH1', 'IGFBP3', 'TXNRD1', 'ADA', 'HSPA2', 'BASP1', 'SGOL1', 'RPS28', 'KRT8', 'HSP90AA1', 'MSH6', 'PKM', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'MKI67', 'CCNB1', 'ID3', 'SMOX', 'ELF3', 'FN1', 'DCAF13', 'NCL', 'IRF2BP2', 'SLPI', 'SLC27A2', 'PLK1', 'CTSB', 'UCHL1', 'NPM1', 'BCL2L1', 'HSPD1', 'NUF2', 'PRSS23', 'GINS2', 'NDUFA9', 'NUDT19', 'SET', 'RAI14', 'STC2', 'NRDC', 'DDX21', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HSPA5', 'PSMA4', 'EGR1', 'ANXA1', 'TOP2A', 'CCT2', 'NUPR1', 'KIF23', 'PSMC4', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'FSTL3', 'AKR1B1', 'SNRPF', 'HSPA8', 'KPNA2', 'DKC1', 'SLC35F6', 'REXO2', 'TRIB3', 'CDKN2D', 'HSP90B1', 'GSN', 'PPP1CB', 'UHRF1', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'CD63', 'PCNA', 'ABCG2', 'KYNU', 'MTHFD2', 'CEBPB', 'NOC3L', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'NOL7', 'CCT8', 'CCNA2', 'CES1', 'CAPG', 'UBC', 'RPS24', 'ORC5', 'GOLIM4', 'B2M', 'MRPS22', 'PSMC1', 'UBB', 'ALDH2', 'S100A4', 'TNRC6B', 'PDHB', 'CTSH', 'SRP54', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'HSPE1', 'ANKRD1', 'CLU', 'LGMN', 'CDC25B', 'MUC3A', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'BTG1', 'COTL1', 'S100A13', 'NFKBIE', 'FOSL1', 'NPC2', 'PDXK', 'UBR4', 'PLAUR', 'KLF6', 'RBM8A', 'LACTB2', 'CKS1B', 'TMEM92', 'PUS1', 'KRT18', 'FBXO5', 'TIMP1', 'TUBB4B', 'TSPAN14', 'CCT4', 'HOXB8', 'TPX2', 'AURKA', 'RPL39', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'ZNF622', 'RPS29', 'ANXA2', 'PKMYT1', 'PRSS3', 'TEAD4', 'UTP6', 'TXN', 'ID1', 'PLRG1', 'UTP18', 'ZFAS1', 'RRS1', 'VIM', 'CBX6', 'STK17A', 'MFGE8', 'BLVRB', 'FAM64A', 'PPID', 'BIRC3', 'CDC20', 'TERF1', 'S100A11', 'PIR', 'PPA2', 'MYBL2', 'RAN', 'DNAJC3', 'IGFBP4', 'DDX39A', 'SERPINB1', 'RPS27', 'PSMD14', 'AURKB', 'SDHB', 'ID2', 'MUC5AC', 'LITAF', 'RAD21', 'ATF4', 'MORC4', 'ASF1A', 'UBE2C', 'PYCARD', 'UPP1', 'TUBB', 'LGALS1', 'CDCA5', 'PDLIM7', 'ACAT1', 'NAA15', 'PRMT1', 'XRCC5']</t>
+          <t>['MUC5AC', 'GPX1', 'RBM8A', 'NUCKS1', 'GSN', 'TSFM', 'DKC1', 'TOP2A', 'TMSB4X', 'FBXO5', 'DDX21', 'NOC3L', 'MCM7', 'HSPA2', 'CCND3', 'PLRG1', 'ID1', 'TRIB3', 'PKM', 'SQSTM1', 'S100A11', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'UTP18', 'ID2', 'CCNA2', 'PSMC1', 'SMC1A', 'PRDX4', 'SERPINE1', 'TPX2', 'ID3', 'PKMYT1', 'NDUFA9', 'PRSS3', 'UBE2S', 'GOLIM4', 'NRDC', 'RPS27', 'NUPR1', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'PSMC2', 'SGOL1', 'CTSL', 'NOL7', 'KRT18', 'SKIL', 'IGFBP4', 'NOL11', 'ALDH2', 'KPNA2', 'RMI2', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'LGMN', 'DCAF13', 'DNAJC3', 'TIMP2', 'ASF1A', 'BLVRB', 'ZFAS1', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SLC35F6', 'HMGB2', 'BIRC3', 'LGALS3', 'RPL39', 'UBE2C', 'FOSL1', 'NEAT1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'TIMP1', 'PSMD7', 'ACAT1', 'SERPINB1', 'RAI14', 'PIF1', 'PDLIM7', 'SNRPF', 'CES1', 'TNRC6B', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'PDXK', 'ZNF622', 'CBX6', 'PSMC4', 'BASP1', 'XRCC5', 'TUBB4B', 'HOXB8', 'KYNU', 'ANXA1', 'MORC4', 'KIF23', 'ABCG2', 'RPS18', 'CDKN2D', 'LACTB2', 'PPID', 'INO80C', 'IRF2BP2', 'PA2G4', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'PDHB', 'LITAF', 'BTG1', 'EEF1A1', 'RPS12', 'CCNB1', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'S100A13', 'CDCA5', 'FSTL3', 'HSPA1A', 'CTSB', 'HSPD1', 'FAM64A', 'TSPAN14', 'LOXL2', 'HSPA8', 'RAD21', 'SUCLG1', 'PRSS23', 'FOS', 'NUDT19', 'HMOX1', 'KRT8', 'CEBPB', 'LMNA', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'CTSH', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'GINS2', 'TUBB', 'CENPF', 'TEAD4', 'NOLC1', 'FN1', 'DUSP5', 'ANP32A', 'CDK1', 'FEN1', 'AURKA', 'PSMD14', 'OAS1', 'REXO2', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'UQCRC2', 'GPRC5A', 'ANXA2', 'AKR1B1', 'PCNA', 'GABRA5', 'TKT', 'TXN', 'PPP3CA', 'PLAUR', 'MKI67', 'RPS28', 'PPP1CB', 'HSPA5', 'YARS', 'PRAME', 'CENPA', 'SLBP', 'SMOX', 'HNRNPH1', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'BCL2L1', 'STC2', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBR4', 'MUC3A', 'NAMPT', 'CKS1B', 'CCT8', 'HSP90B1', 'CAPG', 'ATF4', 'EIF4A3', 'ECH1', 'HSP90AA1', 'TMEM92', 'HSPE1', 'RAD51C', 'PYCARD', 'ELF3', 'UCHL1', 'UTP6', 'ADA', 'TESC', 'STK17A', 'PPA2', 'RPS29', 'VIM', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'DDX39A', 'PSMA3', 'CDC25B', 'CLU', 'BIRC5', 'ISG20', 'S100A16', 'S100A10', 'NPC2', 'SLC27A2', 'B2M', 'MRPS22', 'PIR', 'RPS24', 'UHRF1']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['NAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'ISS', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'NAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS', 'NAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA']]</t>
+          <t>[['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['TAS', 'NAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'NAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'NAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3614,12 +3614,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['UQCRC2', 'NOL11', 'RMI2', 'RPS12', 'SPP1', 'HILPDA', 'NEAT1', 'SQSTM1', 'INO80C', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'HSPA1A', 'TESC', 'SH3BGRL3', 'EIF3E', 'PIF1', 'S100A10', 'UBE2S', 'SERPINE1', 'ISG20', 'CCND1', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'IGFBP7', 'YARS', 'HSP90AB1', 'NUP37', 'LOXL2', 'GPRC5A', 'RPS18', 'SMC1A', 'HNRNPH1', 'IGFBP3', 'TXNRD1', 'ADA', 'HSPA2', 'BASP1', 'SGOL1', 'RPS28', 'KRT8', 'HSP90AA1', 'MSH6', 'PKM', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'MKI67', 'CCNB1', 'ID3', 'SMOX', 'ELF3', 'FN1', 'DCAF13', 'NCL', 'IRF2BP2', 'SLPI', 'SLC27A2', 'PLK1', 'CTSB', 'UCHL1', 'NPM1', 'BCL2L1', 'HSPD1', 'NUF2', 'PRSS23', 'GINS2', 'NDUFA9', 'NUDT19', 'SET', 'RAI14', 'STC2', 'NRDC', 'DDX21', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HSPA5', 'PSMA4', 'EGR1', 'ANXA1', 'TOP2A', 'CCT2', 'NUPR1', 'KIF23', 'PSMC4', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'FSTL3', 'AKR1B1', 'SNRPF', 'HSPA8', 'KPNA2', 'DKC1', 'SLC35F6', 'REXO2', 'TRIB3', 'CDKN2D', 'HSP90B1', 'GSN', 'PPP1CB', 'UHRF1', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'CD63', 'PCNA', 'ABCG2', 'KYNU', 'MTHFD2', 'CEBPB', 'NOC3L', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'NOL7', 'CCT8', 'CCNA2', 'CES1', 'CAPG', 'UBC', 'RPS24', 'ORC5', 'GOLIM4', 'B2M', 'MRPS22', 'PSMC1', 'UBB', 'ALDH2', 'S100A4', 'TNRC6B', 'PDHB', 'CTSH', 'SRP54', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'HSPE1', 'ANKRD1', 'CLU', 'LGMN', 'CDC25B', 'MUC3A', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'BTG1', 'COTL1', 'S100A13', 'NFKBIE', 'FOSL1', 'NPC2', 'PDXK', 'UBR4', 'PLAUR', 'KLF6', 'RBM8A', 'LACTB2', 'CKS1B', 'TMEM92', 'PUS1', 'KRT18', 'FBXO5', 'TIMP1', 'TUBB4B', 'TSPAN14', 'CCT4', 'HOXB8', 'TPX2', 'AURKA', 'RPL39', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'ZNF622', 'RPS29', 'ANXA2', 'PKMYT1', 'PRSS3', 'TEAD4', 'UTP6', 'TXN', 'ID1', 'PLRG1', 'UTP18', 'ZFAS1', 'RRS1', 'VIM', 'CBX6', 'STK17A', 'MFGE8', 'BLVRB', 'FAM64A', 'PPID', 'BIRC3', 'CDC20', 'TERF1', 'S100A11', 'PIR', 'PPA2', 'MYBL2', 'RAN', 'DNAJC3', 'IGFBP4', 'DDX39A', 'SERPINB1', 'RPS27', 'PSMD14', 'AURKB', 'SDHB', 'ID2', 'MUC5AC', 'LITAF', 'RAD21', 'ATF4', 'MORC4', 'ASF1A', 'UBE2C', 'PYCARD', 'UPP1', 'TUBB', 'LGALS1', 'CDCA5', 'PDLIM7', 'ACAT1', 'NAA15', 'PRMT1', 'XRCC5']</t>
+          <t>['MUC5AC', 'GPX1', 'RBM8A', 'NUCKS1', 'GSN', 'TSFM', 'DKC1', 'TOP2A', 'TMSB4X', 'FBXO5', 'DDX21', 'NOC3L', 'MCM7', 'HSPA2', 'CCND3', 'PLRG1', 'ID1', 'TRIB3', 'PKM', 'SQSTM1', 'S100A11', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'UTP18', 'ID2', 'CCNA2', 'PSMC1', 'SMC1A', 'PRDX4', 'SERPINE1', 'TPX2', 'ID3', 'PKMYT1', 'NDUFA9', 'PRSS3', 'UBE2S', 'GOLIM4', 'NRDC', 'RPS27', 'NUPR1', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'PSMC2', 'SGOL1', 'CTSL', 'NOL7', 'KRT18', 'SKIL', 'IGFBP4', 'NOL11', 'ALDH2', 'KPNA2', 'RMI2', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'LGMN', 'DCAF13', 'DNAJC3', 'TIMP2', 'ASF1A', 'BLVRB', 'ZFAS1', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SLC35F6', 'HMGB2', 'BIRC3', 'LGALS3', 'RPL39', 'UBE2C', 'FOSL1', 'NEAT1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'TIMP1', 'PSMD7', 'ACAT1', 'SERPINB1', 'RAI14', 'PIF1', 'PDLIM7', 'SNRPF', 'CES1', 'TNRC6B', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'PDXK', 'ZNF622', 'CBX6', 'PSMC4', 'BASP1', 'XRCC5', 'TUBB4B', 'HOXB8', 'KYNU', 'ANXA1', 'MORC4', 'KIF23', 'ABCG2', 'RPS18', 'CDKN2D', 'LACTB2', 'PPID', 'INO80C', 'IRF2BP2', 'PA2G4', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'PDHB', 'LITAF', 'BTG1', 'EEF1A1', 'RPS12', 'CCNB1', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'S100A13', 'CDCA5', 'FSTL3', 'HSPA1A', 'CTSB', 'HSPD1', 'FAM64A', 'TSPAN14', 'LOXL2', 'HSPA8', 'RAD21', 'SUCLG1', 'PRSS23', 'FOS', 'NUDT19', 'HMOX1', 'KRT8', 'CEBPB', 'LMNA', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'CTSH', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'GINS2', 'TUBB', 'CENPF', 'TEAD4', 'NOLC1', 'FN1', 'DUSP5', 'ANP32A', 'CDK1', 'FEN1', 'AURKA', 'PSMD14', 'OAS1', 'REXO2', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'UQCRC2', 'GPRC5A', 'ANXA2', 'AKR1B1', 'PCNA', 'GABRA5', 'TKT', 'TXN', 'PPP3CA', 'PLAUR', 'MKI67', 'RPS28', 'PPP1CB', 'HSPA5', 'YARS', 'PRAME', 'CENPA', 'SLBP', 'SMOX', 'HNRNPH1', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'BCL2L1', 'STC2', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBR4', 'MUC3A', 'NAMPT', 'CKS1B', 'CCT8', 'HSP90B1', 'CAPG', 'ATF4', 'EIF4A3', 'ECH1', 'HSP90AA1', 'TMEM92', 'HSPE1', 'RAD51C', 'PYCARD', 'ELF3', 'UCHL1', 'UTP6', 'ADA', 'TESC', 'STK17A', 'PPA2', 'RPS29', 'VIM', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'DDX39A', 'PSMA3', 'CDC25B', 'CLU', 'BIRC5', 'ISG20', 'S100A16', 'S100A10', 'NPC2', 'SLC27A2', 'B2M', 'MRPS22', 'PIR', 'RPS24', 'UHRF1']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['NAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'ISS', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'NAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS', 'NAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA']]</t>
+          <t>[['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['TAS', 'NAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'NAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'NAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['UQCRC2', 'NOL11', 'RMI2', 'RPS12', 'SPP1', 'HILPDA', 'NEAT1', 'SQSTM1', 'INO80C', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'HSPA1A', 'TESC', 'SH3BGRL3', 'EIF3E', 'PIF1', 'S100A10', 'UBE2S', 'SERPINE1', 'ISG20', 'CCND1', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'IGFBP7', 'YARS', 'HSP90AB1', 'NUP37', 'LOXL2', 'GPRC5A', 'RPS18', 'SMC1A', 'HNRNPH1', 'IGFBP3', 'TXNRD1', 'ADA', 'HSPA2', 'BASP1', 'SGOL1', 'RPS28', 'KRT8', 'HSP90AA1', 'MSH6', 'PKM', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'MKI67', 'CCNB1', 'ID3', 'SMOX', 'ELF3', 'FN1', 'DCAF13', 'NCL', 'IRF2BP2', 'SLPI', 'SLC27A2', 'PLK1', 'CTSB', 'UCHL1', 'NPM1', 'BCL2L1', 'HSPD1', 'NUF2', 'PRSS23', 'GINS2', 'NDUFA9', 'NUDT19', 'SET', 'RAI14', 'STC2', 'NRDC', 'DDX21', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HSPA5', 'PSMA4', 'EGR1', 'ANXA1', 'TOP2A', 'CCT2', 'NUPR1', 'KIF23', 'PSMC4', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'FSTL3', 'AKR1B1', 'SNRPF', 'HSPA8', 'KPNA2', 'DKC1', 'SLC35F6', 'REXO2', 'TRIB3', 'CDKN2D', 'HSP90B1', 'GSN', 'PPP1CB', 'UHRF1', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'CD63', 'PCNA', 'ABCG2', 'KYNU', 'MTHFD2', 'CEBPB', 'NOC3L', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'NOL7', 'CCT8', 'CCNA2', 'CES1', 'CAPG', 'UBC', 'RPS24', 'ORC5', 'GOLIM4', 'B2M', 'MRPS22', 'PSMC1', 'UBB', 'ALDH2', 'S100A4', 'TNRC6B', 'PDHB', 'CTSH', 'SRP54', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'HSPE1', 'ANKRD1', 'CLU', 'LGMN', 'CDC25B', 'MUC3A', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'BTG1', 'COTL1', 'S100A13', 'NFKBIE', 'FOSL1', 'NPC2', 'PDXK', 'UBR4', 'PLAUR', 'KLF6', 'RBM8A', 'LACTB2', 'CKS1B', 'TMEM92', 'PUS1', 'KRT18', 'FBXO5', 'TIMP1', 'TUBB4B', 'TSPAN14', 'CCT4', 'HOXB8', 'TPX2', 'AURKA', 'RPL39', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'ZNF622', 'RPS29', 'ANXA2', 'PKMYT1', 'PRSS3', 'TEAD4', 'UTP6', 'TXN', 'ID1', 'PLRG1', 'UTP18', 'ZFAS1', 'RRS1', 'VIM', 'CBX6', 'STK17A', 'MFGE8', 'BLVRB', 'FAM64A', 'PPID', 'BIRC3', 'CDC20', 'TERF1', 'S100A11', 'PIR', 'PPA2', 'MYBL2', 'RAN', 'DNAJC3', 'IGFBP4', 'DDX39A', 'SERPINB1', 'RPS27', 'PSMD14', 'AURKB', 'SDHB', 'ID2', 'MUC5AC', 'LITAF', 'RAD21', 'ATF4', 'MORC4', 'ASF1A', 'UBE2C', 'PYCARD', 'UPP1', 'TUBB', 'LGALS1', 'CDCA5', 'PDLIM7', 'ACAT1', 'NAA15', 'PRMT1', 'XRCC5']</t>
+          <t>['MUC5AC', 'GPX1', 'RBM8A', 'NUCKS1', 'GSN', 'TSFM', 'DKC1', 'TOP2A', 'TMSB4X', 'FBXO5', 'DDX21', 'NOC3L', 'MCM7', 'HSPA2', 'CCND3', 'PLRG1', 'ID1', 'TRIB3', 'PKM', 'SQSTM1', 'S100A11', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'UTP18', 'ID2', 'CCNA2', 'PSMC1', 'SMC1A', 'PRDX4', 'SERPINE1', 'TPX2', 'ID3', 'PKMYT1', 'NDUFA9', 'PRSS3', 'UBE2S', 'GOLIM4', 'NRDC', 'RPS27', 'NUPR1', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'PSMC2', 'SGOL1', 'CTSL', 'NOL7', 'KRT18', 'SKIL', 'IGFBP4', 'NOL11', 'ALDH2', 'KPNA2', 'RMI2', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'LGMN', 'DCAF13', 'DNAJC3', 'TIMP2', 'ASF1A', 'BLVRB', 'ZFAS1', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SLC35F6', 'HMGB2', 'BIRC3', 'LGALS3', 'RPL39', 'UBE2C', 'FOSL1', 'NEAT1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'TIMP1', 'PSMD7', 'ACAT1', 'SERPINB1', 'RAI14', 'PIF1', 'PDLIM7', 'SNRPF', 'CES1', 'TNRC6B', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'PDXK', 'ZNF622', 'CBX6', 'PSMC4', 'BASP1', 'XRCC5', 'TUBB4B', 'HOXB8', 'KYNU', 'ANXA1', 'MORC4', 'KIF23', 'ABCG2', 'RPS18', 'CDKN2D', 'LACTB2', 'PPID', 'INO80C', 'IRF2BP2', 'PA2G4', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'PDHB', 'LITAF', 'BTG1', 'EEF1A1', 'RPS12', 'CCNB1', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'S100A13', 'CDCA5', 'FSTL3', 'HSPA1A', 'CTSB', 'HSPD1', 'FAM64A', 'TSPAN14', 'LOXL2', 'HSPA8', 'RAD21', 'SUCLG1', 'PRSS23', 'FOS', 'NUDT19', 'HMOX1', 'KRT8', 'CEBPB', 'LMNA', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'CTSH', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'GINS2', 'TUBB', 'CENPF', 'TEAD4', 'NOLC1', 'FN1', 'DUSP5', 'ANP32A', 'CDK1', 'FEN1', 'AURKA', 'PSMD14', 'OAS1', 'REXO2', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'UQCRC2', 'GPRC5A', 'ANXA2', 'AKR1B1', 'PCNA', 'GABRA5', 'TKT', 'TXN', 'PPP3CA', 'PLAUR', 'MKI67', 'RPS28', 'PPP1CB', 'HSPA5', 'YARS', 'PRAME', 'CENPA', 'SLBP', 'SMOX', 'HNRNPH1', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'BCL2L1', 'STC2', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBR4', 'MUC3A', 'NAMPT', 'CKS1B', 'CCT8', 'HSP90B1', 'CAPG', 'ATF4', 'EIF4A3', 'ECH1', 'HSP90AA1', 'TMEM92', 'HSPE1', 'RAD51C', 'PYCARD', 'ELF3', 'UCHL1', 'UTP6', 'ADA', 'TESC', 'STK17A', 'PPA2', 'RPS29', 'VIM', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'DDX39A', 'PSMA3', 'CDC25B', 'CLU', 'BIRC5', 'ISG20', 'S100A16', 'S100A10', 'NPC2', 'SLC27A2', 'B2M', 'MRPS22', 'PIR', 'RPS24', 'UHRF1']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['NAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'ISS', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'NAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS', 'NAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA']]</t>
+          <t>[['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['TAS', 'NAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'NAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'NAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['RMI2', 'INO80C', 'JADE1', 'PIF1', 'ISG20', 'RAD51C', 'HSP90AB1', 'SMC1A', 'HSP90AA1', 'MSH6', 'CDK1', 'ID3', 'TK1', 'PLK1', 'DYNLL1', 'NPM1', 'HSPD1', 'GINS2', 'CYP1B1', 'SET', 'CCT3', 'CDC42', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'TOP2A', 'CCT2', 'GTPBP4', 'APOBEC3C', 'CCT7', 'KPNA2', 'DKC1', 'REXO2', 'CDKN2D', 'UHRF1', 'PTTG1', 'HMGB2', 'ACTB', 'PCNA', 'NOC3L', 'LMNA', 'CCT8', 'CCNA2', 'ORC5', 'ANKRD1', 'CENPF', 'FBXO5', 'CCT4', 'HMGB3', 'TERF1', 'S100A11', 'EREG', 'RAN', 'CCT5', 'PSMD14', 'AURKB', 'RAD21', 'ASF1A', 'CDCA5', 'PRMT1', 'XRCC5']</t>
+          <t>['NUCKS1', 'DKC1', 'TOP2A', 'FBXO5', 'NOC3L', 'EREG', 'MCM7', 'S100A11', 'CCNA2', 'SMC1A', 'ID3', 'CYP1B1', 'TK1', 'JADE1', 'KPNA2', 'RMI2', 'TERF1', 'ASF1A', 'ORC5', 'HMGB2', 'ACTB', 'NPM1', 'PIF1', 'ANKRD1', 'XRCC5', 'CDKN2D', 'INO80C', 'CCT7', 'CCT3', 'CCT4', 'DYNLL1', 'HMGB3', 'HSP90AB1', 'PLK1', 'CDCA5', 'HSPD1', 'RAD21', 'LMNA', 'CTNNB1', 'CCT2', 'GINS2', 'CENPF', 'CDK1', 'FEN1', 'PSMD14', 'REXO2', 'GTPBP4', 'PCNA', 'APOBEC3C', 'CCT5', 'RAN', 'HMGA1', 'CCT8', 'HSP90AA1', 'RAD51C', 'PTTG1', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'ISG20', 'CDC42', 'UHRF1']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'IEA'], ['IMP', 'ISO', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IBA'], ['IMP'], ['TAS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'NAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISO', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['ISS'], ['IDA'], ['IDA'], ['IMP', 'IBA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['TAS'], ['IDA'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IBA'], ['IEA'], ['TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['MAP1B', 'EIF3D', 'NRP2', 'NDUFC2', 'UQCRC2', 'NOL11', 'RMI2', 'RPL37A', 'RPS12', 'INO80C', 'SLC3A2', 'JADE1', 'HSPA1A', 'GLRX3', 'EIF3E', 'S100A10', 'UBE2S', 'SERPINE1', 'CCNB2', 'CCND1', 'COL5A2', 'RAD51C', 'EEF1A1', 'AXL', 'MYL12A', 'SSB', 'COX7C', 'CD44', 'HSP90AB1', 'NUP37', 'GPRC5A', 'RPS18', 'SMC1A', 'HNRNPH1', 'PDLIM5', 'IGFBP3', 'ITGB1', 'EIF2S3', 'CACNG6', 'HSPA2', 'BASP1', 'VAMP8', 'B4GALT1', 'EIF3M', 'INSIG1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'TRAPPC6A', 'MSH6', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'RPL31', 'PRAME', 'EIF4A3', 'CCNB1', 'ACTG1', 'FN1', 'DCAF13', 'NCL', 'PLK1', 'CTSB', 'CAPN2', 'DYNLL1', 'NPM1', 'EPHA2', 'BCL2L1', 'HSPD1', 'NUF2', 'GINS2', 'CKS2', 'NDUFA9', 'SET', 'CCT3', 'CDC42', 'DDX21', 'PPP3CA', 'MCM7', 'FEN1', 'HMGA1', 'CTNNB1', 'HSPA5', 'PSMA4', 'NDUFA12', 'PLAU', 'TOP2A', 'CCT2', 'NUPR1', 'KIF23', 'PSMC4', 'ORMDL2', 'SKIL', 'PSMD7', 'SLC7A5', 'RILP', 'SNRPF', 'HSPA8', 'CCT7', 'KPNA2', 'DKC1', 'KCNMA1', 'MZT1', 'LDHB', 'CDKN2D', 'ITGB5', 'HSP90B1', 'ATP1B3', 'PPP1CB', 'PRPS2', 'TOB1', 'DPM1', 'HMGB2', 'ACTB', 'SUCLG1', 'PCNA', 'IGFBP6', 'RPL28', 'CEBPB', 'CCND3', 'BIRC5', 'PSMC2', 'CTTN', 'NOL7', 'CCT8', 'CCNA2', 'CAPG', 'RPS24', 'ORC5', 'ARL6IP1', 'RRM2', 'B2M', 'MRPS22', 'ZFP36L2', 'RPL38', 'PSMC1', 'MYL6', 'CYBA', 'RIPK2', 'PDHB', 'HLA-A', 'SRP54', 'FOS', 'CACYBP', 'ARHGAP29', 'CAV2', 'ANKRD1', 'CLU', 'CYB5B', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'CAV1', 'LBH', 'FOSL1', 'VDAC3', 'PLAUR', 'AIMP2', 'RBM8A', 'RPL21', 'CKS1B', 'CAPZA1', 'TIMP1', 'ZFP36', 'CCT4', 'RPL41', 'AURKA', 'ATP1B1', 'GNG11', 'RPL39', 'SLBP', 'PA2G4', 'PSMA3', 'ITGA3', 'ZNF622', 'RPS29', 'ANXA2', 'MYL12B', 'TEAD4', 'UTP6', 'ZFP36L1', 'PLRG1', 'UTP18', 'RRS1', 'EMC7', 'CBX6', 'IMMP2L', 'GIGYF1', 'UQCRQ', 'BIRC3', 'CDC20', 'TERF1', 'LDHA', 'CPLX2', 'MYBL2', 'RAN', 'PPP1R15A', 'CCT5', 'AP1S2', 'RAB10', 'RPS27', 'PSMD14', 'CD9', 'GCLC', 'AURKB', 'SDHB', 'ID2', 'AHNAK', 'RAD21', 'ATF4', 'ASF1A', 'ENO1', 'UBE2C', 'PYCARD', 'LMO7', 'TUBB', 'LGALS1', 'PDLIM7', 'NAA15', 'COX7B', 'PRMT1', 'XRCC5']</t>
+          <t>['ACTG1', 'RBM8A', 'CYB5B', 'CKS2', 'DKC1', 'TOP2A', 'EMC7', 'MAP1B', 'DDX21', 'MCM7', 'HSPA2', 'CCND3', 'PLRG1', 'MZT1', 'ATP1B1', 'LGALS1', 'EIF3E', 'PSMA4', 'UTP18', 'ID2', 'CCNA2', 'PSMC1', 'SMC1A', 'SERPINE1', 'EPHA2', 'RRM2', 'NDUFA9', 'EIF3M', 'INSIG1', 'UBE2S', 'TOB1', 'RPS27', 'NUPR1', 'CCNB2', 'JADE1', 'SLC3A2', 'PSMC2', 'NOL7', 'HLA-A', 'SKIL', 'ITGB5', 'NOL11', 'KPNA2', 'RMI2', 'CAV1', 'CACYBP', 'TERF1', 'IGFBP3', 'RPL21', 'DCAF13', 'ENO1', 'CAV2', 'ASF1A', 'ORC5', 'HMGB2', 'BIRC3', 'LGALS3', 'RPL39', 'UBE2C', 'MYL6', 'B4GALT1', 'FOSL1', 'ACTB', 'NPM1', 'AHNAK', 'TIMP1', 'MYL12B', 'PSMD7', 'PDLIM7', 'SNRPF', 'CTTN', 'PDLIM5', 'UQCRQ', 'VAMP8', 'SRP54', 'ANKRD1', 'MYBL2', 'CAPZA1', 'ZNF622', 'CBX6', 'PSMC4', 'NDUFA12', 'BASP1', 'XRCC5', 'CPLX2', 'RPL31', 'RAB10', 'KIF23', 'RPS18', 'CDKN2D', 'INO80C', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCND1', 'CCT4', 'ITGA3', 'NDUFC2', 'PDHB', 'DYNLL1', 'EEF1A1', 'RPS12', 'CCNB1', 'RIPK2', 'HSP90AB1', 'PLK1', 'ITGB1', 'ARL6IP1', 'AXL', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'HSPA8', 'EIF2S3', 'RAD21', 'SUCLG1', 'FOS', 'AIMP2', 'RPL37A', 'KRT8', 'CEBPB', 'CTNNB1', 'EBNA1BP2', 'SSB', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'CYBA', 'GINS2', 'TUBB', 'CENPF', 'TEAD4', 'ATP1B3', 'GLRX3', 'FN1', 'ZFP36', 'COX7B', 'CDK1', 'FEN1', 'AURKA', 'RPL41', 'CD44', 'CACNG6', 'PSMD14', 'NAA15', 'NUP37', 'NUF2', 'PPP1R15A', 'ARHGAP29', 'UQCRC2', 'GPRC5A', 'PLAU', 'LBH', 'ANXA2', 'PCNA', 'GABRA5', 'ZFP36L1', 'PPP3CA', 'PLAUR', 'PRPS2', 'RPL38', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'CCT5', 'PRAME', 'CENPA', 'SLBP', 'HNRNPH1', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'HMGA1', 'GIGYF1', 'LMO7', 'BCL2L1', 'IMMP2L', 'ORMDL2', 'CKS1B', 'CCT8', 'HSP90B1', 'AP1S2', 'CAPG', 'RILP', 'ATF4', 'EIF4A3', 'HSP90AA1', 'LDHA', 'RPL28', 'GNG11', 'EIF3D', 'RAD51C', 'PYCARD', 'MYL12A', 'UTP6', 'DPM1', 'TRAPPC6A', 'COX7C', 'CHP1', 'RPS29', 'NRP2', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'PSMA3', 'LDHB', 'CLU', 'BIRC5', 'IGFBP6', 'ZFP36L2', 'S100A10', 'B2M', 'GCLC', 'MRPS22', 'RPS24', 'KCNMA1', 'CDC42']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['NAS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IEA'], ['IDA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IEA'], ['IDA'], ['IPI'], ['IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IBA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IC'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'TAS'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IPI', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'ISS'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IPI'], ['IDA'], ['IDA', 'HDA', 'IBA', 'NAS'], ['IPI', 'IBA', 'NAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IPI', 'ISS', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IBA'], ['IDA', 'IPI', 'ISS', 'IBA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'NAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS'], ['IEA'], ['IPI'], ['IBA'], ['IDA', 'IPI', 'IBA'], ['IBA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'ISS', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['ISS'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IBA'], ['IPI', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA'], ['IPI'], ['IPI'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IC'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IPI'], ['IDA', 'HDA', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IBA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IPI', 'ISS', 'IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA'], ['IPI'], ['IDA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA', 'NAS'], ['IDA', 'IPI', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IEA'], ['EXP', 'IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IMP', 'NAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['IBA'], ['IPI', 'IEA'], ['IDA'], ['EXP', 'IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IBA'], ['ISS', 'TAS'], ['IDA'], ['NAS'], ['IDA', 'IPI', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'ISS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IPI'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['NAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'ISS'], ['IDA'], ['IPI'], ['IMP'], ['IEA'], ['EXP', 'IDA', 'IPI', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP']]</t>
         </is>
       </c>
     </row>
@@ -3878,12 +3878,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['YWHAE', 'SLC3A2', 'HSPA1A', 'EIF3E', 'CCNB2', 'TMPO', 'HSP90AB1', 'GPRC5A', 'CTNNAL1', 'PDLIM5', 'ITGB1', 'EIF2S3', 'PKM', 'EPHA2', 'EFHD2', 'CTNNB1', 'HSPA5', 'ANXA1', 'TAGLN2', 'FSCN1', 'SFN', 'HSPA8', 'CTTN', 'CCT8', 'CDC42EP1', 'CAPG', 'NDRG1', 'KRT18', 'CAPZA1', 'ANXA2', 'S100A11', 'LDHA', 'RAN', 'RAB10', 'PRDX1', 'AHNAK', 'ENO1']</t>
+          <t>['PKM', 'S100A11', 'EIF3E', 'EPHA2', 'CCNB2', 'SLC3A2', 'KRT18', 'TAGLN2', 'YWHAE', 'ENO1', 'AHNAK', 'CTTN', 'PDLIM5', 'CAPZA1', 'RAB10', 'ANXA1', 'NDRG1', 'TMPO', 'FSCN1', 'HSP90AB1', 'ITGB1', 'HSPA1A', 'HSPA8', 'EIF2S3', 'CTNNB1', 'GPRC5A', 'ANXA2', 'HSPA5', 'RAN', 'CDC42EP1', 'CCT8', 'CAPG', 'LDHA', 'EFHD2', 'SFN', 'CTNNAL1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3944,12 +3944,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['PIF1', 'HSP90AB1', 'HSP90AA1', 'CCT3', 'CTNNB1', 'CCT2', 'CCT7', 'DKC1', 'CCT8', 'CCT4', 'TERF1', 'CCT5', 'XRCC5']</t>
+          <t>['DKC1', 'TERF1', 'PIF1', 'XRCC5', 'CCT7', 'CCT3', 'CCT4', 'HSP90AB1', 'CTNNB1', 'CCT2', 'CCT5', 'CCT8', 'HSP90AA1']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS'], ['IMP'], ['IMP']]</t>
+          <t>[['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'TAS']]</t>
         </is>
       </c>
     </row>
@@ -4010,12 +4010,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['PIF1', 'HSP90AB1', 'HSP90AA1', 'CCT3', 'CTNNB1', 'CCT2', 'CCT7', 'DKC1', 'CCT8', 'CCT4', 'TERF1', 'CCT5', 'XRCC5']</t>
+          <t>['DKC1', 'TERF1', 'PIF1', 'XRCC5', 'CCT7', 'CCT3', 'CCT4', 'HSP90AB1', 'CTNNB1', 'CCT2', 'CCT5', 'CCT8', 'HSP90AA1']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS'], ['IMP'], ['IMP']]</t>
+          <t>[['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'TAS']]</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4076,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MAP1B', 'EIF4EBP1', 'NDUFC2', 'UQCRC2', 'NOL11', 'RMI2', 'RPL37A', 'RPS12', 'SPP1', 'SFRP1', 'HILPDA', 'TUBA4A', 'RND3', 'UNC50', 'NEAT1', 'MNS1', 'SQSTM1', 'ATXN10', 'INO80C', 'YWHAE', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'HSPA1A', 'DUSP1', 'TESC', 'GLRX3', 'SH3BGRL3', 'EIF3E', 'PIF1', 'S100A10', 'UBE2S', 'SERPINE1', 'ANTXR1', 'CCNB2', 'NQO1', 'ISG20', 'GAL3ST1', 'CCND1', 'ALDH1A1', 'NTS', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'AXL', 'CALB2', 'MYL12A', 'IGFBP7', 'REEP5', 'SSB', 'COX7C', 'CD44', 'STMN1', 'YARS', 'TMPO', 'PLK2', 'HSP90AB1', 'NUP37', 'LY6K', 'LOXL2', 'GPRC5A', 'RPS18', 'RIN2', 'SMC1A', 'DHRS7', 'HNRNPH1', 'MFSD12', 'TRAM1', 'PHACTR2', 'IGFBP3', 'CD24', 'TXNRD1', 'ITGB1', 'ADA', 'EIF2S3', 'HSPA2', 'BASP1', 'VAMP8', 'SGOL1', 'SLC16A3', 'B4GALT1', 'INSIG1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'TRAPPC6A', 'MSH6', 'CD68', 'PGK1', 'PKM', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'RPL31', 'SERPINE2', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'MKI67', 'CD55', 'CCNB1', 'ACTG1', 'GAMT', 'ID3', 'SMOX', 'ELF3', 'FN1', 'DCAF13', 'TSC22D1', 'NCL', 'IRF2BP2', 'SLPI', 'SLC27A2', 'TK1', 'KRT7', 'PLK1', 'CTSB', 'UCHL1', 'CAPN2', 'DYNLL1', 'HES4', 'NPM1', 'GADD45B', 'BCL2L1', 'KANK1', 'HSPD1', 'DDIT4', 'NUF2', 'SLC26A2', 'PRSS23', 'GPX3', 'GINS2', 'LAPTM4A', 'NDUFA9', 'CYP1B1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'STC2', 'CCT3', 'MMD', 'CDC42', 'NRDC', 'DDX21', 'FKBP11', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'PSMA4', 'EGR1', 'NDUFA12', 'UCP2', 'ANXA1', 'PLAU', 'TOP2A', 'CCT2', 'NUPR1', 'TAGLN2', 'KIF23', 'AHNAK2', 'FA2H', 'GCNT3', 'PSMC4', 'FSCN1', 'CNIH4', 'ORMDL2', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'PPP1R7', 'SFN', 'APOBEC3C', 'SLC7A5', 'FSTL3', 'ARHGAP11A', 'AKR1B1', 'RILP', 'SNRPF', 'AMIGO2', 'HSPA8', 'CCT7', 'NANS', 'KPNA2', 'DKC1', 'SLC35F6', 'REXO2', 'GSTO1', 'TRIB3', 'LDHB', 'RHOD', 'SMIM14', 'CDKN2D', 'ITGB5', 'HSP90B1', 'S100A3', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UHRF1', 'UPK1B', 'PTTG1', 'TOB1', 'PTRH2', 'DPM1', 'REEP4', 'ACAT2', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'CD63', 'ALDH3A1', 'PCNA', 'AKR1B10', 'ABCG2', 'ALG8', 'KYNU', 'RPL28', 'MTHFD2', 'CEBPB', 'NOC3L', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'CTTN', 'DHRS3', 'NOL7', 'CCT8', 'CCNA2', 'CES1', 'CAPG', 'UBC', 'TUBA1C', 'DNMBP', 'RPS24', 'ORC5', 'GOLIM4', 'ARL6IP1', 'RRM2', 'B2M', 'MRPS22', 'ZFP36L2', 'PSMC1', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CYBA', 'TNRC6B', 'RIPK2', 'PDHB', 'CTSH', 'HLA-A', 'SRP54', 'GAL', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'UQCR11', 'CSRP1', 'MAP1LC3B', 'CAV2', 'HSPE1', 'S100A6', 'ANKRD1', 'CLU', 'LGMN', 'CD70', 'CDC25B', 'CYB5B', 'MUC3A', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'PGD', 'LBH', 'NFKBIE', 'FOSL1', 'NPC2', 'PDXK', 'UBR4', 'VDAC3', 'PLAUR', 'MGLL', 'AIMP2', 'NDRG1', 'KLF6', 'RAP2B', 'RBM8A', 'LACTB2', 'RPL21', 'CKS1B', 'TMEM92', 'PUS1', 'TGFBI', 'KRT18', 'CAPZA1', 'FBXO5', 'TIMP1', 'RAP1GAP', 'TUBB4B', 'TSPAN14', 'GLRX', 'ZFP36', 'CCT4', 'RPL41', 'HOXB8', 'TPX2', 'AURKA', 'ATP1B1', 'RPL39', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'PTP4A1', 'ZNF622', 'RPS29', 'ANXA2', 'F12', 'PKMYT1', 'PRSS3', 'MYL12B', 'TEAD4', 'UTP6', 'ZFP36L1', 'TXN', 'HMGB3', 'ID1', 'PLRG1', 'UTP18', 'ZFAS1', 'RRS1', 'EMC7', 'VIM', 'CCDC34', 'CBX6', 'IMMP2L', 'STK17A', 'MFGE8', 'BLVRB', 'UQCRQ', 'FAM64A', 'TOR1AIP2', 'PPID', 'MT2A', 'BIRC3', 'CDC20', 'TERF1', 'S100A11', 'AGR2', 'PIR', 'EREG', 'PPA2', 'LDHA', 'CPLX2', 'MYBL2', 'RAN', 'PPP1R15A', 'CCT5', 'DNAJC3', 'IGFBP4', 'DDX39A', 'SERPINB1', 'AP1S2', 'ASPM', 'MESP1', 'PTPRF', 'RAB10', 'RPS27', 'PSMD14', 'CD9', 'RAB3B', 'RARRES1', 'PTPRS', 'PRDX1', 'GCLC', 'AURKB', 'SDHB', 'ID2', 'MUC5AC', 'AHNAK', 'LITAF', 'RAD21', 'ATF4', 'TALDO1', 'MORC4', 'NPTX1', 'ASF1A', 'ENO1', 'UBE2C', 'PYCARD', 'LMO7', 'UPP1', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'CDCA5', 'PDLIM7', 'ACAT1', 'PCSK1N', 'NAA15', 'COX7B', 'CYB5A', 'PRMT1', 'XRCC5']</t>
+          <t>['ACTG1', 'MUC5AC', 'GPX1', 'RBM8A', 'NUCKS1', 'GLRX', 'GSN', 'AKR1C3', 'TSFM', 'CYB5B', 'S100A3', 'DKC1', 'TOP2A', 'GAL', 'TMSB4X', 'FBXO5', 'EMC7', 'MAP1B', 'DDX21', 'NOC3L', 'EREG', 'MARCKSL1', 'MCM7', 'HSPA2', 'CCND3', 'PLRG1', 'ID1', 'DDIT4', 'TRIB3', 'ATP1B1', 'CNIH4', 'PKM', 'SQSTM1', 'DHRS7', 'S100A11', 'ARHGAP11A', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'DHRS3', 'UTP18', 'ID2', 'CCNA2', 'PTRH2', 'PSMC1', 'NANS', 'SMC1A', 'PRDX4', 'SERPINE1', 'TPX2', 'GAMT', 'RAP2B', 'ID3', 'PKMYT1', 'RRM2', 'NDUFA9', 'CYP1B1', 'PRSS3', 'INSIG1', 'UBE2S', 'TOB1', 'RARRES1', 'GOLIM4', 'TK1', 'NRDC', 'TOR1AIP2', 'CD55', 'RPS27', 'NUPR1', 'CCNB2', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'KANK1', 'UNC50', 'PSMC2', 'SGOL1', 'CTSL', 'CYB5A', 'PGD', 'NOL7', 'KRT18', 'TAGLN2', 'HLA-A', 'SKIL', 'IGFBP4', 'DUSP1', 'ITGB5', 'AKR1B10', 'NOL11', 'ALDH2', 'KPNA2', 'RMI2', 'CAV1', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'RPL21', 'YWHAE', 'LGMN', 'S100A6', 'ALDH1A1', 'DCAF13', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'PPP1R7', 'TUBA4A', 'CAV2', 'ASF1A', 'BLVRB', 'TRAM1', 'CALB2', 'ZFAS1', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SULT2B1', 'SLC35F6', 'HMGB2', 'RAB3B', 'SFRP1', 'BIRC3', 'LGALS3', 'RPL39', 'UBE2C', 'MYL6', 'MMD', 'B4GALT1', 'FOSL1', 'NEAT1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'MT2A', 'ACAT1', 'NPTX1', 'SERPINB1', 'RAI14', 'PIF1', 'CCDC34', 'PDLIM7', 'MGLL', 'SNRPF', 'CTTN', 'CES1', 'UQCRQ', 'LAPTM4A', 'TNRC6B', 'GSTO1', 'VAMP8', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'CAPZA1', 'PDXK', 'NTS', 'KRT7', 'ZNF622', 'CBX6', 'PSMC4', 'NDUFA12', 'BASP1', 'XRCC5', 'CPLX2', 'TUBB4B', 'RPL31', 'HOXB8', 'KYNU', 'RAB10', 'TSC22D1', 'ANXA1', 'MORC4', 'ANXA4', 'KIF23', 'PTPRS', 'ABCG2', 'RPS18', 'CDKN2D', 'LACTB2', 'PPID', 'INO80C', 'NDRG1', 'IRF2BP2', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'ITGA3', 'REEP5', 'NDUFC2', 'PDHB', 'DYNLL1', 'LITAF', 'HMGB3', 'BTG1', 'TALDO1', 'EEF1A1', 'MESP1', 'HACD3', 'MAP1LC3B', 'RPS12', 'SMIM14', 'TMPO', 'FSCN1', 'CCNB1', 'PTP4A1', 'RIPK2', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'ITGB1', 'ARL6IP1', 'AXL', 'UCP2', 'S100A13', 'CDCA5', 'FSTL3', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'FAM64A', 'TSPAN14', 'LOXL2', 'HSPA8', 'EIF2S3', 'PMEPA1', 'RAD21', 'CD68', 'SUCLG1', 'UPK1B', 'PRSS23', 'SERPINE2', 'GADD45B', 'FOS', 'AIMP2', 'RPL37A', 'CSRP1', 'NUDT19', 'HMOX1', 'FKBP11', 'ALG8', 'KRT8', 'CEBPB', 'LMNA', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'SSB', 'CTSH', 'REEP4', 'ALDH3A1', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'CYBA', 'GINS2', 'TUBB', 'CENPF', 'SLC12A2', 'SLC16A3', 'TEAD4', 'NOLC1', 'ATP1B3', 'GLRX3', 'FN1', 'DUSP5', 'ZFP36', 'ANP32A', 'COX7B', 'CDK1', 'FEN1', 'DDX10', 'AURKA', 'RPL41', 'UQCR11', 'CD44', 'PSMD14', 'GAL3ST1', 'OAS1', 'LY6K', 'REXO2', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'PPP1R15A', 'PHACTR2', 'UQCRC2', 'PTPRF', 'NQO1', 'GPRC5A', 'PLAU', 'LBH', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'PCNA', 'ANTXR1', 'GABRA5', 'ZFP36L1', 'TKT', 'TXN', 'PPP3CA', 'APOBEC3C', 'PLAUR', 'DNMBP', 'RND3', 'MKI67', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'PRAME', 'CENPA', 'SLBP', 'SMOX', 'HNRNPH1', 'AGR2', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'GPX3', 'LMO7', 'CD70', 'BCL2L1', 'STC2', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBR4', 'MUC3A', 'IMMP2L', 'NAMPT', 'ORMDL2', 'CKS1B', 'CCT8', 'HSP90B1', 'HES4', 'MFSD12', 'F12', 'AP1S2', 'AMIGO2', 'CAPG', 'RILP', 'ATF4', 'EIF4A3', 'GCNT3', 'ECH1', 'RHOD', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'HSPE1', 'RPL28', 'RAD51C', 'MNS1', 'PYCARD', 'SFN', 'ASPM', 'MYL12A', 'ELF3', 'STMN1', 'PHGDH', 'UCHL1', 'TUBA1C', 'UTP6', 'ADA', 'DPM1', 'TRAPPC6A', 'COX7C', 'CHP1', 'PTTG1', 'RAP1GAP', 'TESC', 'STK17A', 'AHNAK2', 'PPA2', 'RPS29', 'VIM', 'FA2H', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'CD24', 'DDX39A', 'PSMA3', 'CDC25B', 'LDHB', 'RIN2', 'KRT19', 'CLU', 'BIRC5', 'ISG20', 'S100A16', 'ZFP36L2', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'GCLC', 'MRPS22', 'ATXN10', 'PRDX1', 'PLK2', 'PIR', 'RPS24', 'CDC42', 'UHRF1']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HTP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IC', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['ISS', 'IBA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IMP', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['EXP', 'IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'NAS'], ['IDA', 'HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HTP', 'TAS'], ['HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['EXP', 'HDA', 'NAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4142,12 +4142,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MAP1B', 'TPPP3', 'EIF3D', 'EIF4EBP1', 'NDUFC2', 'UQCRC2', 'NOL11', 'RMI2', 'RPL37A', 'RPS12', 'SPP1', 'SFRP1', 'HILPDA', 'TUBA4A', 'RND3', 'UNC50', 'NEAT1', 'MNS1', 'SQSTM1', 'ATXN10', 'INO80C', 'YWHAE', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'HSPA1A', 'DUSP1', 'HOMER3', 'TESC', 'GLRX3', 'SH3BGRL3', 'CRIP1', 'EIF3E', 'PIF1', 'S100A10', 'UBE2S', 'SERPINE1', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'ISG20', 'GAL3ST1', 'CCND1', 'ALDH1A1', 'NTS', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'AXL', 'CALB2', 'ADM', 'MYL12A', 'IGFBP7', 'REEP5', 'TUBA1B', 'SSB', 'COX7C', 'CD44', 'STMN1', 'YARS', 'TMPO', 'PLK2', 'HSP90AB1', 'NUP37', 'LY6K', 'LOXL2', 'TMSB10', 'GPRC5A', 'RPS18', 'RIN2', 'SMC1A', 'CTNNAL1', 'DHRS7', 'HNRNPH1', 'MFSD12', 'PDLIM5', 'TRAM1', 'PHACTR2', 'IGFBP3', 'CD24', 'TXNRD1', 'ITGB1', 'ADA', 'EIF2S3', 'PHLDA2', 'HSPA2', 'BASP1', 'VAMP8', 'SGOL1', 'SLC16A3', 'B4GALT1', 'CNFN', 'EIF3M', 'INSIG1', 'CDCA3', 'RPS28', 'KRT8', 'TP53I3', 'HSP90AA1', 'CHP1', 'TRAPPC6A', 'MSH6', 'CD68', 'PGK1', 'PKM', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'RPL31', 'SERPINE2', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'MKI67', 'CD55', 'CCNB1', 'ACTG1', 'GAMT', 'ID3', 'SMOX', 'ELF3', 'FN1', 'DCAF13', 'TSC22D1', 'NCL', 'IRF2BP2', 'SLPI', 'SLC27A2', 'TK1', 'KRT7', 'PLK1', 'CTSB', 'UCHL1', 'CAPN2', 'DYNLL1', 'HES4', 'NPM1', 'GADD45B', 'BCL2L1', 'KANK1', 'HSPD1', 'DDIT4', 'NUF2', 'PRSS23', 'GINS2', 'LAPTM4A', 'NDUFA9', 'CYP1B1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'STC2', 'CA8', 'CCT3', 'MMD', 'CDC42', 'NRDC', 'DDX21', 'FKBP11', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'PSMA4', 'EGR1', 'NDUFA12', 'UCP2', 'ANXA1', 'ODC1', 'PLAU', 'TOP2A', 'CCT2', 'INPP1', 'NUPR1', 'TAGLN2', 'KIF23', 'AHNAK2', 'FA2H', 'GCNT3', 'PSMC4', 'KRT81', 'FSCN1', 'CNIH4', 'ORMDL2', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'PPP1R7', 'SFN', 'APOBEC3C', 'AKAP12', 'SLC7A5', 'FSTL3', 'ARHGAP11A', 'AKR1B1', 'RILP', 'SNRPF', 'AMIGO2', 'HSPA8', 'CCT7', 'NANS', 'EIF1AY', 'KPNA2', 'DKC1', 'SLC35F6', 'REXO2', 'GSTO1', 'MZT1', 'TRIB3', 'LDHB', 'RHOD', 'SMIM14', 'CDKN2D', 'ITGB5', 'HSP90B1', 'S100A3', 'GSN', 'ATP1B3', 'PPP1CB', 'PRPS2', 'SLC12A2', 'UHRF1', 'PTTG1', 'TOB1', 'PTRH2', 'DPM1', 'REEP4', 'ACAT2', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'CD63', 'ALDH3A1', 'HMGCS1', 'PCNA', 'AKR1B10', 'ABCG2', 'ALG8', 'KYNU', 'RPL28', 'MTHFD2', 'CEBPB', 'NOC3L', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'CTTN', 'DHRS3', 'NOL7', 'CCT8', 'CCNA2', 'CDC42EP1', 'CES1', 'CAPG', 'UBC', 'TUBA1C', 'DNMBP', 'RPS24', 'ORC5', 'GOLIM4', 'ARL6IP1', 'RRM2', 'B2M', 'MRPS22', 'ZFP36L2', 'RPL38', 'PSMC1', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'GPX2', 'S100A4', 'SULT2B1', 'MYL6', 'CYBA', 'TNRC6B', 'RIPK2', 'PDHB', 'CTSH', 'HLA-A', 'SRP54', 'GAL', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'UQCR11', 'CDC123', 'ARHGAP29', 'CSRP1', 'MAP1LC3B', 'CAV2', 'NNMT', 'INHBB', 'HSPE1', 'S100A6', 'ANKRD1', 'CLU', 'LGMN', 'CDC25B', 'CYB5B', 'MUC3A', 'AKR1C2', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'LRRC75A', 'PGD', 'LBH', 'NFKBIE', 'FOSL1', 'NPC2', 'PDXK', 'UBR4', 'VDAC3', 'PLAUR', 'MGLL', 'AIMP2', 'NDRG1', 'KLF6', 'RAP2B', 'RBM8A', 'LACTB2', 'RPL21', 'CKS1B', 'TMEM92', 'PUS1', 'TGFBI', 'KRT18', 'CAPZA1', 'FBXO5', 'TIMP1', 'RAP1GAP', 'TUBB4B', 'TSPAN14', 'GLRX', 'ZFP36', 'CCT4', 'RPL41', 'LXN', 'HOXB8', 'TPX2', 'SPATS2', 'AURKA', 'RPL39', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'PTP4A1', 'ZNF622', 'RPS29', 'ANXA2', 'F12', 'PKMYT1', 'PRSS3', 'MYL12B', 'TEAD4', 'UTP6', 'ZFP36L1', 'TXN', 'INA', 'HMGB3', 'ID1', 'PLRG1', 'UTP18', 'ZFAS1', 'RRS1', 'EMC7', 'VIM', 'CBX6', 'IMMP2L', 'STK17A', 'MFGE8', 'BLVRB', 'GIGYF1', 'UQCRQ', 'FAM64A', 'TOR1AIP2', 'PPID', 'MT2A', 'BIRC3', 'CDC20', 'PPP1R14A', 'TERF1', 'S100A11', 'AGR2', 'PIR', 'EREG', 'PPA2', 'LDHA', 'CPLX2', 'MYBL2', 'RAN', 'PPP1R15A', 'CCT5', 'DNAJC3', 'IGFBP4', 'DDX39A', 'SERPINB1', 'AP1S2', 'ASPM', 'MESP1', 'PTPRF', 'RAB10', 'RPS27', 'PSMD14', 'CD9', 'RAB3B', 'PTPRS', 'PRDX1', 'DOK4', 'GCLC', 'AURKB', 'SDHB', 'ID2', 'MUC5AC', 'AHNAK', 'LITAF', 'RAD21', 'ATF4', 'TALDO1', 'MORC4', 'NPTX1', 'ASF1A', 'ENO1', 'UBE2C', 'PYCARD', 'LMO7', 'UPP1', 'HMMR', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'MARCKSL1', 'CDCA5', 'PDLIM7', 'ACAT1', 'PCSK1N', 'NAA15', 'SAT1', 'COX7B', 'CYB5A', 'PRMT1', 'XRCC5']</t>
+          <t>['ACTG1', 'MUC5AC', 'TMSB10', 'GPX1', 'RBM8A', 'NUCKS1', 'GLRX', 'GSN', 'AKR1C3', 'TSFM', 'CA8', 'CYB5B', 'S100A3', 'DKC1', 'TOP2A', 'GAL', 'TMSB4X', 'FBXO5', 'EMC7', 'MAP1B', 'DDX21', 'NOC3L', 'EREG', 'MARCKSL1', 'MCM7', 'HSPA2', 'CCND3', 'PLRG1', 'ID1', 'DDIT4', 'TRIB3', 'MZT1', 'CNIH4', 'PHLDA2', 'PKM', 'SQSTM1', 'DHRS7', 'S100A11', 'ARHGAP11A', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'DHRS3', 'UTP18', 'ID2', 'CCNA2', 'PTRH2', 'PSMC1', 'NANS', 'SMC1A', 'PRDX4', 'CDCA3', 'SERPINE1', 'TUBA1B', 'TPX2', 'GAMT', 'RAP2B', 'ID3', 'PKMYT1', 'RRM2', 'NDUFA9', 'EIF3M', 'CYP1B1', 'PRSS3', 'AKAP12', 'INSIG1', 'UBE2S', 'TOB1', 'GOLIM4', 'TK1', 'NRDC', 'TOR1AIP2', 'CD55', 'RPS27', 'NUPR1', 'CCNB2', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'KANK1', 'UNC50', 'PSMC2', 'SGOL1', 'CTSL', 'CYB5A', 'PGD', 'NOL7', 'KRT18', 'TAGLN2', 'HLA-A', 'SKIL', 'IGFBP4', 'DUSP1', 'TP53I3', 'ITGB5', 'AKR1B10', 'NOL11', 'ALDH2', 'KPNA2', 'RMI2', 'CAV1', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'RPL21', 'YWHAE', 'CDC123', 'LGMN', 'S100A6', 'ALDH1A1', 'DCAF13', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'PPP1R7', 'TUBA4A', 'CAV2', 'ASF1A', 'BLVRB', 'TRAM1', 'CALB2', 'ODC1', 'ZFAS1', 'AKR1C2', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SULT2B1', 'LRRC75A', 'SLC35F6', 'HMGB2', 'RAB3B', 'SFRP1', 'BIRC3', 'EIF1AY', 'LGALS3', 'RPL39', 'UBE2C', 'MYL6', 'MMD', 'B4GALT1', 'FOSL1', 'NEAT1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'SAT1', 'AHNAK', 'TIMP1', 'MYL12B', 'PSMD7', 'MT2A', 'LXN', 'ACAT1', 'NPTX1', 'SERPINB1', 'RAI14', 'PIF1', 'HMGCS1', 'PDLIM7', 'MGLL', 'SNRPF', 'CTTN', 'CES1', 'PDLIM5', 'UQCRQ', 'LAPTM4A', 'TNRC6B', 'GSTO1', 'VAMP8', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'CAPZA1', 'PDXK', 'NTS', 'KRT7', 'ZNF622', 'CBX6', 'PSMC4', 'NDUFA12', 'BASP1', 'XRCC5', 'CPLX2', 'TUBB4B', 'RPL31', 'HOMER3', 'HOXB8', 'KYNU', 'RAB10', 'TSC22D1', 'ANXA1', 'MORC4', 'ANXA4', 'KIF23', 'PTPRS', 'ABCG2', 'RPS18', 'CDKN2D', 'LACTB2', 'PPID', 'INO80C', 'NDRG1', 'IRF2BP2', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'ITGA3', 'REEP5', 'NDUFC2', 'PDHB', 'DYNLL1', 'LITAF', 'HMGB3', 'BTG1', 'TALDO1', 'EEF1A1', 'MESP1', 'HACD3', 'MAP1LC3B', 'RPS12', 'SMIM14', 'TMPO', 'FSCN1', 'CCNB1', 'PTP4A1', 'RIPK2', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'ADM', 'ITGB1', 'ARL6IP1', 'AXL', 'UCP2', 'S100A13', 'CDCA5', 'FSTL3', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'FAM64A', 'TSPAN14', 'LOXL2', 'HSPA8', 'EIF2S3', 'PMEPA1', 'RAD21', 'CD68', 'SUCLG1', 'PRSS23', 'SERPINE2', 'INPP1', 'GADD45B', 'FOS', 'AIMP2', 'RPL37A', 'CSRP1', 'NUDT19', 'HMOX1', 'FKBP11', 'ALG8', 'KRT8', 'CEBPB', 'GPX2', 'LMNA', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'SSB', 'INA', 'CTSH', 'REEP4', 'ALDH3A1', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'CYBA', 'GINS2', 'TUBB', 'CENPF', 'INHBB', 'SLC12A2', 'SLC16A3', 'TEAD4', 'NOLC1', 'ATP1B3', 'KRT81', 'GLRX3', 'FN1', 'DUSP5', 'ZFP36', 'ANP32A', 'COX7B', 'CDK1', 'FEN1', 'DDX10', 'AURKA', 'RPL41', 'UQCR11', 'PPP1R14A', 'CD44', 'PSMD14', 'GAL3ST1', 'OAS1', 'LY6K', 'REXO2', 'TPPP3', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'PPP1R15A', 'ARHGAP29', 'PHACTR2', 'CRIP1', 'UQCRC2', 'PTPRF', 'NQO1', 'GPRC5A', 'PLAU', 'LBH', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'PCNA', 'ANTXR1', 'GABRA5', 'ZFP36L1', 'TKT', 'TXN', 'PPP3CA', 'APOBEC3C', 'PLAUR', 'PRPS2', 'DNMBP', 'RND3', 'MKI67', 'RPL38', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'PRAME', 'CENPA', 'SLBP', 'SMOX', 'HNRNPH1', 'AGR2', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'GIGYF1', 'LMO7', 'BCL2L1', 'STC2', 'CDC42EP1', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBR4', 'CRIP2', 'MUC3A', 'IMMP2L', 'NAMPT', 'ORMDL2', 'CKS1B', 'CCT8', 'HSP90B1', 'HES4', 'MFSD12', 'F12', 'AP1S2', 'AMIGO2', 'CAPG', 'RILP', 'ATF4', 'EIF4A3', 'GCNT3', 'ECH1', 'RHOD', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'HSPE1', 'RPL28', 'SPATS2', 'EIF3D', 'RAD51C', 'MNS1', 'PYCARD', 'SFN', 'ASPM', 'MYL12A', 'ELF3', 'STMN1', 'PHGDH', 'UCHL1', 'TUBA1C', 'UTP6', 'ADA', 'DPM1', 'TRAPPC6A', 'COX7C', 'CHP1', 'CTNNAL1', 'PTTG1', 'RAP1GAP', 'TESC', 'STK17A', 'AHNAK2', 'PPA2', 'RPS29', 'VIM', 'DOK4', 'HMMR', 'CNFN', 'FA2H', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'CD24', 'DDX39A', 'PSMA3', 'CDC25B', 'LDHB', 'RIN2', 'KRT19', 'CLU', 'BIRC5', 'ISG20', 'S100A16', 'ZFP36L2', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'GCLC', 'MRPS22', 'ATXN10', 'PRDX1', 'NNMT', 'PLK2', 'PIR', 'RPS24', 'CDC42', 'UHRF1']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISA', 'IBA', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HTP', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['HTP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['EXP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>['TUBA4A', 'RND3', 'SQSTM1', 'YWHAE', 'HSPA1A', 'DUSP1', 'GLRX3', 'SERPINE1', 'CCND1', 'EEF1A1', 'TUBA1B', 'HSP90AB1', 'RIN2', 'PDLIM5', 'CD24', 'ITGB1', 'HSPA2', 'SGOL1', 'HSP90AA1', 'CHP1', 'MSH6', 'LGALS3', 'TIMP2', 'CCNB1', 'ACTG1', 'FN1', 'NCL', 'SLPI', 'SLC27A2', 'PLK1', 'UCHL1', 'CAPN2', 'DYNLL1', 'NPM1', 'BCL2L1', 'HSPD1', 'CKS2', 'STC2', 'CDC42', 'TMSB4X', 'PPP3CA', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'EGR1', 'TOP2A', 'CCT2', 'SFN', 'AKAP12', 'RILP', 'HSPA8', 'KPNA2', 'TRIB3', 'LDHB', 'RHOD', 'CDKN2D', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'TOB1', 'ACTB', 'PCNA', 'CEBPB', 'CCND3', 'BIRC5', 'CCNA2', 'CDC42EP1', 'UBC', 'UBB', 'RIPK2', 'HMOX1', 'CACYBP', 'MAP1LC3B', 'CAV2', 'ANKRD1', 'CLU', 'CDC25B', 'CTNNBL1', 'BTG1', 'CAV1', 'COTL1', 'NPC2', 'PLAUR', 'NDRG1', 'CKS1B', 'FBXO5', 'TIMP1', 'RAP1GAP', 'TSPAN14', 'ZFP36', 'TPX2', 'AURKA', 'ATP1B1', 'PA2G4', 'PSMA3', 'ITGA3', 'ANXA2', 'TOR1AIP2', 'PPP1R15A', 'DNAJC3', 'AURKB', 'ATF4', 'ENO1', 'UBE2C', 'PYCARD', 'TUBB', 'ACAT1', 'CYB5A', 'PRMT1', 'XRCC5']</t>
+          <t>['ACTG1', 'GSN', 'CKS2', 'TOP2A', 'TMSB4X', 'FBXO5', 'HSPA2', 'CCND3', 'TRIB3', 'ATP1B1', 'SQSTM1', 'COTL1', 'CCNA2', 'SERPINE1', 'TUBA1B', 'TPX2', 'AKAP12', 'TOB1', 'TOR1AIP2', 'UBB', 'SGOL1', 'CYB5A', 'DUSP1', 'KPNA2', 'CAV1', 'CACYBP', 'YWHAE', 'DNAJC3', 'TIMP2', 'ENO1', 'TUBA4A', 'CAV2', 'EGR1', 'LGALS3', 'UBE2C', 'UBC', 'ACTB', 'NPM1', 'TIMP1', 'ACAT1', 'PDLIM5', 'SLPI', 'ANKRD1', 'XRCC5', 'CDKN2D', 'NDRG1', 'CAPN2', 'PA2G4', 'CCND1', 'ITGA3', 'DYNLL1', 'BTG1', 'EEF1A1', 'HACD3', 'MAP1LC3B', 'CCNB1', 'RIPK2', 'HSP90AB1', 'PLK1', 'ITGB1', 'HSPA1A', 'HSPD1', 'TSPAN14', 'HSPA8', 'HMOX1', 'CEBPB', 'CTNNB1', 'CCT2', 'TUBB', 'SLC12A2', 'ATP1B3', 'GLRX3', 'FN1', 'ZFP36', 'AURKA', 'PPP1R15A', 'ANXA2', 'PCNA', 'PPP3CA', 'PLAUR', 'RND3', 'PPP1CB', 'HSPA5', 'NCL', 'HMGA1', 'BCL2L1', 'STC2', 'CDC42EP1', 'CKS1B', 'HSP90B1', 'RILP', 'ATF4', 'RHOD', 'HSP90AA1', 'PYCARD', 'SFN', 'UCHL1', 'CHP1', 'RAP1GAP', 'PRMT1', 'MSH6', 'AURKB', 'CTNNBL1', 'CD24', 'PSMA3', 'CDC25B', 'LDHB', 'RIN2', 'CLU', 'BIRC5', 'NPC2', 'SLC27A2', 'CDC42']</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[['IPI'], ['IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IBA'], ['ISS'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IDA'], ['IPI', 'IEA'], ['ISS'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IBA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['EXP', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IPI', 'IBA', 'IEA'], ['IDA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IBA'], ['IBA'], ['IBA'], ['IPI'], ['ISS'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['IDA'], ['IPI'], ['IPI'], ['IPI', 'NAS'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA'], ['IBA', 'IEA'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IPI']]</t>
+          <t>[['IPI', 'IBA'], ['IPI', 'IEA'], ['IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA'], ['IPI'], ['IBA'], ['IDA'], ['IPI'], ['ISS', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IBA'], ['IPI', 'IBA'], ['IPI'], ['IBA', 'IEA'], ['IEA'], ['ISS'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IEA'], ['IPI', 'NAS'], ['IPI'], ['IDA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['ISS'], ['IEA'], ['EXP', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA'], ['IBA'], ['IBA', 'IEA'], ['IDA'], ['IPI', 'IBA', 'TAS'], ['IPI'], ['IBA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['ISS'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IBA'], ['IDA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>['HSPA1A', 'HSP90AB1', 'HSPA2', 'HSP90AA1', 'HSPD1', 'CCT3', 'HSPA5', 'CCT2', 'HSPA8', 'CCT7', 'HSP90B1', 'CCT8', 'CCT4', 'CCT5']</t>
+          <t>['HSPA2', 'CCT7', 'CCT3', 'CCT4', 'HSP90AB1', 'HSPA1A', 'HSPD1', 'HSPA8', 'CCT2', 'HSPA5', 'CCT5', 'CCT8', 'HSP90B1', 'HSP90AA1']</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MAP1B', 'TPPP3', 'EIF3D', 'EIF4EBP1', 'NRP2', 'NDUFC2', 'UQCRC2', 'NOL11', 'RMI2', 'RPL37A', 'RPS12', 'SPP1', 'SFRP1', 'HILPDA', 'TUBA4A', 'RND3', 'UNC50', 'MNS1', 'SQSTM1', 'ATXN10', 'INO80C', 'YWHAE', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'OSGIN2', 'HSPA1A', 'DUSP1', 'HOMER3', 'TESC', 'GLRX3', 'SH3BGRL3', 'CRIP1', 'EIF3E', 'PIF1', 'S100A10', 'UBE2S', 'SERPINE1', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'ISG20', 'GAL3ST1', 'CCND1', 'ALDH1A1', 'NTS', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'AXL', 'CALB2', 'ADM', 'S100A2', 'FGFBP1', 'MYL12A', 'IGFBP7', 'REEP5', 'TUBA1B', 'CXCL5', 'SSB', 'COX7C', 'CD44', 'STMN1', 'SLC20A1', 'YARS', 'PLK2', 'MDK', 'HSP90AB1', 'NUP37', 'LY6K', 'LOXL2', 'TMSB10', 'GPRC5A', 'RPS18', 'RIN2', 'SMC1A', 'CCDC80', 'CTNNAL1', 'PMP22', 'DHRS7', 'HNRNPH1', 'MFSD12', 'PDLIM5', 'TRAM1', 'PHACTR2', 'IGFBP3', 'CD24', 'TXNRD1', 'ITGB1', 'ADA', 'EIF2S3', 'PHLDA2', 'CACNG6', 'HSPA2', 'BASP1', 'CXCL3', 'VAMP8', 'SGOL1', 'SLC16A3', 'B4GALT1', 'CNFN', 'EIF3M', 'INSIG1', 'CDCA3', 'RPS28', 'KRT8', 'TP53I3', 'HSP90AA1', 'CHP1', 'TRAPPC6A', 'MSH6', 'CD68', 'PGK1', 'PKM', 'GABRA5', 'AVPI1', 'LGALS3', 'CENPA', 'PCDH9', 'CDK1', 'PBDC1', 'RPL31', 'SERPINE2', 'INSL4', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'MKI67', 'CD55', 'CCNB1', 'ACTG1', 'GAMT', 'ID3', 'SMOX', 'ELF3', 'FN1', 'DCAF13', 'TSC22D1', 'NCL', 'IRF2BP2', 'SLPI', 'SLC27A2', 'TK1', 'SLC4A7', 'KRT7', 'PLK1', 'CTSB', 'UCHL1', 'CAPN2', 'DYNLL1', 'EVA1C', 'TNFRSF12A', 'HES4', 'NPM1', 'GADD45B', 'EPHA2', 'BCL2L1', 'KANK1', 'HSPD1', 'DDIT4', 'NUF2', 'SLC26A2', 'PRSS23', 'CA12', 'GPX3', 'CCL2', 'GINS2', 'CKS2', 'NDUFA9', 'CYP1B1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'STC2', 'CA8', 'CCT3', 'MMD', 'MALAT1', 'CDC42', 'NRDC', 'DDX21', 'FKBP11', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'PSMA4', 'EGR1', 'NDUFA12', 'UCP2', 'ANXA1', 'ODC1', 'PLAU', 'TOP2A', 'CCT2', 'INPP1', 'NUPR1', 'TAGLN2', 'KIF23', 'AHNAK2', 'FA2H', 'GCNT3', 'PSMC4', 'KRT81', 'FSCN1', 'CNIH4', 'ORMDL2', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'SFN', 'APOBEC3C', 'AKAP12', 'SLC7A5', 'FSTL3', 'ARHGAP11A', 'AKR1B1', 'DEPDC1B', 'RILP', 'SNRPF', 'AMIGO2', 'HSPA8', 'CCT7', 'NANS', 'EIF1AY', 'KPNA2', 'DKC1', 'SLC35F6', 'REXO2', 'GSTO1', 'KCNMA1', 'MZT1', 'TRIB3', 'LDHB', 'RHOD', 'SMIM14', 'CDKN2D', 'ITGB5', 'HSP90B1', 'GSN', 'ATP1B3', 'PPP1CB', 'PRPS2', 'SLC12A2', 'UHRF1', 'UPK1B', 'PTTG1', 'TOB1', 'PTRH2', 'DPM1', 'REEP4', 'ACAT2', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'TM4SF4', 'CD63', 'ALDH3A1', 'HMGCS1', 'PCNA', 'AKR1B10', 'IGFBP6', 'ABCG2', 'ALG8', 'KYNU', 'RPL28', 'MTHFD2', 'CEBPB', 'NOC3L', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'CTTN', 'DHRS3', 'NOL7', 'CCT8', 'CCNA2', 'CDC42EP1', 'CES1', 'CAPG', 'UBC', 'TUBA1C', 'DNMBP', 'RPS24', 'ORC5', 'ARL6IP1', 'RRM2', 'B2M', 'MRPS22', 'ZFP36L2', 'RPL38', 'PSMC1', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'GPX2', 'S100A4', 'SULT2B1', 'MYL6', 'CYBA', 'TNRC6B', 'RIPK2', 'PDHB', 'CTSH', 'HLA-A', 'SRP54', 'GAL', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'C1orf56', 'UQCR11', 'CDC123', 'ARHGAP29', 'CSRP1', 'MAP1LC3B', 'CAV2', 'NNMT', 'INHBB', 'HSPE1', 'S100A6', 'ANKRD1', 'CLU', 'LGMN', 'CD70', 'CDC25B', 'CYB5B', 'AKR1C2', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'PGD', 'LBH', 'NFKBIE', 'FOSL1', 'NPC2', 'PDXK', 'UBR4', 'RSPO3', 'VDAC3', 'PLAUR', 'MGLL', 'AIMP2', 'NDRG1', 'KLF6', 'RAP2B', 'RBM8A', 'RPL21', 'CKS1B', 'PUS1', 'TGFBI', 'KRT18', 'OSGIN1', 'CAPZA1', 'FBXO5', 'TIMP1', 'RAP1GAP', 'TUBB4B', 'TSPAN14', 'GLRX', 'ZFP36', 'CCT4', 'RPL41', 'LXN', 'HOXB8', 'TPX2', 'AURKA', 'ATP1B1', 'GNG11', 'RPL39', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'PTP4A1', 'ZNF622', 'RPS29', 'ANXA2', 'F12', 'PKMYT1', 'PRSS3', 'MYL12B', 'TEAD4', 'UTP6', 'ZFP36L1', 'METRN', 'TXN', 'INA', 'HMGB3', 'ID1', 'PLRG1', 'UTP18', 'CHORDC1', 'ZFAS1', 'RRS1', 'EMC7', 'VIM', 'CCDC34', 'CBX6', 'IMMP2L', 'STK17A', 'MFGE8', 'BLVRB', 'GIGYF1', 'UQCRQ', 'FAM64A', 'PAQR5', 'TOR1AIP2', 'PPID', 'MT2A', 'BIRC3', 'ANKRD40', 'CDC20', 'PPP1R14A', 'TERF1', 'S100A11', 'AGR2', 'PIR', 'EREG', 'PPA2', 'LDHA', 'CPLX2', 'MYBL2', 'RAN', 'PPP1R15A', 'CCT5', 'DNAJC3', 'IGFBP4', 'DDX39A', 'TM4SF1', 'SERPINB1', 'AP1S2', 'ASPM', 'MESP1', 'PTPRF', 'RAB10', 'RPS27', 'PSMD14', 'CD9', 'RAB3B', 'TMEM54', 'RARRES1', 'PTPRS', 'PRDX1', 'DOK4', 'GCLC', 'AURKB', 'SDHB', 'ID2', 'AHNAK', 'LITAF', 'RAD21', 'ATF4', 'TALDO1', 'NPTX1', 'ASF1A', 'ENO1', 'UBE2C', 'PYCARD', 'LMO7', 'UPP1', 'CRIM1', 'HMMR', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'EMP3', 'MARCKSL1', 'CDCA5', 'PDLIM7', 'ACAT1', 'PCSK1N', 'NAA15', 'SAT1', 'COX7B', 'CYB5A', 'PRMT1', 'DCBLD2', 'XRCC5']</t>
+          <t>['DEPDC1B', 'ACTG1', 'TMSB10', 'GPX1', 'RBM8A', 'NUCKS1', 'GLRX', 'GSN', 'AKR1C3', 'TSFM', 'CA8', 'TM4SF1', 'CYB5B', 'CKS2', 'DKC1', 'TOP2A', 'GAL', 'TMSB4X', 'FBXO5', 'EMC7', 'MAP1B', 'DDX21', 'NOC3L', 'EREG', 'MARCKSL1', 'MCM7', 'HSPA2', 'CCND3', 'PLRG1', 'ID1', 'DDIT4', 'TRIB3', 'MZT1', 'ATP1B1', 'CNIH4', 'PHLDA2', 'PKM', 'SQSTM1', 'DHRS7', 'S100A11', 'ARHGAP11A', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'DHRS3', 'UTP18', 'ID2', 'CCNA2', 'PTRH2', 'PSMC1', 'NANS', 'SMC1A', 'PRDX4', 'CDCA3', 'SERPINE1', 'TUBA1B', 'TPX2', 'EPHA2', 'GAMT', 'RAP2B', 'ID3', 'PKMYT1', 'RRM2', 'NDUFA9', 'EIF3M', 'CHORDC1', 'CYP1B1', 'PRSS3', 'AKAP12', 'INSIG1', 'UBE2S', 'TOB1', 'RARRES1', 'TK1', 'NRDC', 'TOR1AIP2', 'CD55', 'RPS27', 'NUPR1', 'OSGIN1', 'CCNB2', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'KANK1', 'UNC50', 'PSMC2', 'SGOL1', 'CTSL', 'CYB5A', 'PGD', 'NOL7', 'KRT18', 'TAGLN2', 'HLA-A', 'SKIL', 'IGFBP4', 'DUSP1', 'TP53I3', 'ITGB5', 'AKR1B10', 'NOL11', 'ALDH2', 'KPNA2', 'RMI2', 'DCBLD2', 'CAV1', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'RPL21', 'YWHAE', 'CDC123', 'LGMN', 'CCDC80', 'S100A6', 'ALDH1A1', 'DCAF13', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'TUBA4A', 'CAV2', 'ASF1A', 'BLVRB', 'MDK', 'TRAM1', 'CALB2', 'ODC1', 'ZFAS1', 'AKR1C2', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SULT2B1', 'SLC35F6', 'HMGB2', 'RAB3B', 'SFRP1', 'BIRC3', 'EIF1AY', 'LGALS3', 'RPL39', 'UBE2C', 'MYL6', 'MMD', 'B4GALT1', 'FOSL1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'SAT1', 'AHNAK', 'SLC26A2', 'TIMP1', 'MYL12B', 'PSMD7', 'MT2A', 'LXN', 'ACAT1', 'NPTX1', 'SERPINB1', 'RAI14', 'PIF1', 'CCDC34', 'HMGCS1', 'PDLIM7', 'MGLL', 'SNRPF', 'FGFBP1', 'CTTN', 'CES1', 'PDLIM5', 'UQCRQ', 'TNRC6B', 'GSTO1', 'VAMP8', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'CAPZA1', 'PDXK', 'NTS', 'KRT7', 'ZNF622', 'CBX6', 'PSMC4', 'NDUFA12', 'BASP1', 'XRCC5', 'CPLX2', 'TUBB4B', 'RPL31', 'HOMER3', 'HOXB8', 'KYNU', 'RAB10', 'TSC22D1', 'ANXA1', 'ANXA4', 'KIF23', 'PTPRS', 'ABCG2', 'RPS18', 'CDKN2D', 'PPID', 'INO80C', 'ANKRD40', 'NDRG1', 'IRF2BP2', 'CAPN2', 'PBDC1', 'PA2G4', 'CCT7', 'CCT3', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'ITGA3', 'EMP3', 'CRIM1', 'MALAT1', 'REEP5', 'NDUFC2', 'TMEM54', 'PDHB', 'DYNLL1', 'LITAF', 'HMGB3', 'BTG1', 'TALDO1', 'EEF1A1', 'MESP1', 'HACD3', 'MAP1LC3B', 'RPS12', 'SMIM14', 'PAQR5', 'FSCN1', 'CCNB1', 'PTP4A1', 'RIPK2', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'ADM', 'METRN', 'ITGB1', 'ARL6IP1', 'AXL', 'UCP2', 'S100A13', 'CDCA5', 'FSTL3', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'FAM64A', 'TSPAN14', 'LOXL2', 'HSPA8', 'EIF2S3', 'OSGIN2', 'PMEPA1', 'RAD21', 'PCDH9', 'CD68', 'SUCLG1', 'UPK1B', 'PRSS23', 'SERPINE2', 'INPP1', 'GADD45B', 'FOS', 'AIMP2', 'RPL37A', 'CSRP1', 'NUDT19', 'HMOX1', 'FKBP11', 'ALG8', 'KRT8', 'CEBPB', 'GPX2', 'LMNA', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'SSB', 'INA', 'CTSH', 'REEP4', 'ALDH3A1', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'CYBA', 'GINS2', 'TUBB', 'CENPF', 'INHBB', 'SLC12A2', 'SLC16A3', 'TEAD4', 'NOLC1', 'ATP1B3', 'KRT81', 'GLRX3', 'FN1', 'DUSP5', 'ZFP36', 'ANP32A', 'COX7B', 'CDK1', 'FEN1', 'PMP22', 'DDX10', 'AURKA', 'RPL41', 'UQCR11', 'PPP1R14A', 'CD44', 'CCL2', 'CACNG6', 'PSMD14', 'GAL3ST1', 'OAS1', 'LY6K', 'REXO2', 'TPPP3', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'PPP1R15A', 'ARHGAP29', 'PHACTR2', 'CRIP1', 'UQCRC2', 'PTPRF', 'NQO1', 'GPRC5A', 'PLAU', 'LBH', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'PCNA', 'ANTXR1', 'GABRA5', 'ZFP36L1', 'TKT', 'TXN', 'PPP3CA', 'APOBEC3C', 'PLAUR', 'C1orf56', 'PRPS2', 'DNMBP', 'RND3', 'MKI67', 'RPL38', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'EVA1C', 'PRAME', 'CENPA', 'SLBP', 'SMOX', 'TNFRSF12A', 'HNRNPH1', 'AGR2', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'GPX3', 'CXCL5', 'GIGYF1', 'LMO7', 'CD70', 'BCL2L1', 'STC2', 'CDC42EP1', 'SPP1', 'CD63', 'S100A4', 'S100A2', 'IGFBP7', 'UBR4', 'CRIP2', 'IMMP2L', 'NAMPT', 'ORMDL2', 'SLC20A1', 'CKS1B', 'CCT8', 'CA12', 'HSP90B1', 'TM4SF4', 'HES4', 'MFSD12', 'F12', 'AP1S2', 'AMIGO2', 'CAPG', 'RILP', 'ATF4', 'EIF4A3', 'GCNT3', 'ECH1', 'RHOD', 'HSP90AA1', 'TUBA1A', 'LDHA', 'HSPE1', 'RPL28', 'GNG11', 'EIF3D', 'RAD51C', 'MNS1', 'PYCARD', 'SFN', 'ASPM', 'MYL12A', 'ELF3', 'STMN1', 'PHGDH', 'UCHL1', 'TUBA1C', 'UTP6', 'ADA', 'DPM1', 'TRAPPC6A', 'COX7C', 'CHP1', 'CTNNAL1', 'PTTG1', 'RAP1GAP', 'TESC', 'STK17A', 'AHNAK2', 'PPA2', 'RPS29', 'VIM', 'DOK4', 'NRP2', 'HMMR', 'CNFN', 'FA2H', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'RSPO3', 'CD24', 'AVPI1', 'DDX39A', 'PSMA3', 'CDC25B', 'LDHB', 'RIN2', 'KRT19', 'CLU', 'BIRC5', 'IGFBP6', 'ISG20', 'S100A16', 'ZFP36L2', 'S100A10', 'ACAT2', 'CXCL3', 'NPC2', 'SLC27A2', 'B2M', 'GCLC', 'MRPS22', 'INSL4', 'ATXN10', 'PRDX1', 'NNMT', 'PLK2', 'PIR', 'RPS24', 'SLC4A7', 'KCNMA1', 'CDC42', 'UHRF1']</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS', 'IC', 'IEA'], ['IDA', 'IGI', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA'], ['IMP'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'ND'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS', 'IC', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ND', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HEP', 'IBA', 'IEA'], ['ND'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'ND', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['NAS', 'ND'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IC', 'IEA'], ['HEP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IBA', 'ND', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ND'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'HMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ND'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IMP', 'IBA', 'IEA'], ['IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ND', 'IEA'], ['IDA', 'ISS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IBA', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['IDA', 'IGI', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['ND'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'TAS', 'IEA'], ['IEA'], ['ISS', 'ND'], ['IMP', 'NAS', 'IEA'], ['ND'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HEP', 'IBA', 'IEA'], ['IMP', 'HMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'NAS', 'IC', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['NAS', 'IC', 'IEA'], ['HMP', 'IBA', 'IEA'], ['ISS', 'TAS', 'ND', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['EXP', 'IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['HEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'HMP', 'IBA', 'IEA'], ['ND'], ['IDA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['HMP'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IC', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS', 'ND'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>['PIF1', 'HSP90AB1', 'HSP90AA1', 'CCT3', 'CTNNB1', 'CCT2', 'CCT7', 'DKC1', 'CCT8', 'CCT4', 'TERF1', 'CCT5', 'XRCC5']</t>
+          <t>['DKC1', 'TERF1', 'PIF1', 'XRCC5', 'CCT7', 'CCT3', 'CCT4', 'HSP90AB1', 'CTNNB1', 'CCT2', 'CCT5', 'CCT8', 'HSP90AA1']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS'], ['IMP'], ['IMP']]</t>
+          <t>[['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'TAS']]</t>
         </is>
       </c>
     </row>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MAP1B', 'TPPP3', 'EIF3D', 'EIF4EBP1', 'NRP2', 'NDUFC2', 'UQCRC2', 'NOL11', 'RMI2', 'RPL37A', 'RPS12', 'SPP1', 'SFRP1', 'HILPDA', 'TUBA4A', 'RND3', 'UNC50', 'MNS1', 'SQSTM1', 'ATXN10', 'INO80C', 'YWHAE', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'OSGIN2', 'HSPA1A', 'DUSP1', 'HOMER3', 'TESC', 'GLRX3', 'SH3BGRL3', 'EIF3E', 'S100A10', 'UBE2S', 'SERPINE1', 'ANTXR1', 'CCNB2', 'NQO1', 'CRIP2', 'CCND1', 'ALDH1A1', 'NTS', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'AXL', 'ADM', 'S100A2', 'FGFBP1', 'MYL12A', 'IGFBP7', 'REEP5', 'TUBA1B', 'CXCL5', 'SSB', 'COX7C', 'CD44', 'STMN1', 'YARS', 'TMPO', 'PLK2', 'MDK', 'HSP90AB1', 'NUP37', 'LOXL2', 'TMSB10', 'GPRC5A', 'RPS18', 'RIN2', 'SMC1A', 'CCDC80', 'CTNNAL1', 'PMP22', 'DHRS7', 'HNRNPH1', 'MFSD12', 'PDLIM5', 'TRAM1', 'PHACTR2', 'IGFBP3', 'CD24', 'TXNRD1', 'ITGB1', 'ADA', 'EIF2S3', 'PHLDA2', 'HSPA2', 'BASP1', 'CXCL3', 'VAMP8', 'SGOL1', 'SLC16A3', 'B4GALT1', 'CNFN', 'EIF3M', 'INSIG1', 'CDCA3', 'RPS28', 'KRT8', 'TP53I3', 'HSP90AA1', 'CHP1', 'TRAPPC6A', 'MSH6', 'CD68', 'PGK1', 'PKM', 'GABRA5', 'AVPI1', 'LGALS3', 'CENPA', 'CDK1', 'PBDC1', 'RPL31', 'SERPINE2', 'INSL4', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'MKI67', 'CD55', 'CCNB1', 'ACTG1', 'GAMT', 'ID3', 'ELF3', 'FN1', 'DCAF13', 'TSC22D1', 'NCL', 'SLPI', 'SLC27A2', 'TK1', 'SLC4A7', 'KRT7', 'PLK1', 'CTSB', 'UCHL1', 'CAPN2', 'DYNLL1', 'TNFRSF12A', 'HES4', 'NPM1', 'GADD45B', 'EPHA2', 'BCL2L1', 'KANK1', 'HSPD1', 'DDIT4', 'NUF2', 'PRSS23', 'GPX3', 'CCL2', 'GINS2', 'LAPTM4A', 'CKS2', 'NDUFA9', 'CYP1B1', 'DDX10', 'SET', 'RAI14', 'STC2', 'CA8', 'EFHD2', 'CCT3', 'MMD', 'CDC42', 'NRDC', 'DDX21', 'HPCAL1', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'PSMA4', 'EGR1', 'NDUFA12', 'UCP2', 'ANXA1', 'ODC1', 'PLAU', 'TOP2A', 'CCT2', 'INPP1', 'NUPR1', 'TAGLN2', 'KIF23', 'AHNAK2', 'FA2H', 'PSMC4', 'KRT81', 'FSCN1', 'CNIH4', 'ORMDL2', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'PPP1R7', 'SFN', 'APOBEC3C', 'AKAP12', 'SLC7A5', 'FSTL3', 'AKR1B1', 'RILP', 'SNRPF', 'AMIGO2', 'HSPA8', 'CCT7', 'EIF1AY', 'KPNA2', 'DKC1', 'SLC35F6', 'GSTO1', 'KCNMA1', 'MZT1', 'TRIB3', 'LDHB', 'RHOD', 'SMIM14', 'CDKN2D', 'ITGB5', 'HSP90B1', 'S100A3', 'GSN', 'ATP1B3', 'PPP1CB', 'PRPS2', 'SLC12A2', 'UHRF1', 'UPK1B', 'PTTG1', 'TOB1', 'PTRH2', 'DPM1', 'REEP4', 'ACAT2', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'TM4SF4', 'CD63', 'ALDH3A1', 'HMGCS1', 'PCNA', 'AKR1B10', 'IGFBP6', 'ABCG2', 'ALG8', 'KYNU', 'RPL28', 'MTHFD2', 'CEBPB', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'CTTN', 'NOL7', 'CCT8', 'CCNA2', 'CDC42EP1', 'CES1', 'CAPG', 'UBC', 'TUBA1C', 'DNMBP', 'RPS24', 'ORC5', 'ARL6IP1', 'RRM2', 'B2M', 'MRPS22', 'ZFP36L2', 'RPL38', 'PSMC1', 'UBB', 'TUBA1A', 'ANXA4', 'S100A4', 'SULT2B1', 'MYL6', 'CYBA', 'TNRC6B', 'RIPK2', 'PDHB', 'CTSH', 'HLA-A', 'SRP54', 'GAL', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'C1orf56', 'CDC123', 'ARHGAP29', 'CSRP1', 'MAP1LC3B', 'CAV2', 'INHBB', 'HSPE1', 'S100A6', 'ANKRD1', 'CLU', 'LGMN', 'CD70', 'CDC25B', 'CYB5B', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'LBH', 'NFKBIE', 'FOSL1', 'NPC2', 'PDXK', 'UBR4', 'RSPO3', 'VDAC3', 'PLAUR', 'MGLL', 'AIMP2', 'NDRG1', 'KLF6', 'RAP2B', 'RBM8A', 'LACTB2', 'RPL21', 'CKS1B', 'TMEM92', 'TGFBI', 'KRT18', 'OSGIN1', 'CAPZA1', 'FBXO5', 'TIMP1', 'RAP1GAP', 'TUBB4B', 'TSPAN14', 'GLRX', 'ZFP36', 'CCT4', 'RPL41', 'LXN', 'TPX2', 'SPATS2', 'AURKA', 'ATP1B1', 'GNG11', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'ITGA3', 'PTP4A1', 'ZNF622', 'ANXA2', 'F12', 'PKMYT1', 'PRSS3', 'MYL12B', 'TEAD4', 'UTP6', 'ZFP36L1', 'METRN', 'TXN', 'INA', 'HMGB3', 'ID1', 'PLRG1', 'UTP18', 'CHORDC1', 'RRS1', 'EMC7', 'VIM', 'CCDC34', 'CBX6', 'IMMP2L', 'MFGE8', 'BLVRB', 'GIGYF1', 'FAM64A', 'PAQR5', 'TOR1AIP2', 'PPID', 'MT2A', 'PCED1B', 'BIRC3', 'ANKRD40', 'CDC20', 'TERF1', 'S100A11', 'AGR2', 'PIR', 'EREG', 'PPA2', 'LDHA', 'CPLX2', 'MYBL2', 'RAN', 'PPP1R15A', 'CCT5', 'DNAJC3', 'IGFBP4', 'DDX39A', 'TM4SF1', 'SERPINB1', 'AP1S2', 'ASPM', 'MESP1', 'PTPRF', 'RAB10', 'RPS27', 'PSMD14', 'CD9', 'RAB3B', 'TMEM54', 'RARRES1', 'PTPRS', 'PRDX1', 'DOK4', 'GCLC', 'AURKB', 'SDHB', 'ID2', 'MUC5AC', 'AHNAK', 'LITAF', 'RAD21', 'ATF4', 'TALDO1', 'MORC4', 'ASF1A', 'ENO1', 'UBE2C', 'PYCARD', 'LMO7', 'UPP1', 'CRIM1', 'HMMR', 'AKR1C3', 'TUBB', 'PHGDH', 'LGALS1', 'EMP3', 'MARCKSL1', 'CDCA5', 'PDLIM7', 'ACAT1', 'PCSK1N', 'NAA15', 'SAT1', 'COX7B', 'CYB5A', 'PRMT1', 'DCBLD2', 'XRCC5']</t>
+          <t>['ACTG1', 'MUC5AC', 'TMSB10', 'GPX1', 'RBM8A', 'NUCKS1', 'GLRX', 'GSN', 'AKR1C3', 'TSFM', 'CA8', 'TM4SF1', 'CYB5B', 'CKS2', 'S100A3', 'DKC1', 'TOP2A', 'GAL', 'TMSB4X', 'FBXO5', 'EMC7', 'MAP1B', 'DDX21', 'EREG', 'MARCKSL1', 'MCM7', 'HSPA2', 'CCND3', 'HPCAL1', 'PLRG1', 'ID1', 'DDIT4', 'TRIB3', 'MZT1', 'ATP1B1', 'CNIH4', 'PHLDA2', 'PKM', 'SQSTM1', 'DHRS7', 'S100A11', 'PGK1', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'UTP18', 'ID2', 'CCNA2', 'PTRH2', 'PSMC1', 'SMC1A', 'PRDX4', 'CDCA3', 'SERPINE1', 'TUBA1B', 'TPX2', 'EPHA2', 'GAMT', 'RAP2B', 'ID3', 'PKMYT1', 'RRM2', 'NDUFA9', 'EIF3M', 'CHORDC1', 'CYP1B1', 'PRSS3', 'AKAP12', 'INSIG1', 'UBE2S', 'TOB1', 'RARRES1', 'TK1', 'NRDC', 'TOR1AIP2', 'CD55', 'RPS27', 'NUPR1', 'OSGIN1', 'CCNB2', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'KANK1', 'UNC50', 'PSMC2', 'SGOL1', 'CTSL', 'CYB5A', 'NOL7', 'KRT18', 'TAGLN2', 'HLA-A', 'SKIL', 'IGFBP4', 'DUSP1', 'TP53I3', 'ITGB5', 'AKR1B10', 'NOL11', 'KPNA2', 'RMI2', 'DCBLD2', 'CAV1', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'RPL21', 'YWHAE', 'CDC123', 'LGMN', 'CCDC80', 'S100A6', 'ALDH1A1', 'DCAF13', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'PPP1R7', 'TUBA4A', 'CAV2', 'ASF1A', 'BLVRB', 'MDK', 'TRAM1', 'ODC1', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SULT2B1', 'SLC35F6', 'HMGB2', 'RAB3B', 'SFRP1', 'BIRC3', 'EIF1AY', 'LGALS3', 'UBE2C', 'MYL6', 'MMD', 'B4GALT1', 'FOSL1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'SAT1', 'AHNAK', 'TIMP1', 'MYL12B', 'PSMD7', 'MT2A', 'LXN', 'ACAT1', 'SERPINB1', 'RAI14', 'CCDC34', 'HMGCS1', 'PDLIM7', 'MGLL', 'SNRPF', 'FGFBP1', 'CTTN', 'CES1', 'PDLIM5', 'LAPTM4A', 'TNRC6B', 'GSTO1', 'VAMP8', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'CAPZA1', 'PDXK', 'NTS', 'KRT7', 'ZNF622', 'CBX6', 'PSMC4', 'NDUFA12', 'BASP1', 'XRCC5', 'CPLX2', 'TUBB4B', 'RPL31', 'HOMER3', 'KYNU', 'RAB10', 'TSC22D1', 'ANXA1', 'MORC4', 'ANXA4', 'KIF23', 'PTPRS', 'ABCG2', 'RPS18', 'CDKN2D', 'LACTB2', 'PPID', 'INO80C', 'ANKRD40', 'NDRG1', 'CAPN2', 'PBDC1', 'PA2G4', 'CCT7', 'CCT3', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'ITGA3', 'EMP3', 'CRIM1', 'REEP5', 'NDUFC2', 'TMEM54', 'PDHB', 'DYNLL1', 'LITAF', 'HMGB3', 'BTG1', 'TALDO1', 'EEF1A1', 'MESP1', 'HACD3', 'MAP1LC3B', 'RPS12', 'SMIM14', 'TMPO', 'PAQR5', 'FSCN1', 'CCNB1', 'PTP4A1', 'RIPK2', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'ADM', 'METRN', 'ITGB1', 'ARL6IP1', 'AXL', 'UCP2', 'S100A13', 'CDCA5', 'FSTL3', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'FAM64A', 'TSPAN14', 'LOXL2', 'HSPA8', 'EIF2S3', 'OSGIN2', 'PMEPA1', 'RAD21', 'CD68', 'SUCLG1', 'UPK1B', 'PRSS23', 'SERPINE2', 'INPP1', 'GADD45B', 'FOS', 'AIMP2', 'RPL37A', 'CSRP1', 'HMOX1', 'ALG8', 'KRT8', 'CEBPB', 'LMNA', 'CTNNB1', 'EBNA1BP2', 'SSB', 'INA', 'CTSH', 'REEP4', 'ALDH3A1', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'CYBA', 'GINS2', 'TUBB', 'CENPF', 'INHBB', 'SLC12A2', 'SLC16A3', 'TEAD4', 'NOLC1', 'ATP1B3', 'KRT81', 'GLRX3', 'FN1', 'DUSP5', 'ZFP36', 'ANP32A', 'COX7B', 'CDK1', 'FEN1', 'PMP22', 'DDX10', 'AURKA', 'RPL41', 'CD44', 'CCL2', 'PSMD14', 'OAS1', 'TPPP3', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'PPP1R15A', 'ARHGAP29', 'PHACTR2', 'UQCRC2', 'PTPRF', 'NQO1', 'GPRC5A', 'PLAU', 'LBH', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'PCNA', 'ANTXR1', 'GABRA5', 'ZFP36L1', 'TKT', 'TXN', 'PPP3CA', 'APOBEC3C', 'PLAUR', 'C1orf56', 'PRPS2', 'DNMBP', 'RND3', 'MKI67', 'RPL38', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'PRAME', 'CENPA', 'SLBP', 'TNFRSF12A', 'HNRNPH1', 'AGR2', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'GPX3', 'CXCL5', 'GIGYF1', 'LMO7', 'CD70', 'BCL2L1', 'STC2', 'CDC42EP1', 'SPP1', 'CD63', 'S100A4', 'S100A2', 'IGFBP7', 'UBR4', 'CRIP2', 'IMMP2L', 'NAMPT', 'ORMDL2', 'CKS1B', 'CCT8', 'HSP90B1', 'TM4SF4', 'HES4', 'MFSD12', 'F12', 'AP1S2', 'AMIGO2', 'CAPG', 'RILP', 'ATF4', 'EIF4A3', 'ECH1', 'RHOD', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'HSPE1', 'RPL28', 'GNG11', 'SPATS2', 'EIF3D', 'RAD51C', 'EFHD2', 'MNS1', 'PYCARD', 'SFN', 'ASPM', 'MYL12A', 'ELF3', 'STMN1', 'PHGDH', 'UCHL1', 'TUBA1C', 'UTP6', 'ADA', 'DPM1', 'TRAPPC6A', 'COX7C', 'CHP1', 'CTNNAL1', 'PTTG1', 'RAP1GAP', 'TESC', 'AHNAK2', 'PPA2', 'VIM', 'DOK4', 'NRP2', 'HMMR', 'CNFN', 'FA2H', 'PRMT1', 'MSH6', 'SET', 'PCED1B', 'AURKB', 'CTNNBL1', 'RSPO3', 'CD24', 'AVPI1', 'DDX39A', 'PSMA3', 'CDC25B', 'LDHB', 'RIN2', 'KRT19', 'CLU', 'BIRC5', 'IGFBP6', 'S100A16', 'ZFP36L2', 'S100A10', 'ACAT2', 'CXCL3', 'NPC2', 'SLC27A2', 'B2M', 'GCLC', 'MRPS22', 'INSL4', 'ATXN10', 'PRDX1', 'PLK2', 'PIR', 'RPS24', 'SLC4A7', 'KCNMA1', 'CDC42', 'UHRF1']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'NAS'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'HDA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'TAS'], ['IPI', 'HDA', 'TAS'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IBA'], ['IPI', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['ISS', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA'], ['IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'IC', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IMP'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IEA'], ['IPI'], ['HDA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'TAS'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IMP'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IEA'], ['IPI', 'IBA', 'NAS'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'TAS'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['ISS'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IC', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA'], ['NAS'], ['IDA', 'IPI', 'IMP', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'NAS'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'TAS', 'NAS'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IC'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IBA'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'HDA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI']]</t>
+          <t>[['IDA', 'IPI', 'IBA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IMP'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'TAS'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI', 'HDA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI', 'HDA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IC', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['NAS'], ['IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HDA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IGI', 'ISS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'NAS'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA'], ['IPI', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'NAS'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'TAS'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IC', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IBA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IMP'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IEA'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'ISS'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IC'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['HDA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ISS'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'TAS', 'NAS'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IBA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA'], ['IPI', 'TAS'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['TAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['ISS'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['TPPP3', 'SPP1', 'SFRP1', 'MNS1', 'OSGIN2', 'DUSP1', 'CRIP1', 'CCNB2', 'GAL3ST1', 'RAD51C', 'AXL', 'ADM', 'IGFBP7', 'MDK', 'LY6K', 'SMC1A', 'ITGB1', 'ADA', 'HSPA2', 'BASP1', 'SGOL1', 'B4GALT1', 'KRT8', 'MSH6', 'CDK1', 'SERPINE2', 'GAMT', 'DCAF13', 'PLK1', 'CTSB', 'UCHL1', 'CAPN2', 'DYNLL1', 'BCL2L1', 'NUF2', 'CA12', 'CKS2', 'CYP1B1', 'RAI14', 'STC2', 'CCT3', 'CTNNB1', 'EGR1', 'ANXA1', 'TOP2A', 'CCT2', 'NUPR1', 'SKIL', 'HSPA8', 'CCT7', 'PTTG1', 'HMGB2', 'PCNA', 'CEBPB', 'BIRC5', 'PRDX4', 'CCT8', 'UBB', 'TUBA1A', 'FOS', 'INHBB', 'CDC25B', 'KRT19', 'FOSL1', 'VDAC3', 'FBXO5', 'TIMP1', 'TUBB4B', 'CCT4', 'AURKA', 'ITGA3', 'PKMYT1', 'TEAD4', 'CCDC34', 'IMMP2L', 'MFGE8', 'PAQR5', 'BIRC3', 'CDC20', 'TERF1', 'EREG', 'RAN', 'CCT5', 'ASPM', 'CD9', 'RAD21', 'AKR1C3']</t>
+          <t>['AKR1C3', 'CKS2', 'TOP2A', 'FBXO5', 'EREG', 'HSPA2', 'SMC1A', 'PRDX4', 'GAMT', 'PKMYT1', 'CYP1B1', 'NUPR1', 'CCNB2', 'UBB', 'SGOL1', 'SKIL', 'DUSP1', 'TERF1', 'DCAF13', 'MDK', 'EGR1', 'HMGB2', 'SFRP1', 'BIRC3', 'B4GALT1', 'FOSL1', 'TIMP1', 'RAI14', 'CCDC34', 'BASP1', 'TUBB4B', 'ANXA1', 'CAPN2', 'CCT7', 'CCT3', 'CCT4', 'ITGA3', 'DYNLL1', 'PAQR5', 'PLK1', 'ADM', 'ITGB1', 'AXL', 'CD9', 'CTSB', 'HSPA8', 'OSGIN2', 'RAD21', 'SERPINE2', 'FOS', 'KRT8', 'CEBPB', 'CTNNB1', 'CCT2', 'CDC20', 'INHBB', 'TEAD4', 'CDK1', 'AURKA', 'GAL3ST1', 'LY6K', 'TPPP3', 'NUF2', 'CRIP1', 'PCNA', 'VDAC3', 'CCT5', 'RAN', 'MFGE8', 'BCL2L1', 'STC2', 'SPP1', 'IGFBP7', 'IMMP2L', 'CCT8', 'CA12', 'TUBA1A', 'RAD51C', 'MNS1', 'ASPM', 'UCHL1', 'ADA', 'PTTG1', 'MSH6', 'CDC25B', 'KRT19', 'BIRC5']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IEP'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['ISS'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IEP']]</t>
+          <t>[['IEP'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IBA'], ['IMP', 'ISS', 'IEA'], ['IBA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4604,12 +4604,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>['PMEPA1', 'MAP1B', 'TPPP3', 'EIF4EBP1', 'NDUFC2', 'UQCRC2', 'NOL11', 'RMI2', 'RPL37A', 'RPS12', 'SPP1', 'HILPDA', 'TUBA4A', 'RND3', 'UNC50', 'NEAT1', 'MNS1', 'SQSTM1', 'ATXN10', 'INO80C', 'YWHAE', 'SLC3A2', 'JADE1', 'CTSL', 'TSFM', 'HSPA1A', 'DUSP1', 'TESC', 'GLRX3', 'SH3BGRL3', 'EIF3E', 'PIF1', 'S100A10', 'UBE2S', 'SERPINE1', 'ANTXR1', 'CCNB2', 'NQO1', 'ISG20', 'GAL3ST1', 'CCND1', 'NTS', 'COL5A2', 'RAD51C', 'EEF1A1', 'DUSP5', 'AXL', 'CALB2', 'MYL12A', 'IGFBP7', 'REEP5', 'TUBA1B', 'SSB', 'COX7C', 'CD44', 'STMN1', 'YARS', 'TMPO', 'PLK2', 'HSP90AB1', 'NUP37', 'LY6K', 'LOXL2', 'TMSB10', 'GPRC5A', 'RPS18', 'RIN2', 'SMC1A', 'CTNNAL1', 'DHRS7', 'HNRNPH1', 'MFSD12', 'PDLIM5', 'TRAM1', 'PHACTR2', 'IGFBP3', 'CD24', 'TXNRD1', 'ITGB1', 'ADA', 'HSPA2', 'BASP1', 'VAMP8', 'SGOL1', 'SLC16A3', 'B4GALT1', 'INSIG1', 'RPS28', 'KRT8', 'HSP90AA1', 'CHP1', 'TRAPPC6A', 'MSH6', 'CD68', 'PKM', 'GABRA5', 'LGALS3', 'CENPA', 'CDK1', 'RPL31', 'SERPINE2', 'PRAME', 'EIF4A3', 'S100A16', 'TIMP2', 'MKI67', 'CD55', 'CCNB1', 'ACTG1', 'GAMT', 'ID3', 'SMOX', 'ELF3', 'FN1', 'DCAF13', 'TSC22D1', 'NCL', 'IRF2BP2', 'SLPI', 'SLC27A2', 'TK1', 'KRT7', 'PLK1', 'CTSB', 'UCHL1', 'CAPN2', 'DYNLL1', 'HES4', 'NPM1', 'GADD45B', 'BCL2L1', 'KANK1', 'HSPD1', 'DDIT4', 'NUF2', 'PRSS23', 'GINS2', 'LAPTM4A', 'NDUFA9', 'CYP1B1', 'DDX10', 'NUDT19', 'SET', 'RAI14', 'STC2', 'CCT3', 'MMD', 'CDC42', 'NRDC', 'DDX21', 'FKBP11', 'TMSB4X', 'OAS1', 'PPP3CA', 'ECH1', 'MCM7', 'NUCKS1', 'FEN1', 'HMGA1', 'CTNNB1', 'HACD3', 'HSPA5', 'PSMA4', 'EGR1', 'NDUFA12', 'UCP2', 'ANXA1', 'PLAU', 'TOP2A', 'CCT2', 'NUPR1', 'TAGLN2', 'KIF23', 'AHNAK2', 'FA2H', 'GCNT3', 'PSMC4', 'KRT81', 'FSCN1', 'CNIH4', 'ORMDL2', 'NAMPT', 'SKIL', 'GTPBP4', 'PSMD7', 'PPP1R7', 'SFN', 'APOBEC3C', 'AKAP12', 'SLC7A5', 'FSTL3', 'ARHGAP11A', 'AKR1B1', 'RILP', 'SNRPF', 'AMIGO2', 'HSPA8', 'CCT7', 'KPNA2', 'DKC1', 'SLC35F6', 'REXO2', 'MZT1', 'TRIB3', 'LDHB', 'RHOD', 'SMIM14', 'CDKN2D', 'ITGB5', 'HSP90B1', 'S100A3', 'GSN', 'ATP1B3', 'PPP1CB', 'SLC12A2', 'UHRF1', 'PTTG1', 'TOB1', 'PTRH2', 'DPM1', 'REEP4', 'ACAT2', 'NOLC1', 'HMGB2', 'ACTB', 'SUCLG1', 'CD63', 'ALDH3A1', 'PCNA', 'AKR1B10', 'ABCG2', 'ALG8', 'KYNU', 'RPL28', 'MTHFD2', 'CEBPB', 'NOC3L', 'CCND3', 'BIRC5', 'PSMC2', 'LMNA', 'PRDX4', 'CTTN', 'DHRS3', 'NOL7', 'CCT8', 'CCNA2', 'CDC42EP1', 'CES1', 'CAPG', 'UBC', 'TUBA1C', 'DNMBP', 'RPS24', 'ORC5', 'GOLIM4', 'ARL6IP1', 'RRM2', 'B2M', 'MRPS22', 'ZFP36L2', 'RPL38', 'PSMC1', 'UBB', 'TUBA1A', 'ALDH2', 'ANXA4', 'GPX2', 'S100A4', 'SULT2B1', 'MYL6', 'CYBA', 'TNRC6B', 'RIPK2', 'PDHB', 'CTSH', 'HLA-A', 'SRP54', 'GAL', 'ANP32A', 'FHL2', 'GPX1', 'HMOX1', 'FOS', 'CACYBP', 'UQCR11', 'CSRP1', 'MAP1LC3B', 'CAV2', 'HSPE1', 'S100A6', 'ANKRD1', 'CLU', 'LGMN', 'CDC25B', 'CYB5B', 'MUC3A', 'CENPF', 'EBNA1BP2', 'CTNNBL1', 'BTG1', 'CAV1', 'COTL1', 'S100A13', 'KRT19', 'PGD', 'LBH', 'NFKBIE', 'FOSL1', 'NPC2', 'PDXK', 'UBR4', 'VDAC3', 'PLAUR', 'MGLL', 'AIMP2', 'NDRG1', 'KLF6', 'RAP2B', 'RBM8A', 'LACTB2', 'RPL21', 'CKS1B', 'TMEM92', 'PUS1', 'TGFBI', 'KRT18', 'CAPZA1', 'FBXO5', 'TIMP1', 'RAP1GAP', 'TUBB4B', 'TSPAN14', 'GLRX', 'ZFP36', 'CCT4', 'RPL41', 'HOXB8', 'TPX2', 'AURKA', 'RPL39', 'SLBP', 'PA2G4', 'TKT', 'PSMA3', 'PTP4A1', 'ZNF622', 'RPS29', 'ANXA2', 'F12', 'PKMYT1', 'PRSS3', 'MYL12B', 'TEAD4', 'UTP6', 'ZFP36L1', 'TXN', 'INA', 'HMGB3', 'ID1', 'PLRG1', 'UTP18', 'ZFAS1', 'RRS1', 'EMC7', 'VIM', 'CBX6', 'IMMP2L', 'STK17A', 'MFGE8', 'BLVRB', 'UQCRQ', 'FAM64A', 'TOR1AIP2', 'PPID', 'MT2A', 'BIRC3', 'CDC20', 'TERF1', 'S100A11', 'AGR2', 'PIR', 'EREG', 'PPA2', 'LDHA', 'CPLX2', 'MYBL2', 'RAN', 'PPP1R15A', 'CCT5', 'DNAJC3', 'IGFBP4', 'DDX39A', 'SERPINB1', 'AP1S2', 'ASPM', 'MESP1', 'RAB10', 'RPS27', 'PSMD14', 'CD9', 'RAB3B', 'PTPRS', 'PRDX1', 'GCLC', 'AURKB', 'SDHB', 'ID2', 'MUC5AC', 'AHNAK', 'LITAF', 'RAD21', 'ATF4', 'TALDO1', 'MORC4', 'NPTX1', 'ASF1A', 'ENO1', 'UBE2C', 'PYCARD', 'LMO7', 'UPP1', 'HMMR', 'AKR1C3', 'TUBB', 'LGALS1', 'MARCKSL1', 'CDCA5', 'PDLIM7', 'ACAT1', 'PCSK1N', 'NAA15', 'COX7B', 'CYB5A', 'PRMT1', 'XRCC5']</t>
+          <t>['ACTG1', 'MUC5AC', 'TMSB10', 'GPX1', 'RBM8A', 'NUCKS1', 'GLRX', 'GSN', 'AKR1C3', 'TSFM', 'CYB5B', 'S100A3', 'DKC1', 'TOP2A', 'GAL', 'TMSB4X', 'FBXO5', 'EMC7', 'MAP1B', 'DDX21', 'NOC3L', 'EREG', 'MARCKSL1', 'MCM7', 'HSPA2', 'CCND3', 'PLRG1', 'ID1', 'DDIT4', 'TRIB3', 'MZT1', 'CNIH4', 'PKM', 'SQSTM1', 'DHRS7', 'S100A11', 'ARHGAP11A', 'TGFBI', 'LGALS1', 'EIF3E', 'PSMA4', 'COTL1', 'DHRS3', 'UTP18', 'ID2', 'CCNA2', 'PTRH2', 'PSMC1', 'SMC1A', 'PRDX4', 'SERPINE1', 'TUBA1B', 'TPX2', 'GAMT', 'RAP2B', 'ID3', 'PKMYT1', 'RRM2', 'NDUFA9', 'CYP1B1', 'PRSS3', 'AKAP12', 'INSIG1', 'UBE2S', 'TOB1', 'GOLIM4', 'TK1', 'NRDC', 'TOR1AIP2', 'CD55', 'RPS27', 'NUPR1', 'CCNB2', 'UBB', 'JADE1', 'SLC3A2', 'KLF6', 'KANK1', 'UNC50', 'PSMC2', 'SGOL1', 'CTSL', 'CYB5A', 'PGD', 'NOL7', 'KRT18', 'TAGLN2', 'HLA-A', 'SKIL', 'IGFBP4', 'DUSP1', 'ITGB5', 'AKR1B10', 'NOL11', 'ALDH2', 'KPNA2', 'RMI2', 'CAV1', 'CACYBP', 'TERF1', 'IGFBP3', 'MTHFD2', 'RPL21', 'YWHAE', 'LGMN', 'S100A6', 'DCAF13', 'DNAJC3', 'TIMP2', 'PCSK1N', 'ENO1', 'PPP1R7', 'TUBA4A', 'CAV2', 'ASF1A', 'BLVRB', 'TRAM1', 'CALB2', 'ZFAS1', 'TXNRD1', 'ORC5', 'EGR1', 'NFKBIE', 'SULT2B1', 'SLC35F6', 'HMGB2', 'RAB3B', 'BIRC3', 'LGALS3', 'RPL39', 'UBE2C', 'MYL6', 'MMD', 'B4GALT1', 'FOSL1', 'NEAT1', 'UBC', 'ACTB', 'UPP1', 'NPM1', 'AHNAK', 'TIMP1', 'MYL12B', 'PSMD7', 'MT2A', 'ACAT1', 'NPTX1', 'SERPINB1', 'RAI14', 'PIF1', 'PDLIM7', 'MGLL', 'SNRPF', 'CTTN', 'CES1', 'PDLIM5', 'UQCRQ', 'LAPTM4A', 'TNRC6B', 'VAMP8', 'SRP54', 'SLPI', 'ANKRD1', 'MYBL2', 'CAPZA1', 'PDXK', 'NTS', 'KRT7', 'ZNF622', 'CBX6', 'PSMC4', 'NDUFA12', 'BASP1', 'XRCC5', 'CPLX2', 'TUBB4B', 'RPL31', 'HOXB8', 'KYNU', 'RAB10', 'TSC22D1', 'ANXA1', 'MORC4', 'ANXA4', 'KIF23', 'PTPRS', 'ABCG2', 'RPS18', 'CDKN2D', 'LACTB2', 'PPID', 'INO80C', 'NDRG1', 'IRF2BP2', 'CAPN2', 'PA2G4', 'CCT7', 'CCT3', 'CCND1', 'FHL2', 'HILPDA', 'CCT4', 'REEP5', 'NDUFC2', 'PDHB', 'DYNLL1', 'LITAF', 'HMGB3', 'BTG1', 'TALDO1', 'EEF1A1', 'MESP1', 'HACD3', 'MAP1LC3B', 'RPS12', 'SMIM14', 'TMPO', 'FSCN1', 'CCNB1', 'PTP4A1', 'RIPK2', 'HSP90AB1', 'SH3BGRL3', 'PLK1', 'ITGB1', 'ARL6IP1', 'AXL', 'UCP2', 'S100A13', 'CDCA5', 'FSTL3', 'CD9', 'HSPA1A', 'CTSB', 'HSPD1', 'FAM64A', 'TSPAN14', 'LOXL2', 'HSPA8', 'PMEPA1', 'RAD21', 'CD68', 'SUCLG1', 'PRSS23', 'SERPINE2', 'GADD45B', 'FOS', 'AIMP2', 'RPL37A', 'CSRP1', 'NUDT19', 'HMOX1', 'FKBP11', 'ALG8', 'KRT8', 'CEBPB', 'GPX2', 'LMNA', 'CTNNB1', 'PUS1', 'EBNA1BP2', 'SSB', 'INA', 'CTSH', 'REEP4', 'ALDH3A1', 'CCT2', 'RRS1', 'SDHB', 'CDC20', 'CYBA', 'GINS2', 'TUBB', 'CENPF', 'SLC12A2', 'SLC16A3', 'TEAD4', 'NOLC1', 'ATP1B3', 'KRT81', 'GLRX3', 'FN1', 'DUSP5', 'ZFP36', 'ANP32A', 'COX7B', 'CDK1', 'FEN1', 'DDX10', 'AURKA', 'RPL41', 'UQCR11', 'CD44', 'PSMD14', 'GAL3ST1', 'OAS1', 'LY6K', 'REXO2', 'TPPP3', 'NAA15', 'NUP37', 'NUF2', 'GTPBP4', 'PPP1R15A', 'PHACTR2', 'UQCRC2', 'NQO1', 'GPRC5A', 'PLAU', 'LBH', 'ANXA2', 'EIF4EBP1', 'AKR1B1', 'PCNA', 'ANTXR1', 'GABRA5', 'ZFP36L1', 'TKT', 'TXN', 'PPP3CA', 'APOBEC3C', 'PLAUR', 'DNMBP', 'RND3', 'MKI67', 'RPL38', 'RPS28', 'VDAC3', 'PPP1CB', 'HSPA5', 'YARS', 'CCT5', 'PRAME', 'CENPA', 'SLBP', 'SMOX', 'HNRNPH1', 'AGR2', 'SLC7A5', 'COL5A2', 'RAN', 'NCL', 'MFGE8', 'HMGA1', 'LMO7', 'BCL2L1', 'STC2', 'CDC42EP1', 'SPP1', 'CD63', 'S100A4', 'IGFBP7', 'UBR4', 'MUC3A', 'IMMP2L', 'NAMPT', 'ORMDL2', 'CKS1B', 'CCT8', 'HSP90B1', 'HES4', 'MFSD12', 'F12', 'AP1S2', 'AMIGO2', 'CAPG', 'RILP', 'ATF4', 'EIF4A3', 'GCNT3', 'ECH1', 'RHOD', 'HSP90AA1', 'TUBA1A', 'LDHA', 'TMEM92', 'HSPE1', 'RPL28', 'RAD51C', 'MNS1', 'PYCARD', 'SFN', 'ASPM', 'MYL12A', 'ELF3', 'STMN1', 'UCHL1', 'TUBA1C', 'UTP6', 'ADA', 'DPM1', 'TRAPPC6A', 'COX7C', 'CHP1', 'CTNNAL1', 'PTTG1', 'RAP1GAP', 'TESC', 'STK17A', 'AHNAK2', 'PPA2', 'RPS29', 'VIM', 'HMMR', 'FA2H', 'PRMT1', 'MSH6', 'SET', 'AURKB', 'CTNNBL1', 'CD24', 'DDX39A', 'PSMA3', 'CDC25B', 'LDHB', 'RIN2', 'KRT19', 'CLU', 'BIRC5', 'ISG20', 'S100A16', 'ZFP36L2', 'S100A10', 'ACAT2', 'NPC2', 'SLC27A2', 'B2M', 'GCLC', 'MRPS22', 'ATXN10', 'PRDX1', 'PLK2', 'PIR', 'RPS24', 'CDC42', 'UHRF1']</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IC', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['ISS', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IGI', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['EXP', 'IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['HDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HTP'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['EXP', 'NAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
